--- a/Alfa wing graphs/dataset.xlsx
+++ b/Alfa wing graphs/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\Documents\GitHub\E02H_2021\Alfa wing graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2444DE9C-7049-416B-A8FD-5DB0C8C4ECB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0745DD52-D4FE-44E6-A61C-DCC79A976C37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOAD &amp; DISPLACEMENT" sheetId="1" r:id="rId1"/>
@@ -6551,8 +6551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BT1110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9369,1752 +9369,677 @@
       <c r="BQ82" s="1"/>
     </row>
     <row r="83" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
       <c r="BQ83" s="1"/>
     </row>
     <row r="84" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
       <c r="BQ84" s="1"/>
     </row>
     <row r="85" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
       <c r="BQ85" s="1"/>
     </row>
     <row r="86" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
       <c r="BQ86" s="1"/>
     </row>
     <row r="87" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
       <c r="BQ87" s="1"/>
     </row>
     <row r="88" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
       <c r="BQ88" s="1"/>
     </row>
     <row r="89" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
       <c r="BQ89" s="1"/>
     </row>
     <row r="90" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
       <c r="BQ90" s="1"/>
     </row>
     <row r="91" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
       <c r="BQ91" s="1"/>
     </row>
     <row r="92" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
       <c r="BQ92" s="1"/>
     </row>
     <row r="93" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
       <c r="BQ93" s="1"/>
     </row>
     <row r="94" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
       <c r="BQ94" s="1"/>
     </row>
     <row r="95" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
       <c r="BQ95" s="1"/>
     </row>
     <row r="96" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
       <c r="BQ96" s="1"/>
     </row>
     <row r="97" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
       <c r="BQ97" s="1"/>
     </row>
     <row r="98" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
       <c r="BQ98" s="1"/>
     </row>
     <row r="99" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
       <c r="BQ99" s="1"/>
     </row>
     <row r="100" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
       <c r="BQ100" s="1"/>
     </row>
     <row r="101" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
       <c r="BQ101" s="1"/>
     </row>
     <row r="102" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
       <c r="BQ102" s="1"/>
     </row>
     <row r="103" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
       <c r="BQ103" s="1"/>
     </row>
     <row r="104" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
       <c r="BQ104" s="1"/>
     </row>
     <row r="105" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
       <c r="BQ105" s="1"/>
     </row>
     <row r="106" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
       <c r="BQ106" s="1"/>
     </row>
     <row r="107" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
       <c r="BQ107" s="1"/>
     </row>
     <row r="108" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
       <c r="BQ108" s="1"/>
     </row>
     <row r="109" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
       <c r="BQ109" s="1"/>
     </row>
     <row r="110" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
       <c r="BQ110" s="1"/>
     </row>
     <row r="111" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
       <c r="BQ111" s="1"/>
     </row>
     <row r="112" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
       <c r="BQ112" s="1"/>
     </row>
     <row r="113" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
       <c r="BQ113" s="1"/>
     </row>
     <row r="114" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
       <c r="BQ114" s="1"/>
     </row>
     <row r="115" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
       <c r="BQ115" s="1"/>
     </row>
     <row r="116" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
       <c r="BQ116" s="1"/>
     </row>
     <row r="117" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
       <c r="BQ117" s="1"/>
     </row>
     <row r="118" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
       <c r="BQ118" s="1"/>
     </row>
     <row r="119" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
       <c r="BQ119" s="1"/>
     </row>
     <row r="120" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
       <c r="BQ120" s="1"/>
     </row>
     <row r="121" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
       <c r="BQ121" s="1"/>
     </row>
     <row r="122" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
       <c r="BQ122" s="1"/>
     </row>
     <row r="123" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
       <c r="BQ123" s="1"/>
     </row>
     <row r="124" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
       <c r="BQ124" s="1"/>
     </row>
     <row r="125" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
       <c r="BQ125" s="1"/>
     </row>
     <row r="126" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
       <c r="BQ126" s="1"/>
     </row>
     <row r="127" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
       <c r="BQ127" s="1"/>
     </row>
     <row r="128" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
       <c r="BQ128" s="1"/>
     </row>
     <row r="129" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
       <c r="BQ129" s="1"/>
     </row>
     <row r="130" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
       <c r="BQ130" s="1"/>
     </row>
     <row r="131" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D131" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H131" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I131" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J131" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
       <c r="BQ131" s="1"/>
     </row>
     <row r="132" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D132" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H132" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I132" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J132" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
       <c r="BQ132" s="1"/>
     </row>
     <row r="133" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D133" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H133" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I133" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J133" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
       <c r="BQ133" s="1"/>
     </row>
     <row r="134" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D134" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H134" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I134" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J134" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
       <c r="BQ134" s="1"/>
     </row>
     <row r="135" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D135" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H135" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I135" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J135" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
       <c r="BQ135" s="1"/>
     </row>
     <row r="136" spans="1:69" x14ac:dyDescent="0.25">
@@ -18216,8 +17141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BU1110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21529,2070 +20454,586 @@
       <c r="BR82" s="1"/>
     </row>
     <row r="83" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H83" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I83" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J83" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K83" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L83" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
       <c r="BR83" s="1"/>
     </row>
     <row r="84" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H84" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I84" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J84" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K84" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L84" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
       <c r="BR84" s="1"/>
     </row>
     <row r="85" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H85" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I85" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J85" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K85" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L85" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
       <c r="BR85" s="1"/>
     </row>
     <row r="86" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H86" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I86" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J86" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K86" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L86" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
       <c r="BR86" s="1"/>
     </row>
     <row r="87" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H87" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I87" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J87" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K87" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L87" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
       <c r="BR87" s="1"/>
     </row>
     <row r="88" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I88" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J88" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K88" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L88" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
       <c r="BR88" s="1"/>
     </row>
     <row r="89" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H89" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I89" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J89" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K89" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L89" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
       <c r="BR89" s="1"/>
     </row>
     <row r="90" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H90" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I90" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J90" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K90" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L90" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
       <c r="BR90" s="1"/>
     </row>
     <row r="91" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H91" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I91" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J91" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K91" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L91" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
       <c r="BR91" s="1"/>
     </row>
     <row r="92" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H92" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I92" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J92" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K92" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L92" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
       <c r="BR92" s="1"/>
     </row>
     <row r="93" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H93" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I93" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J93" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K93" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L93" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
       <c r="BR93" s="1"/>
     </row>
     <row r="94" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H94" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I94" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J94" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K94" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L94" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
       <c r="BR94" s="1"/>
     </row>
     <row r="95" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H95" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I95" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J95" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K95" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L95" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
       <c r="BR95" s="1"/>
     </row>
     <row r="96" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H96" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I96" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J96" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K96" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L96" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
       <c r="BR96" s="1"/>
     </row>
     <row r="97" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H97" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I97" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J97" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K97" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L97" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
       <c r="BR97" s="1"/>
     </row>
     <row r="98" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H98" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J98" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K98" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L98" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
       <c r="BR98" s="1"/>
     </row>
     <row r="99" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H99" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I99" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J99" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K99" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L99" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
       <c r="BR99" s="1"/>
     </row>
     <row r="100" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J100" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K100" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L100" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
       <c r="BR100" s="1"/>
     </row>
     <row r="101" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H101" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I101" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J101" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K101" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L101" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
       <c r="BR101" s="1"/>
     </row>
     <row r="102" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H102" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I102" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J102" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K102" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L102" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
       <c r="BR102" s="1"/>
     </row>
     <row r="103" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H103" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I103" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J103" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K103" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L103" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
       <c r="BR103" s="1"/>
     </row>
     <row r="104" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H104" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I104" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J104" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K104" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L104" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
       <c r="BR104" s="1"/>
     </row>
     <row r="105" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H105" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I105" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J105" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K105" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L105" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
       <c r="BR105" s="1"/>
     </row>
     <row r="106" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J106" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K106" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L106" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
       <c r="BR106" s="1"/>
     </row>
     <row r="107" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H107" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I107" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J107" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K107" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L107" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
       <c r="BR107" s="1"/>
     </row>
     <row r="108" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H108" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I108" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J108" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K108" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L108" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
       <c r="BR108" s="1"/>
     </row>
     <row r="109" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H109" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I109" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J109" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K109" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L109" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
       <c r="BR109" s="1"/>
     </row>
     <row r="110" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H110" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I110" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J110" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K110" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L110" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
       <c r="BR110" s="1"/>
     </row>
     <row r="111" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H111" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I111" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J111" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K111" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L111" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
       <c r="BR111" s="1"/>
     </row>
     <row r="112" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H112" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I112" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J112" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K112" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L112" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
       <c r="BR112" s="1"/>
     </row>
     <row r="113" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H113" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I113" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J113" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K113" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L113" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
       <c r="BR113" s="1"/>
     </row>
     <row r="114" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H114" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I114" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J114" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K114" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L114" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
       <c r="BR114" s="1"/>
     </row>
     <row r="115" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H115" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I115" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J115" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K115" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L115" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
       <c r="BR115" s="1"/>
     </row>
     <row r="116" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H116" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I116" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J116" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K116" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L116" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
       <c r="BR116" s="1"/>
     </row>
     <row r="117" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H117" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I117" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J117" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K117" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L117" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
       <c r="BR117" s="1"/>
     </row>
     <row r="118" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H118" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I118" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J118" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K118" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L118" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
       <c r="BR118" s="1"/>
     </row>
     <row r="119" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H119" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I119" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J119" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K119" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L119" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
       <c r="BR119" s="1"/>
     </row>
     <row r="120" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H120" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I120" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J120" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K120" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L120" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
       <c r="BR120" s="1"/>
     </row>
     <row r="121" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H121" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I121" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J121" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K121" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L121" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
       <c r="BR121" s="1"/>
     </row>
     <row r="122" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H122" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I122" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J122" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K122" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L122" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
       <c r="BR122" s="1"/>
     </row>
     <row r="123" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H123" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I123" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J123" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K123" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L123" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
       <c r="BR123" s="1"/>
     </row>
     <row r="124" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H124" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I124" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J124" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K124" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L124" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
       <c r="BR124" s="1"/>
     </row>
     <row r="125" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H125" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I125" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J125" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K125" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L125" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
       <c r="BR125" s="1"/>
     </row>
     <row r="126" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H126" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I126" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J126" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K126" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L126" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
       <c r="BR126" s="1"/>
     </row>
     <row r="127" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H127" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I127" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J127" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K127" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L127" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
       <c r="BR127" s="1"/>
     </row>
     <row r="128" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H128" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I128" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J128" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K128" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L128" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
       <c r="BR128" s="1"/>
     </row>
     <row r="129" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H129" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I129" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J129" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K129" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L129" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
       <c r="BR129" s="1"/>
     </row>
     <row r="130" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H130" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I130" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J130" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K130" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L130" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
       <c r="BR130" s="1"/>
     </row>
     <row r="131" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H131" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I131" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J131" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K131" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L131" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
       <c r="BR131" s="1"/>
     </row>
     <row r="132" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H132" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I132" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J132" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K132" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L132" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
       <c r="BR132" s="1"/>
     </row>
     <row r="133" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H133" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I133" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J133" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K133" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L133" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
       <c r="BR133" s="1"/>
     </row>
     <row r="134" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H134" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I134" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J134" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K134" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L134" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
       <c r="BR134" s="1"/>
     </row>
     <row r="135" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H135" s="5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I135" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J135" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K135" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L135" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
       <c r="BR135" s="1"/>
     </row>
     <row r="136" spans="1:70" x14ac:dyDescent="0.25">

--- a/Alfa wing graphs/dataset.xlsx
+++ b/Alfa wing graphs/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\Documents\GitHub\E02H_2021\Alfa wing graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9956773A-AA83-4C03-8EA4-60CB742E9660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE58ED0-2E32-402F-B8A3-EF864EFC4E2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="2925" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOAD &amp; DISPLACEMENT" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ1110"/>
+  <dimension ref="A1:BQ1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:C88"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -467,13 +467,13 @@
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>0</v>
+        <v>-2.2757722003960055</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>-9.0914895821470054E-5</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>-2.2128190413752691E-3</v>
       </c>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
@@ -481,13 +481,13 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>-2.2757722003960055</v>
+        <v>-4.4027576088354579</v>
       </c>
       <c r="B3" s="5">
-        <v>-9.0914895821470054E-5</v>
+        <v>2.4905496220384293E-4</v>
       </c>
       <c r="C3" s="5">
-        <v>-2.2128190413752691E-3</v>
+        <v>-1.8267094358179747E-3</v>
       </c>
       <c r="BN3" s="1"/>
       <c r="BO3" s="1"/>
@@ -495,13 +495,13 @@
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>-4.4027576088354579</v>
+        <v>-147.31477670677685</v>
       </c>
       <c r="B4" s="5">
-        <v>2.4905496220384293E-4</v>
+        <v>2.9467926166788061E-2</v>
       </c>
       <c r="C4" s="5">
-        <v>-1.8267094358179747E-3</v>
+        <v>4.2890118151177603E-2</v>
       </c>
       <c r="BN4" s="1"/>
       <c r="BO4" s="1"/>
@@ -509,13 +509,13 @@
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>-147.31477670677685</v>
+        <v>-371.26553544280466</v>
       </c>
       <c r="B5" s="5">
-        <v>2.9467926166788061E-2</v>
+        <v>0.29743206505082043</v>
       </c>
       <c r="C5" s="5">
-        <v>4.2890118151177603E-2</v>
+        <v>0.5333080830761574</v>
       </c>
       <c r="BN5" s="1"/>
       <c r="BO5" s="1"/>
@@ -523,13 +523,13 @@
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>-371.26553544280466</v>
+        <v>-573.7545300785207</v>
       </c>
       <c r="B6" s="5">
-        <v>0.29743206505082043</v>
+        <v>0.77072485276554659</v>
       </c>
       <c r="C6" s="5">
-        <v>0.5333080830761574</v>
+        <v>1.1043641322112521</v>
       </c>
       <c r="BN6" s="1"/>
       <c r="BO6" s="1"/>
@@ -537,13 +537,13 @@
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>-573.7545300785207</v>
+        <v>-759.36429106061564</v>
       </c>
       <c r="B7" s="5">
-        <v>0.77072485276554659</v>
+        <v>1.908027183869649</v>
       </c>
       <c r="C7" s="5">
-        <v>1.1043641322112521</v>
+        <v>2.2237462828517351</v>
       </c>
       <c r="BN7" s="1"/>
       <c r="BO7" s="1"/>
@@ -551,13 +551,13 @@
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>-759.36429106061564</v>
+        <v>-937.44175383493075</v>
       </c>
       <c r="B8" s="5">
-        <v>1.908027183869649</v>
+        <v>3.4019299832590661</v>
       </c>
       <c r="C8" s="5">
-        <v>2.2237462828517351</v>
+        <v>3.771604354697125</v>
       </c>
       <c r="BN8" s="1"/>
       <c r="BO8" s="1"/>
@@ -565,13 +565,13 @@
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>-937.44175383493075</v>
+        <v>-1118.3651778917872</v>
       </c>
       <c r="B9" s="5">
-        <v>3.4019299832590661</v>
+        <v>4.9523638015444575</v>
       </c>
       <c r="C9" s="5">
-        <v>3.771604354697125</v>
+        <v>5.3630554987027423</v>
       </c>
       <c r="BN9" s="1"/>
       <c r="BO9" s="1"/>
@@ -579,13 +579,13 @@
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>-1118.3651778917872</v>
+        <v>-1295.3620851493508</v>
       </c>
       <c r="B10" s="5">
-        <v>4.9523638015444575</v>
+        <v>6.6136432594717505</v>
       </c>
       <c r="C10" s="5">
-        <v>5.3630554987027423</v>
+        <v>7.1635956035890302</v>
       </c>
       <c r="BN10" s="1"/>
       <c r="BO10" s="1"/>
@@ -593,13 +593,13 @@
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>-1295.3620851493508</v>
+        <v>-1475.3862168947614</v>
       </c>
       <c r="B11" s="5">
-        <v>6.6136432594717505</v>
+        <v>8.4152142963266101</v>
       </c>
       <c r="C11" s="5">
-        <v>7.1635956035890302</v>
+        <v>9.0558159817215653</v>
       </c>
       <c r="BN11" s="1"/>
       <c r="BO11" s="1"/>
@@ -607,13 +607,13 @@
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>-1475.3862168947614</v>
+        <v>-1654.5367898611757</v>
       </c>
       <c r="B12" s="5">
-        <v>8.4152142963266101</v>
+        <v>10.565394171908146</v>
       </c>
       <c r="C12" s="5">
-        <v>9.0558159817215653</v>
+        <v>11.289086765217576</v>
       </c>
       <c r="BN12" s="1"/>
       <c r="BO12" s="1"/>
@@ -621,13 +621,13 @@
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>-1654.5367898611757</v>
+        <v>-1768.5235594527921</v>
       </c>
       <c r="B13" s="5">
-        <v>10.565394171908146</v>
+        <v>13.261139449290845</v>
       </c>
       <c r="C13" s="5">
-        <v>11.289086765217576</v>
+        <v>13.832088793918459</v>
       </c>
       <c r="BN13" s="1"/>
       <c r="BO13" s="1"/>
@@ -635,13 +635,13 @@
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>-1768.5235594527921</v>
+        <v>-1890.4197682502395</v>
       </c>
       <c r="B14" s="5">
-        <v>13.261139449290845</v>
+        <v>15.796473610918191</v>
       </c>
       <c r="C14" s="5">
-        <v>13.832088793918459</v>
+        <v>16.507299358121912</v>
       </c>
       <c r="BN14" s="1"/>
       <c r="BO14" s="1"/>
@@ -649,13 +649,13 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>-1890.4197682502395</v>
+        <v>-2003.5790055117391</v>
       </c>
       <c r="B15" s="5">
-        <v>15.796473610918191</v>
+        <v>18.593315470162217</v>
       </c>
       <c r="C15" s="5">
-        <v>16.507299358121912</v>
+        <v>19.347457120266128</v>
       </c>
       <c r="BN15" s="1"/>
       <c r="BO15" s="1"/>
@@ -663,13 +663,13 @@
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>-2003.5790055117391</v>
+        <v>-2135.4263601713387</v>
       </c>
       <c r="B16" s="5">
-        <v>18.593315470162217</v>
+        <v>22.360263447354619</v>
       </c>
       <c r="C16" s="5">
-        <v>19.347457120266128</v>
+        <v>23.139403479550126</v>
       </c>
       <c r="BN16" s="1"/>
       <c r="BO16" s="1"/>
@@ -677,13 +677,13 @@
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>-2135.4263601713387</v>
+        <v>-2181.8926077152987</v>
       </c>
       <c r="B17" s="5">
-        <v>22.360263447354619</v>
+        <v>23.389598249614373</v>
       </c>
       <c r="C17" s="5">
-        <v>23.139403479550126</v>
+        <v>24.239495726206869</v>
       </c>
       <c r="BN17" s="1"/>
       <c r="BO17" s="1"/>
@@ -691,13 +691,13 @@
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>-2181.8926077152987</v>
+        <v>-2252.3348480796813</v>
       </c>
       <c r="B18" s="5">
-        <v>23.389598249614373</v>
+        <v>25.354137929668205</v>
       </c>
       <c r="C18" s="5">
-        <v>24.239495726206869</v>
+        <v>26.260285659966783</v>
       </c>
       <c r="BN18" s="1"/>
       <c r="BO18" s="1"/>
@@ -705,13 +705,13 @@
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>-2252.3348480796813</v>
+        <v>-2311.5171220390239</v>
       </c>
       <c r="B19" s="5">
-        <v>25.354137929668205</v>
+        <v>27.457290679532981</v>
       </c>
       <c r="C19" s="5">
-        <v>26.260285659966783</v>
+        <v>28.428984362614443</v>
       </c>
       <c r="BN19" s="1"/>
       <c r="BO19" s="1"/>
@@ -719,13 +719,13 @@
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>-2311.5171220390239</v>
+        <v>-2367.7188973275088</v>
       </c>
       <c r="B20" s="5">
-        <v>27.457290679532981</v>
+        <v>29.713829462775628</v>
       </c>
       <c r="C20" s="5">
-        <v>28.428984362614443</v>
+        <v>30.769792690503991</v>
       </c>
       <c r="BN20" s="1"/>
       <c r="BO20" s="1"/>
@@ -733,13 +733,13 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>-2367.7188973275088</v>
+        <v>-2435.8985393321605</v>
       </c>
       <c r="B21" s="5">
-        <v>29.713829462775628</v>
+        <v>32.742627081779339</v>
       </c>
       <c r="C21" s="5">
-        <v>30.769792690503991</v>
+        <v>33.908015002378306</v>
       </c>
       <c r="BN21" s="1"/>
       <c r="BO21" s="1"/>
@@ -747,13 +747,13 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>-2435.8985393321605</v>
+        <v>-2486.8619105017001</v>
       </c>
       <c r="B22" s="5">
-        <v>32.742627081779339</v>
+        <v>34.915295656409675</v>
       </c>
       <c r="C22" s="5">
-        <v>33.908015002378306</v>
+        <v>36.129365150288493</v>
       </c>
       <c r="BN22" s="1"/>
       <c r="BO22" s="1"/>
@@ -761,13 +761,13 @@
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>-2486.8619105017001</v>
+        <v>-2551.4187272584877</v>
       </c>
       <c r="B23" s="5">
-        <v>34.915295656409675</v>
+        <v>37.109761393337912</v>
       </c>
       <c r="C23" s="5">
-        <v>36.129365150288493</v>
+        <v>38.296555417987108</v>
       </c>
       <c r="BN23" s="1"/>
       <c r="BO23" s="1"/>
@@ -775,13 +775,13 @@
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>-2551.4187272584877</v>
+        <v>-2636.1895293315238</v>
       </c>
       <c r="B24" s="5">
-        <v>37.109761393337912</v>
+        <v>40.076669904641101</v>
       </c>
       <c r="C24" s="5">
-        <v>38.296555417987108</v>
+        <v>41.36196993300716</v>
       </c>
       <c r="BN24" s="1"/>
       <c r="BO24" s="1"/>
@@ -789,13 +789,13 @@
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>-2636.1895293315238</v>
+        <v>-2698.7030483808239</v>
       </c>
       <c r="B25" s="5">
-        <v>40.076669904641101</v>
+        <v>42.195467717144091</v>
       </c>
       <c r="C25" s="5">
-        <v>41.36196993300716</v>
+        <v>43.492405865957437</v>
       </c>
       <c r="BN25" s="1"/>
       <c r="BO25" s="1"/>
@@ -803,13 +803,13 @@
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>-2698.7030483808239</v>
+        <v>-2754.0719024725499</v>
       </c>
       <c r="B26" s="5">
-        <v>42.195467717144091</v>
+        <v>44.240151131197202</v>
       </c>
       <c r="C26" s="5">
-        <v>43.492405865957437</v>
+        <v>45.525940437392123</v>
       </c>
       <c r="BN26" s="1"/>
       <c r="BO26" s="1"/>
@@ -817,13 +817,13 @@
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>-2754.0719024725499</v>
+        <v>-2812.0000461653717</v>
       </c>
       <c r="B27" s="5">
-        <v>44.240151131197202</v>
+        <v>46.405669321677429</v>
       </c>
       <c r="C27" s="5">
-        <v>45.525940437392123</v>
+        <v>47.705628839797598</v>
       </c>
       <c r="BN27" s="1"/>
       <c r="BO27" s="1"/>
@@ -831,13 +831,13 @@
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>-2812.0000461653717</v>
+        <v>-2858.5017030406329</v>
       </c>
       <c r="B28" s="5">
-        <v>46.405669321677429</v>
+        <v>48.832701360555767</v>
       </c>
       <c r="C28" s="5">
-        <v>47.705628839797598</v>
+        <v>50.114238549147814</v>
       </c>
       <c r="BN28" s="1"/>
       <c r="BO28" s="1"/>
@@ -845,13 +845,13 @@
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>-2858.5017030406329</v>
+        <v>-2904.4753980007845</v>
       </c>
       <c r="B29" s="5">
-        <v>48.832701360555767</v>
+        <v>50.923709574022332</v>
       </c>
       <c r="C29" s="5">
-        <v>50.114238549147814</v>
+        <v>52.138823006580893</v>
       </c>
       <c r="BN29" s="1"/>
       <c r="BO29" s="1"/>
@@ -859,13 +859,13 @@
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>-2904.4753980007845</v>
+        <v>-2946.0630247318741</v>
       </c>
       <c r="B30" s="5">
-        <v>50.923709574022332</v>
+        <v>53.252125777610324</v>
       </c>
       <c r="C30" s="5">
-        <v>52.138823006580893</v>
+        <v>54.533704312178429</v>
       </c>
       <c r="BN30" s="1"/>
       <c r="BO30" s="1"/>
@@ -873,13 +873,13 @@
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>-2946.0630247318741</v>
+        <v>-2985.0623403888435</v>
       </c>
       <c r="B31" s="5">
-        <v>53.252125777610324</v>
+        <v>55.482466807899833</v>
       </c>
       <c r="C31" s="5">
-        <v>54.533704312178429</v>
+        <v>56.866637261714985</v>
       </c>
       <c r="BN31" s="1"/>
       <c r="BO31" s="1"/>
@@ -887,13 +887,13 @@
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>-2985.0623403888435</v>
+        <v>-3025.8001537365385</v>
       </c>
       <c r="B32" s="5">
-        <v>55.482466807899833</v>
+        <v>57.768543793916045</v>
       </c>
       <c r="C32" s="5">
-        <v>56.866637261714985</v>
+        <v>59.238203365594018</v>
       </c>
       <c r="BN32" s="1"/>
       <c r="BO32" s="1"/>
@@ -901,13 +901,13 @@
     </row>
     <row r="33" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>-3025.8001537365385</v>
+        <v>-3054.051258065886</v>
       </c>
       <c r="B33" s="5">
-        <v>57.768543793916045</v>
+        <v>60.042913320922771</v>
       </c>
       <c r="C33" s="5">
-        <v>59.238203365594018</v>
+        <v>61.588200993506263</v>
       </c>
       <c r="BN33" s="1"/>
       <c r="BO33" s="1"/>
@@ -915,13 +915,13 @@
     </row>
     <row r="34" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>-3054.051258065886</v>
+        <v>-3087.9552721707769</v>
       </c>
       <c r="B34" s="5">
-        <v>60.042913320922771</v>
+        <v>62.36658997049647</v>
       </c>
       <c r="C34" s="5">
-        <v>61.588200993506263</v>
+        <v>63.985862566022647</v>
       </c>
       <c r="BN34" s="1"/>
       <c r="BO34" s="1"/>
@@ -929,13 +929,13 @@
     </row>
     <row r="35" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>-3087.9552721707769</v>
+        <v>-3123.2408575396407</v>
       </c>
       <c r="B35" s="5">
-        <v>62.36658997049647</v>
+        <v>64.894657626251217</v>
       </c>
       <c r="C35" s="5">
-        <v>63.985862566022647</v>
+        <v>66.635742041303544</v>
       </c>
       <c r="BN35" s="1"/>
       <c r="BO35" s="1"/>
@@ -943,13 +943,13 @@
     </row>
     <row r="36" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>-3123.2408575396407</v>
+        <v>-3138.2546865502918</v>
       </c>
       <c r="B36" s="5">
-        <v>64.894657626251217</v>
+        <v>67.236883393853191</v>
       </c>
       <c r="C36" s="5">
-        <v>66.635742041303544</v>
+        <v>69.189781072294579</v>
       </c>
       <c r="BN36" s="1"/>
       <c r="BO36" s="1"/>
@@ -957,13 +957,13 @@
     </row>
     <row r="37" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>-3138.2546865502918</v>
+        <v>-3178.0475301057668</v>
       </c>
       <c r="B37" s="5">
-        <v>67.236883393853191</v>
+        <v>69.657224000031903</v>
       </c>
       <c r="C37" s="5">
-        <v>69.189781072294579</v>
+        <v>71.702082895321212</v>
       </c>
       <c r="BN37" s="1"/>
       <c r="BO37" s="1"/>
@@ -971,13 +971,13 @@
     </row>
     <row r="38" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>-3178.0475301057668</v>
+        <v>-3198.5563628218865</v>
       </c>
       <c r="B38" s="5">
-        <v>69.657224000031903</v>
+        <v>72.168423843860893</v>
       </c>
       <c r="C38" s="5">
-        <v>71.702082895321212</v>
+        <v>74.211392324801849</v>
       </c>
       <c r="BN38" s="1"/>
       <c r="BO38" s="1"/>
@@ -985,13 +985,13 @@
     </row>
     <row r="39" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>-3198.5563628218865</v>
+        <v>-3222.1854972521742</v>
       </c>
       <c r="B39" s="5">
-        <v>72.168423843860893</v>
+        <v>74.626409935175502</v>
       </c>
       <c r="C39" s="5">
-        <v>74.211392324801849</v>
+        <v>76.725481313936726</v>
       </c>
       <c r="BN39" s="1"/>
       <c r="BO39" s="1"/>
@@ -999,155 +999,147 @@
     </row>
     <row r="40" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>-3222.1854972521742</v>
+        <v>-3238.9424881243804</v>
       </c>
       <c r="B40" s="5">
-        <v>74.626409935175502</v>
+        <v>77.239517103377125</v>
       </c>
       <c r="C40" s="5">
-        <v>76.725481313936726</v>
+        <v>79.515020041608594</v>
       </c>
       <c r="BN40" s="1"/>
-      <c r="BO40" s="1"/>
-      <c r="BP40" s="1"/>
+      <c r="BQ40" s="2"/>
     </row>
     <row r="41" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>-3238.9424881243804</v>
+        <v>-3249.9587920312401</v>
       </c>
       <c r="B41" s="5">
-        <v>77.239517103377125</v>
+        <v>79.802131706459306</v>
       </c>
       <c r="C41" s="5">
-        <v>79.515020041608594</v>
+        <v>82.074283940541264</v>
       </c>
       <c r="BN41" s="1"/>
       <c r="BQ41" s="2"/>
     </row>
     <row r="42" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>-3249.9587920312401</v>
+        <v>-3268.7647392977115</v>
       </c>
       <c r="B42" s="5">
-        <v>79.802131706459306</v>
+        <v>82.489747494195313</v>
       </c>
       <c r="C42" s="5">
-        <v>82.074283940541264</v>
+        <v>84.871290629435535</v>
       </c>
       <c r="BN42" s="1"/>
       <c r="BQ42" s="2"/>
     </row>
     <row r="43" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>-3268.7647392977115</v>
+        <v>-3275.1703456472414</v>
       </c>
       <c r="B43" s="5">
-        <v>82.489747494195313</v>
+        <v>85.284282082068415</v>
       </c>
       <c r="C43" s="5">
-        <v>84.871290629435535</v>
+        <v>87.667469080681158</v>
       </c>
       <c r="BN43" s="1"/>
       <c r="BQ43" s="2"/>
     </row>
     <row r="44" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>-3275.1703456472414</v>
+        <v>-3286.1047033878767</v>
       </c>
       <c r="B44" s="5">
-        <v>85.284282082068415</v>
+        <v>87.808181728827748</v>
       </c>
       <c r="C44" s="5">
-        <v>87.667469080681158</v>
+        <v>90.23891435945869</v>
       </c>
       <c r="BN44" s="1"/>
       <c r="BQ44" s="2"/>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>-3286.1047033878767</v>
+        <v>-3295.6843189428423</v>
       </c>
       <c r="B45" s="5">
-        <v>87.808181728827748</v>
+        <v>90.668208631848444</v>
       </c>
       <c r="C45" s="5">
-        <v>90.23891435945869</v>
+        <v>93.165966601951297</v>
       </c>
       <c r="BN45" s="1"/>
       <c r="BQ45" s="2"/>
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>-3295.6843189428423</v>
+        <v>-3286.5048427208599</v>
       </c>
       <c r="B46" s="5">
-        <v>90.668208631848444</v>
+        <v>93.609398359196774</v>
       </c>
       <c r="C46" s="5">
-        <v>93.165966601951297</v>
+        <v>96.155620190887547</v>
       </c>
       <c r="BN46" s="1"/>
       <c r="BQ46" s="2"/>
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>-3286.5048427208599</v>
+        <v>-3250.9674164802573</v>
       </c>
       <c r="B47" s="5">
-        <v>93.609398359196774</v>
+        <v>98.074123722339493</v>
       </c>
       <c r="C47" s="5">
-        <v>96.155620190887547</v>
+        <v>100.72872917842882</v>
       </c>
       <c r="BN47" s="1"/>
-      <c r="BQ47" s="2"/>
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>-3250.9674164802573</v>
+        <v>-3202.1647308889633</v>
       </c>
       <c r="B48" s="5">
-        <v>98.074123722339493</v>
+        <v>101.55838803306006</v>
       </c>
       <c r="C48" s="5">
-        <v>100.72872917842882</v>
+        <v>104.30059500636229</v>
       </c>
       <c r="BN48" s="1"/>
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>-3202.1647308889633</v>
+        <v>-3135.7617998169526</v>
       </c>
       <c r="B49" s="5">
-        <v>101.55838803306006</v>
+        <v>104.93909118946641</v>
       </c>
       <c r="C49" s="5">
-        <v>104.30059500636229</v>
+        <v>107.70871498595541</v>
       </c>
       <c r="BN49" s="1"/>
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>-3135.7617998169526</v>
+        <v>-3006.3843569291917</v>
       </c>
       <c r="B50" s="5">
-        <v>104.93909118946641</v>
+        <v>110.65593884340416</v>
       </c>
       <c r="C50" s="5">
-        <v>107.70871498595541</v>
+        <v>113.48826385511522</v>
       </c>
       <c r="BN50" s="1"/>
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>-3006.3843569291917</v>
-      </c>
-      <c r="B51" s="5">
-        <v>110.65593884340416</v>
-      </c>
-      <c r="C51" s="5">
-        <v>113.48826385511522</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
       <c r="BN51" s="1"/>
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.2">
@@ -1649,9 +1641,9 @@
       <c r="BN134" s="1"/>
     </row>
     <row r="135" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
       <c r="BN135" s="1"/>
     </row>
     <row r="136" spans="1:66" x14ac:dyDescent="0.2">
@@ -5219,9 +5211,6 @@
       <c r="BN729" s="1"/>
     </row>
     <row r="730" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B730" s="5"/>
-      <c r="C730" s="5"/>
-      <c r="D730" s="5"/>
       <c r="BN730" s="1"/>
     </row>
     <row r="731" spans="2:66" x14ac:dyDescent="0.2">
@@ -6360,9 +6349,6 @@
     </row>
     <row r="1109" spans="66:66" x14ac:dyDescent="0.2">
       <c r="BN1109" s="1"/>
-    </row>
-    <row r="1110" spans="66:66" x14ac:dyDescent="0.2">
-      <c r="BN1110" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6372,10 +6358,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BT1110"/>
+  <dimension ref="A1:BT1109"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:J85"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6435,34 +6421,34 @@
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>0</v>
+        <v>2.3924886923553518E-5</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>2.0429632563968847E-5</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>2.286666722596184E-5</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>2.2199726498788735E-5</v>
       </c>
       <c r="E2" s="5">
-        <v>0</v>
+        <v>2.8683841042612124E-5</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>2.6963561956454968E-5</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
+        <v>2.2852604903578905E-5</v>
       </c>
       <c r="H2" s="5">
-        <v>0</v>
+        <v>2.4478389033674719E-5</v>
       </c>
       <c r="I2" s="5">
-        <v>0</v>
+        <v>2.5026421839276225E-5</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>2.7694524473466375E-5</v>
       </c>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1"/>
@@ -6470,34 +6456,34 @@
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>2.3924886923553518E-5</v>
+        <v>2.123832775165202E-5</v>
       </c>
       <c r="B3" s="5">
-        <v>2.0429632563968847E-5</v>
+        <v>1.9738405492662064E-5</v>
       </c>
       <c r="C3" s="5">
-        <v>2.286666722596184E-5</v>
+        <v>2.2010924576480739E-5</v>
       </c>
       <c r="D3" s="5">
-        <v>2.2199726498788735E-5</v>
+        <v>2.1405741694180414E-5</v>
       </c>
       <c r="E3" s="5">
-        <v>2.8683841042612124E-5</v>
+        <v>2.8673134947705681E-5</v>
       </c>
       <c r="F3" s="5">
-        <v>2.6963561956454968E-5</v>
+        <v>2.4719381461580509E-5</v>
       </c>
       <c r="G3" s="5">
-        <v>2.2852604903578905E-5</v>
+        <v>2.2456651499039304E-5</v>
       </c>
       <c r="H3" s="5">
-        <v>2.4478389033674719E-5</v>
+        <v>2.3540692867422136E-5</v>
       </c>
       <c r="I3" s="5">
-        <v>2.5026421839276225E-5</v>
+        <v>2.5119789290435623E-5</v>
       </c>
       <c r="J3" s="5">
-        <v>2.7694524473466375E-5</v>
+        <v>2.6689751795962169E-5</v>
       </c>
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1"/>
@@ -6505,34 +6491,34 @@
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>2.123832775165202E-5</v>
+        <v>2.7435972342195608E-5</v>
       </c>
       <c r="B4" s="5">
-        <v>1.9738405492662064E-5</v>
+        <v>1.3142162873250318E-5</v>
       </c>
       <c r="C4" s="5">
-        <v>2.2010924576480739E-5</v>
+        <v>2.7186039229593756E-5</v>
       </c>
       <c r="D4" s="5">
-        <v>2.1405741694180414E-5</v>
+        <v>1.7789425761347011E-5</v>
       </c>
       <c r="E4" s="5">
-        <v>2.8673134947705681E-5</v>
+        <v>2.5781936617928075E-5</v>
       </c>
       <c r="F4" s="5">
-        <v>2.4719381461580509E-5</v>
+        <v>8.8104570746400102E-6</v>
       </c>
       <c r="G4" s="5">
-        <v>2.2456651499039304E-5</v>
+        <v>2.1165443465771122E-5</v>
       </c>
       <c r="H4" s="5">
-        <v>2.3540692867422136E-5</v>
+        <v>1.6556099757761983E-5</v>
       </c>
       <c r="I4" s="5">
-        <v>2.5119789290435623E-5</v>
+        <v>2.0509333782843531E-5</v>
       </c>
       <c r="J4" s="5">
-        <v>2.6689751795962169E-5</v>
+        <v>3.1125333108741882E-5</v>
       </c>
       <c r="BQ4" s="1"/>
       <c r="BR4" s="1"/>
@@ -6540,34 +6526,34 @@
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>2.7435972342195608E-5</v>
+        <v>3.4865603550225666E-5</v>
       </c>
       <c r="B5" s="5">
-        <v>1.3142162873250318E-5</v>
+        <v>-4.0789329962612197E-7</v>
       </c>
       <c r="C5" s="5">
-        <v>2.7186039229593756E-5</v>
+        <v>4.7423427164995646E-5</v>
       </c>
       <c r="D5" s="5">
-        <v>1.7789425761347011E-5</v>
+        <v>3.7285612051567163E-6</v>
       </c>
       <c r="E5" s="5">
-        <v>2.5781936617928075E-5</v>
+        <v>2.7052624858320967E-5</v>
       </c>
       <c r="F5" s="5">
-        <v>8.8104570746400102E-6</v>
+        <v>-1.434018289770897E-5</v>
       </c>
       <c r="G5" s="5">
-        <v>2.1165443465771122E-5</v>
+        <v>1.8762357889712949E-5</v>
       </c>
       <c r="H5" s="5">
-        <v>1.6556099757761983E-5</v>
+        <v>-3.3606920246884164E-6</v>
       </c>
       <c r="I5" s="5">
-        <v>2.0509333782843531E-5</v>
+        <v>1.5656527496358402E-5</v>
       </c>
       <c r="J5" s="5">
-        <v>3.1125333108741882E-5</v>
+        <v>4.0594213583305255E-5</v>
       </c>
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1"/>
@@ -6575,34 +6561,34 @@
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>3.4865603550225666E-5</v>
+        <v>3.9904483844527272E-5</v>
       </c>
       <c r="B6" s="5">
-        <v>-4.0789329962612197E-7</v>
+        <v>-1.4021240976595795E-5</v>
       </c>
       <c r="C6" s="5">
-        <v>4.7423427164995646E-5</v>
+        <v>7.5807478600996292E-5</v>
       </c>
       <c r="D6" s="5">
-        <v>3.7285612051567163E-6</v>
+        <v>-1.392225118731355E-5</v>
       </c>
       <c r="E6" s="5">
-        <v>2.7052624858320967E-5</v>
+        <v>2.8925519738674799E-5</v>
       </c>
       <c r="F6" s="5">
-        <v>-1.434018289770897E-5</v>
+        <v>-2.6370674246010972E-5</v>
       </c>
       <c r="G6" s="5">
-        <v>1.8762357889712949E-5</v>
+        <v>1.8943435446616697E-5</v>
       </c>
       <c r="H6" s="5">
-        <v>-3.3606920246884164E-6</v>
+        <v>-2.617961177982589E-5</v>
       </c>
       <c r="I6" s="5">
-        <v>1.5656527496358402E-5</v>
+        <v>1.1876614870353491E-5</v>
       </c>
       <c r="J6" s="5">
-        <v>4.0594213583305255E-5</v>
+        <v>5.0036389544934334E-5</v>
       </c>
       <c r="BQ6" s="1"/>
       <c r="BR6" s="1"/>
@@ -6610,34 +6596,34 @@
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>3.9904483844527272E-5</v>
+        <v>4.434797482071734E-5</v>
       </c>
       <c r="B7" s="5">
-        <v>-1.4021240976595795E-5</v>
+        <v>-3.2483611980733268E-5</v>
       </c>
       <c r="C7" s="5">
-        <v>7.5807478600996292E-5</v>
+        <v>1.1102431011848074E-4</v>
       </c>
       <c r="D7" s="5">
-        <v>-1.392225118731355E-5</v>
+        <v>-2.9772229209561879E-5</v>
       </c>
       <c r="E7" s="5">
-        <v>2.8925519738674799E-5</v>
+        <v>3.4277329119869471E-5</v>
       </c>
       <c r="F7" s="5">
-        <v>-2.6370674246010972E-5</v>
+        <v>-4.0721942272472361E-5</v>
       </c>
       <c r="G7" s="5">
-        <v>1.8943435446616697E-5</v>
+        <v>2.8938924540596045E-5</v>
       </c>
       <c r="H7" s="5">
-        <v>-2.617961177982589E-5</v>
+        <v>-4.6891165173108124E-5</v>
       </c>
       <c r="I7" s="5">
-        <v>1.1876614870353491E-5</v>
+        <v>1.4004164543321429E-5</v>
       </c>
       <c r="J7" s="5">
-        <v>5.0036389544934334E-5</v>
+        <v>6.0349143746356304E-5</v>
       </c>
       <c r="BQ7" s="1"/>
       <c r="BR7" s="1"/>
@@ -6645,34 +6631,34 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>4.434797482071734E-5</v>
+        <v>5.0160251851456839E-5</v>
       </c>
       <c r="B8" s="5">
-        <v>-3.2483611980733268E-5</v>
+        <v>-5.0604397823755809E-5</v>
       </c>
       <c r="C8" s="5">
-        <v>1.1102431011848074E-4</v>
+        <v>1.4525874556176044E-4</v>
       </c>
       <c r="D8" s="5">
-        <v>-2.9772229209561879E-5</v>
+        <v>-3.5886667443564557E-5</v>
       </c>
       <c r="E8" s="5">
-        <v>3.4277329119869471E-5</v>
+        <v>4.1392450492661742E-5</v>
       </c>
       <c r="F8" s="5">
-        <v>-4.0721942272472361E-5</v>
+        <v>-5.4760806932636213E-5</v>
       </c>
       <c r="G8" s="5">
-        <v>2.8938924540596045E-5</v>
+        <v>4.583234529536781E-5</v>
       </c>
       <c r="H8" s="5">
-        <v>-4.6891165173108124E-5</v>
+        <v>-7.0717011657162737E-5</v>
       </c>
       <c r="I8" s="5">
-        <v>1.4004164543321429E-5</v>
+        <v>2.014876344822239E-5</v>
       </c>
       <c r="J8" s="5">
-        <v>6.0349143746356304E-5</v>
+        <v>7.2187591074013985E-5</v>
       </c>
       <c r="BQ8" s="1"/>
       <c r="BR8" s="1"/>
@@ -6680,34 +6666,34 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>5.0160251851456839E-5</v>
+        <v>5.758281689203365E-5</v>
       </c>
       <c r="B9" s="5">
-        <v>-5.0604397823755809E-5</v>
+        <v>-6.8283629362897447E-5</v>
       </c>
       <c r="C9" s="5">
-        <v>1.4525874556176044E-4</v>
+        <v>1.7380110793282014E-4</v>
       </c>
       <c r="D9" s="5">
-        <v>-3.5886667443564557E-5</v>
+        <v>-3.4674906084115886E-5</v>
       </c>
       <c r="E9" s="5">
-        <v>4.1392450492661742E-5</v>
+        <v>5.839652070867285E-5</v>
       </c>
       <c r="F9" s="5">
-        <v>-5.4760806932636213E-5</v>
+        <v>-6.2925018851422293E-5</v>
       </c>
       <c r="G9" s="5">
-        <v>4.583234529536781E-5</v>
+        <v>6.2348391328223562E-5</v>
       </c>
       <c r="H9" s="5">
-        <v>-7.0717011657162737E-5</v>
+        <v>-9.4406807286003674E-5</v>
       </c>
       <c r="I9" s="5">
-        <v>2.014876344822239E-5</v>
+        <v>2.686317341172792E-5</v>
       </c>
       <c r="J9" s="5">
-        <v>7.2187591074013985E-5</v>
+        <v>8.3868734974977543E-5</v>
       </c>
       <c r="BQ9" s="1"/>
       <c r="BR9" s="1"/>
@@ -6715,34 +6701,34 @@
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>5.758281689203365E-5</v>
+        <v>6.3265174951813302E-5</v>
       </c>
       <c r="B10" s="5">
-        <v>-6.8283629362897447E-5</v>
+        <v>-8.7221882099593195E-5</v>
       </c>
       <c r="C10" s="5">
-        <v>1.7380110793282014E-4</v>
+        <v>2.0051836613121932E-4</v>
       </c>
       <c r="D10" s="5">
-        <v>-3.4674906084115886E-5</v>
+        <v>-2.7441504693193064E-5</v>
       </c>
       <c r="E10" s="5">
-        <v>5.839652070867285E-5</v>
+        <v>8.6486284756208398E-5</v>
       </c>
       <c r="F10" s="5">
-        <v>-6.2925018851422293E-5</v>
+        <v>-7.1577414796738376E-5</v>
       </c>
       <c r="G10" s="5">
-        <v>6.2348391328223562E-5</v>
+        <v>7.9606964532435986E-5</v>
       </c>
       <c r="H10" s="5">
-        <v>-9.4406807286003674E-5</v>
+        <v>-1.1975987501538013E-4</v>
       </c>
       <c r="I10" s="5">
-        <v>2.686317341172792E-5</v>
+        <v>3.2585601160387001E-5</v>
       </c>
       <c r="J10" s="5">
-        <v>8.3868734974977543E-5</v>
+        <v>9.3114298840436815E-5</v>
       </c>
       <c r="BQ10" s="1"/>
       <c r="BR10" s="1"/>
@@ -6750,34 +6736,34 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>6.3265174951813302E-5</v>
+        <v>6.6994978508878866E-5</v>
       </c>
       <c r="B11" s="5">
-        <v>-8.7221882099593195E-5</v>
+        <v>-1.0684779999262789E-4</v>
       </c>
       <c r="C11" s="5">
-        <v>2.0051836613121932E-4</v>
+        <v>2.2642208019686347E-4</v>
       </c>
       <c r="D11" s="5">
-        <v>-2.7441504693193064E-5</v>
+        <v>-2.0083476126652594E-5</v>
       </c>
       <c r="E11" s="5">
-        <v>8.6486284756208398E-5</v>
+        <v>1.2000073781602907E-4</v>
       </c>
       <c r="F11" s="5">
-        <v>-7.1577414796738376E-5</v>
+        <v>-7.8867491660368494E-5</v>
       </c>
       <c r="G11" s="5">
-        <v>7.9606964532435986E-5</v>
+        <v>9.6295674396656289E-5</v>
       </c>
       <c r="H11" s="5">
-        <v>-1.1975987501538013E-4</v>
+        <v>-1.3592173728814438E-4</v>
       </c>
       <c r="I11" s="5">
-        <v>3.2585601160387001E-5</v>
+        <v>3.5536597814044002E-5</v>
       </c>
       <c r="J11" s="5">
-        <v>9.3114298840436815E-5</v>
+        <v>9.9477156812199236E-5</v>
       </c>
       <c r="BQ11" s="1"/>
       <c r="BR11" s="1"/>
@@ -6785,34 +6771,34 @@
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>6.6994978508878866E-5</v>
+        <v>7.4164123089349304E-5</v>
       </c>
       <c r="B12" s="5">
-        <v>-1.0684779999262789E-4</v>
+        <v>-1.23235493586938E-4</v>
       </c>
       <c r="C12" s="5">
-        <v>2.2642208019686347E-4</v>
+        <v>2.429497588086818E-4</v>
       </c>
       <c r="D12" s="5">
-        <v>-2.0083476126652594E-5</v>
+        <v>-1.2191970961729359E-5</v>
       </c>
       <c r="E12" s="5">
-        <v>1.2000073781602907E-4</v>
+        <v>1.4579289655371891E-4</v>
       </c>
       <c r="F12" s="5">
-        <v>-7.8867491660368494E-5</v>
+        <v>-8.4498512278853577E-5</v>
       </c>
       <c r="G12" s="5">
-        <v>9.6295674396656289E-5</v>
+        <v>1.1517529487049816E-4</v>
       </c>
       <c r="H12" s="5">
-        <v>-1.3592173728814438E-4</v>
+        <v>-1.6708411621850494E-4</v>
       </c>
       <c r="I12" s="5">
-        <v>3.5536597814044002E-5</v>
+        <v>3.995928146811184E-5</v>
       </c>
       <c r="J12" s="5">
-        <v>9.9477156812199236E-5</v>
+        <v>1.0688276510950265E-4</v>
       </c>
       <c r="BQ12" s="1"/>
       <c r="BR12" s="1"/>
@@ -6820,34 +6806,34 @@
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>7.4164123089349304E-5</v>
+        <v>7.8421996114651227E-5</v>
       </c>
       <c r="B13" s="5">
-        <v>-1.23235493586938E-4</v>
+        <v>-1.3190125049543019E-4</v>
       </c>
       <c r="C13" s="5">
-        <v>2.429497588086818E-4</v>
+        <v>2.5169851293872086E-4</v>
       </c>
       <c r="D13" s="5">
-        <v>-1.2191970961729359E-5</v>
+        <v>-8.307058158060765E-6</v>
       </c>
       <c r="E13" s="5">
-        <v>1.4579289655371891E-4</v>
+        <v>1.553158733246171E-4</v>
       </c>
       <c r="F13" s="5">
-        <v>-8.4498512278853577E-5</v>
+        <v>-8.2263518282183618E-5</v>
       </c>
       <c r="G13" s="5">
-        <v>1.1517529487049816E-4</v>
+        <v>1.3570544596511885E-4</v>
       </c>
       <c r="H13" s="5">
-        <v>-1.6708411621850494E-4</v>
+        <v>-3.9277484863439738E-4</v>
       </c>
       <c r="I13" s="5">
-        <v>3.995928146811184E-5</v>
+        <v>4.17466401393847E-5</v>
       </c>
       <c r="J13" s="5">
-        <v>1.0688276510950265E-4</v>
+        <v>1.1340296169765063E-4</v>
       </c>
       <c r="BQ13" s="1"/>
       <c r="BR13" s="1"/>
@@ -6855,34 +6841,34 @@
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>7.8421996114651227E-5</v>
+        <v>8.2084043476361029E-5</v>
       </c>
       <c r="B14" s="5">
-        <v>-1.3190125049543019E-4</v>
+        <v>-1.4153839245808694E-4</v>
       </c>
       <c r="C14" s="5">
-        <v>2.5169851293872086E-4</v>
+        <v>2.597106608236352E-4</v>
       </c>
       <c r="D14" s="5">
-        <v>-8.307058158060765E-6</v>
+        <v>-4.5221756923216616E-6</v>
       </c>
       <c r="E14" s="5">
-        <v>1.553158733246171E-4</v>
+        <v>1.6470975514941422E-4</v>
       </c>
       <c r="F14" s="5">
-        <v>-8.2263518282183618E-5</v>
+        <v>-8.4357464161757822E-5</v>
       </c>
       <c r="G14" s="5">
-        <v>1.3570544596511885E-4</v>
+        <v>1.5667404486338979E-4</v>
       </c>
       <c r="H14" s="5">
-        <v>-3.9277484863439738E-4</v>
+        <v>-4.0558992135013641E-4</v>
       </c>
       <c r="I14" s="5">
-        <v>4.17466401393847E-5</v>
+        <v>4.5566148891267727E-5</v>
       </c>
       <c r="J14" s="5">
-        <v>1.1340296169765063E-4</v>
+        <v>1.1618298247929523E-4</v>
       </c>
       <c r="BQ14" s="1"/>
       <c r="BR14" s="1"/>
@@ -6890,34 +6876,34 @@
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>8.2084043476361029E-5</v>
+        <v>8.791209875339337E-5</v>
       </c>
       <c r="B15" s="5">
-        <v>-1.4153839245808694E-4</v>
+        <v>-1.4987171136590996E-4</v>
       </c>
       <c r="C15" s="5">
-        <v>2.597106608236352E-4</v>
+        <v>2.6662156253340341E-4</v>
       </c>
       <c r="D15" s="5">
-        <v>-4.5221756923216616E-6</v>
+        <v>-1.0839553967953441E-6</v>
       </c>
       <c r="E15" s="5">
-        <v>1.6470975514941422E-4</v>
+        <v>1.7474371918004689E-4</v>
       </c>
       <c r="F15" s="5">
-        <v>-8.4357464161757822E-5</v>
+        <v>-8.4394776477557387E-5</v>
       </c>
       <c r="G15" s="5">
-        <v>1.5667404486338979E-4</v>
+        <v>1.7666649524643308E-4</v>
       </c>
       <c r="H15" s="5">
-        <v>-4.0558992135013641E-4</v>
+        <v>-3.8920610114973053E-4</v>
       </c>
       <c r="I15" s="5">
-        <v>4.5566148891267727E-5</v>
+        <v>4.9101591765632335E-5</v>
       </c>
       <c r="J15" s="5">
-        <v>1.1618298247929523E-4</v>
+        <v>1.213240290441446E-4</v>
       </c>
       <c r="BQ15" s="1"/>
       <c r="BR15" s="1"/>
@@ -6925,34 +6911,34 @@
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>8.791209875339337E-5</v>
+        <v>9.4414980788690844E-5</v>
       </c>
       <c r="B16" s="5">
-        <v>-1.4987171136590996E-4</v>
+        <v>-1.5959034288621707E-4</v>
       </c>
       <c r="C16" s="5">
-        <v>2.6662156253340341E-4</v>
+        <v>2.7432286349148363E-4</v>
       </c>
       <c r="D16" s="5">
-        <v>-1.0839553967953441E-6</v>
+        <v>4.1085811639217373E-6</v>
       </c>
       <c r="E16" s="5">
-        <v>1.7474371918004689E-4</v>
+        <v>1.850050402904535E-4</v>
       </c>
       <c r="F16" s="5">
-        <v>-8.4394776477557387E-5</v>
+        <v>-8.4700946016039863E-5</v>
       </c>
       <c r="G16" s="5">
-        <v>1.7666649524643308E-4</v>
+        <v>2.0025314946827896E-4</v>
       </c>
       <c r="H16" s="5">
-        <v>-3.8920610114973053E-4</v>
+        <v>-3.9177137918305904E-4</v>
       </c>
       <c r="I16" s="5">
-        <v>4.9101591765632335E-5</v>
+        <v>5.4353869561631074E-5</v>
       </c>
       <c r="J16" s="5">
-        <v>1.213240290441446E-4</v>
+        <v>1.229973402085173E-4</v>
       </c>
       <c r="BQ16" s="1"/>
       <c r="BR16" s="1"/>
@@ -6960,34 +6946,34 @@
     </row>
     <row r="17" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>9.4414980788690844E-5</v>
+        <v>9.5645062410752019E-5</v>
       </c>
       <c r="B17" s="5">
-        <v>-1.5959034288621707E-4</v>
+        <v>-1.6348342527584825E-4</v>
       </c>
       <c r="C17" s="5">
-        <v>2.7432286349148363E-4</v>
+        <v>2.7603968891604796E-4</v>
       </c>
       <c r="D17" s="5">
-        <v>4.1085811639217373E-6</v>
+        <v>4.2388788480465789E-6</v>
       </c>
       <c r="E17" s="5">
-        <v>1.850050402904535E-4</v>
+        <v>1.8703983433558322E-4</v>
       </c>
       <c r="F17" s="5">
-        <v>-8.4700946016039863E-5</v>
+        <v>-8.6766356704254949E-5</v>
       </c>
       <c r="G17" s="5">
-        <v>2.0025314946827896E-4</v>
+        <v>2.0057395787738061E-4</v>
       </c>
       <c r="H17" s="5">
-        <v>-3.9177137918305904E-4</v>
+        <v>-3.8498879616423801E-4</v>
       </c>
       <c r="I17" s="5">
-        <v>5.4353869561631074E-5</v>
+        <v>5.6803482300710889E-5</v>
       </c>
       <c r="J17" s="5">
-        <v>1.229973402085173E-4</v>
+        <v>1.2227870477914821E-4</v>
       </c>
       <c r="BQ17" s="1"/>
       <c r="BR17" s="1"/>
@@ -6995,34 +6981,34 @@
     </row>
     <row r="18" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>9.5645062410752019E-5</v>
+        <v>9.7835933969055849E-5</v>
       </c>
       <c r="B18" s="5">
-        <v>-1.6348342527584825E-4</v>
+        <v>-1.6847343181863525E-4</v>
       </c>
       <c r="C18" s="5">
-        <v>2.7603968891604796E-4</v>
+        <v>2.7887787583199403E-4</v>
       </c>
       <c r="D18" s="5">
-        <v>4.2388788480465789E-6</v>
+        <v>7.5150600400038237E-6</v>
       </c>
       <c r="E18" s="5">
-        <v>1.8703983433558322E-4</v>
+        <v>1.9281927422389392E-4</v>
       </c>
       <c r="F18" s="5">
-        <v>-8.6766356704254949E-5</v>
+        <v>-8.6848985230793263E-5</v>
       </c>
       <c r="G18" s="5">
-        <v>2.0057395787738061E-4</v>
+        <v>2.1059770653731463E-4</v>
       </c>
       <c r="H18" s="5">
-        <v>-3.8498879616423801E-4</v>
+        <v>-3.6602380190683265E-4</v>
       </c>
       <c r="I18" s="5">
-        <v>5.6803482300710889E-5</v>
+        <v>6.2565575890915354E-5</v>
       </c>
       <c r="J18" s="5">
-        <v>1.2227870477914821E-4</v>
+        <v>1.2138790907367109E-4</v>
       </c>
       <c r="BQ18" s="1"/>
       <c r="BR18" s="1"/>
@@ -7030,34 +7016,34 @@
     </row>
     <row r="19" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>9.7835933969055849E-5</v>
+        <v>1.0095268685601094E-4</v>
       </c>
       <c r="B19" s="5">
-        <v>-1.6847343181863525E-4</v>
+        <v>-1.7187930900697604E-4</v>
       </c>
       <c r="C19" s="5">
-        <v>2.7887787583199403E-4</v>
+        <v>2.8298116904596979E-4</v>
       </c>
       <c r="D19" s="5">
-        <v>7.5150600400038237E-6</v>
+        <v>1.0578173792383933E-5</v>
       </c>
       <c r="E19" s="5">
-        <v>1.9281927422389392E-4</v>
+        <v>1.9772088204228488E-4</v>
       </c>
       <c r="F19" s="5">
-        <v>-8.6848985230793263E-5</v>
+        <v>-8.5615816469666872E-5</v>
       </c>
       <c r="G19" s="5">
-        <v>2.1059770653731463E-4</v>
+        <v>2.1978556353624903E-4</v>
       </c>
       <c r="H19" s="5">
-        <v>-3.6602380190683265E-4</v>
+        <v>-3.329821761539481E-4</v>
       </c>
       <c r="I19" s="5">
-        <v>6.2565575890915354E-5</v>
+        <v>6.528191200785502E-5</v>
       </c>
       <c r="J19" s="5">
-        <v>1.2138790907367109E-4</v>
+        <v>1.2136864066699879E-4</v>
       </c>
       <c r="BQ19" s="1"/>
       <c r="BR19" s="1"/>
@@ -7065,34 +7051,34 @@
     </row>
     <row r="20" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>1.0095268685601094E-4</v>
+        <v>1.0330476236022554E-4</v>
       </c>
       <c r="B20" s="5">
-        <v>-1.7187930900697604E-4</v>
+        <v>-1.7461946532589326E-4</v>
       </c>
       <c r="C20" s="5">
-        <v>2.8298116904596979E-4</v>
+        <v>2.8469625909759502E-4</v>
       </c>
       <c r="D20" s="5">
-        <v>1.0578173792383933E-5</v>
+        <v>1.567608674250473E-5</v>
       </c>
       <c r="E20" s="5">
-        <v>1.9772088204228488E-4</v>
+        <v>2.0451097063545892E-4</v>
       </c>
       <c r="F20" s="5">
-        <v>-8.5615816469666872E-5</v>
+        <v>-7.0560347460595779E-5</v>
       </c>
       <c r="G20" s="5">
-        <v>2.1978556353624903E-4</v>
+        <v>2.3003310156500742E-4</v>
       </c>
       <c r="H20" s="5">
-        <v>-3.329821761539481E-4</v>
+        <v>-2.038055363136615E-4</v>
       </c>
       <c r="I20" s="5">
-        <v>6.528191200785502E-5</v>
+        <v>6.8888304244105192E-5</v>
       </c>
       <c r="J20" s="5">
-        <v>1.2136864066699879E-4</v>
+        <v>1.2559753299187792E-4</v>
       </c>
       <c r="BQ20" s="1"/>
       <c r="BR20" s="1"/>
@@ -7100,34 +7086,34 @@
     </row>
     <row r="21" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>1.0330476236022554E-4</v>
+        <v>1.0527586320891943E-4</v>
       </c>
       <c r="B21" s="5">
-        <v>-1.7461946532589326E-4</v>
+        <v>-1.787893486251621E-4</v>
       </c>
       <c r="C21" s="5">
-        <v>2.8469625909759502E-4</v>
+        <v>2.8633538044864695E-4</v>
       </c>
       <c r="D21" s="5">
-        <v>1.567608674250473E-5</v>
+        <v>2.0939228496941187E-5</v>
       </c>
       <c r="E21" s="5">
-        <v>2.0451097063545892E-4</v>
+        <v>2.1232654010258298E-4</v>
       </c>
       <c r="F21" s="5">
-        <v>-7.0560347460595779E-5</v>
+        <v>-3.9003291667415174E-5</v>
       </c>
       <c r="G21" s="5">
-        <v>2.3003310156500742E-4</v>
+        <v>2.4160558211474073E-4</v>
       </c>
       <c r="H21" s="5">
-        <v>-2.038055363136615E-4</v>
+        <v>-6.6478264449523067E-5</v>
       </c>
       <c r="I21" s="5">
-        <v>6.8888304244105192E-5</v>
+        <v>7.1263785512334227E-5</v>
       </c>
       <c r="J21" s="5">
-        <v>1.2559753299187792E-4</v>
+        <v>1.3128591971215894E-4</v>
       </c>
       <c r="BQ21" s="1"/>
       <c r="BR21" s="1"/>
@@ -7135,34 +7121,34 @@
     </row>
     <row r="22" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>1.0527586320891943E-4</v>
+        <v>1.0905721156513615E-4</v>
       </c>
       <c r="B22" s="5">
-        <v>-1.787893486251621E-4</v>
+        <v>-1.8120560390378487E-4</v>
       </c>
       <c r="C22" s="5">
-        <v>2.8633538044864695E-4</v>
+        <v>2.8880243685223267E-4</v>
       </c>
       <c r="D22" s="5">
-        <v>2.0939228496941187E-5</v>
+        <v>2.3434918295268947E-5</v>
       </c>
       <c r="E22" s="5">
-        <v>2.1232654010258298E-4</v>
+        <v>2.1883763410537535E-4</v>
       </c>
       <c r="F22" s="5">
-        <v>-3.9003291667415174E-5</v>
+        <v>-3.2170125280891332E-5</v>
       </c>
       <c r="G22" s="5">
-        <v>2.4160558211474073E-4</v>
+        <v>2.4980770570603994E-4</v>
       </c>
       <c r="H22" s="5">
-        <v>-6.6478264449523067E-5</v>
+        <v>-6.1372782433108397E-5</v>
       </c>
       <c r="I22" s="5">
-        <v>7.1263785512334227E-5</v>
+        <v>7.3188805245018307E-5</v>
       </c>
       <c r="J22" s="5">
-        <v>1.3128591971215894E-4</v>
+        <v>1.3368444629004161E-4</v>
       </c>
       <c r="BQ22" s="1"/>
       <c r="BR22" s="1"/>
@@ -7170,34 +7156,34 @@
     </row>
     <row r="23" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>1.0905721156513615E-4</v>
+        <v>1.1230449462294387E-4</v>
       </c>
       <c r="B23" s="5">
-        <v>-1.8120560390378487E-4</v>
+        <v>-1.8468699855380202E-4</v>
       </c>
       <c r="C23" s="5">
-        <v>2.8880243685223267E-4</v>
+        <v>2.9031572172521017E-4</v>
       </c>
       <c r="D23" s="5">
-        <v>2.3434918295268947E-5</v>
+        <v>2.648054410903794E-5</v>
       </c>
       <c r="E23" s="5">
-        <v>2.1883763410537535E-4</v>
+        <v>2.2705597103434005E-4</v>
       </c>
       <c r="F23" s="5">
-        <v>-3.2170125280891332E-5</v>
+        <v>-2.9132927338314935E-5</v>
       </c>
       <c r="G23" s="5">
-        <v>2.4980770570603994E-4</v>
+        <v>2.5877277387227268E-4</v>
       </c>
       <c r="H23" s="5">
-        <v>-6.1372782433108397E-5</v>
+        <v>-5.9171455178544385E-5</v>
       </c>
       <c r="I23" s="5">
-        <v>7.3188805245018307E-5</v>
+        <v>7.4865908686775479E-5</v>
       </c>
       <c r="J23" s="5">
-        <v>1.3368444629004161E-4</v>
+        <v>1.3633259411822626E-4</v>
       </c>
       <c r="BQ23" s="1"/>
       <c r="BR23" s="1"/>
@@ -7205,34 +7191,34 @@
     </row>
     <row r="24" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>1.1230449462294387E-4</v>
+        <v>1.1695640577786409E-4</v>
       </c>
       <c r="B24" s="5">
-        <v>-1.8468699855380202E-4</v>
+        <v>-1.9278431026770876E-4</v>
       </c>
       <c r="C24" s="5">
-        <v>2.9031572172521017E-4</v>
+        <v>2.9667679651193546E-4</v>
       </c>
       <c r="D24" s="5">
-        <v>2.648054410903794E-5</v>
+        <v>3.3701179707187195E-5</v>
       </c>
       <c r="E24" s="5">
-        <v>2.2705597103434005E-4</v>
+        <v>2.4043143414803278E-4</v>
       </c>
       <c r="F24" s="5">
-        <v>-2.9132927338314935E-5</v>
+        <v>-2.4532362677222308E-5</v>
       </c>
       <c r="G24" s="5">
-        <v>2.5877277387227268E-4</v>
+        <v>2.7479823790025823E-4</v>
       </c>
       <c r="H24" s="5">
-        <v>-5.9171455178544385E-5</v>
+        <v>-5.4775252413815506E-5</v>
       </c>
       <c r="I24" s="5">
-        <v>7.4865908686775479E-5</v>
+        <v>7.8319280119271834E-5</v>
       </c>
       <c r="J24" s="5">
-        <v>1.3633259411822626E-4</v>
+        <v>1.4434781136872521E-4</v>
       </c>
       <c r="BQ24" s="1"/>
       <c r="BR24" s="1"/>
@@ -7240,34 +7226,34 @@
     </row>
     <row r="25" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>1.1695640577786409E-4</v>
+        <v>1.1886624127746895E-4</v>
       </c>
       <c r="B25" s="5">
-        <v>-1.9278431026770876E-4</v>
+        <v>-1.9135477718298585E-4</v>
       </c>
       <c r="C25" s="5">
-        <v>2.9667679651193546E-4</v>
+        <v>2.9587704028347789E-4</v>
       </c>
       <c r="D25" s="5">
-        <v>3.3701179707187195E-5</v>
+        <v>3.0933737519646398E-5</v>
       </c>
       <c r="E25" s="5">
-        <v>2.4043143414803278E-4</v>
+        <v>2.4382998568767827E-4</v>
       </c>
       <c r="F25" s="5">
-        <v>-2.4532362677222308E-5</v>
+        <v>-2.5077253792183535E-5</v>
       </c>
       <c r="G25" s="5">
-        <v>2.7479823790025823E-4</v>
+        <v>2.787952566951947E-4</v>
       </c>
       <c r="H25" s="5">
-        <v>-5.4775252413815506E-5</v>
+        <v>-5.8988827897749757E-5</v>
       </c>
       <c r="I25" s="5">
-        <v>7.8319280119271834E-5</v>
+        <v>7.8481711699975032E-5</v>
       </c>
       <c r="J25" s="5">
-        <v>1.4434781136872521E-4</v>
+        <v>1.4639351014054253E-4</v>
       </c>
       <c r="BQ25" s="1"/>
       <c r="BR25" s="1"/>
@@ -7275,34 +7261,34 @@
     </row>
     <row r="26" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>1.1886624127746895E-4</v>
+        <v>1.2213520333084413E-4</v>
       </c>
       <c r="B26" s="5">
-        <v>-1.9135477718298585E-4</v>
+        <v>-1.9433193068762664E-4</v>
       </c>
       <c r="C26" s="5">
-        <v>2.9587704028347789E-4</v>
+        <v>2.9842346197289996E-4</v>
       </c>
       <c r="D26" s="5">
-        <v>3.0933737519646398E-5</v>
+        <v>3.3090871436422531E-5</v>
       </c>
       <c r="E26" s="5">
-        <v>2.4382998568767827E-4</v>
+        <v>2.5065210220409986E-4</v>
       </c>
       <c r="F26" s="5">
-        <v>-2.5077253792183535E-5</v>
+        <v>-2.4094996423452975E-5</v>
       </c>
       <c r="G26" s="5">
-        <v>2.787952566951947E-4</v>
+        <v>2.8737193129854677E-4</v>
       </c>
       <c r="H26" s="5">
-        <v>-5.8988827897749757E-5</v>
+        <v>-5.9544373950493751E-5</v>
       </c>
       <c r="I26" s="5">
-        <v>7.8481711699975032E-5</v>
+        <v>7.9304866465422508E-5</v>
       </c>
       <c r="J26" s="5">
-        <v>1.4639351014054253E-4</v>
+        <v>1.5055859654591539E-4</v>
       </c>
       <c r="BQ26" s="1"/>
       <c r="BR26" s="1"/>
@@ -7310,34 +7296,34 @@
     </row>
     <row r="27" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>1.2213520333084413E-4</v>
+        <v>1.2460165173516433E-4</v>
       </c>
       <c r="B27" s="5">
-        <v>-1.9433193068762664E-4</v>
+        <v>-1.961546132158154E-4</v>
       </c>
       <c r="C27" s="5">
-        <v>2.9842346197289996E-4</v>
+        <v>3.0035271326107546E-4</v>
       </c>
       <c r="D27" s="5">
-        <v>3.3090871436422531E-5</v>
+        <v>3.4810044795479528E-5</v>
       </c>
       <c r="E27" s="5">
-        <v>2.5065210220409986E-4</v>
+        <v>2.5660132472412819E-4</v>
       </c>
       <c r="F27" s="5">
-        <v>-2.4094996423452975E-5</v>
+        <v>-2.3476924109304409E-5</v>
       </c>
       <c r="G27" s="5">
-        <v>2.8737193129854677E-4</v>
+        <v>2.9456117367853904E-4</v>
       </c>
       <c r="H27" s="5">
-        <v>-5.9544373950493751E-5</v>
+        <v>-5.9502197664561274E-5</v>
       </c>
       <c r="I27" s="5">
-        <v>7.9304866465422508E-5</v>
+        <v>7.9954790292918049E-5</v>
       </c>
       <c r="J27" s="5">
-        <v>1.5055859654591539E-4</v>
+        <v>1.5476473456281503E-4</v>
       </c>
       <c r="BQ27" s="1"/>
       <c r="BR27" s="1"/>
@@ -7345,34 +7331,34 @@
     </row>
     <row r="28" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>1.2460165173516433E-4</v>
+        <v>1.2767343792529848E-4</v>
       </c>
       <c r="B28" s="5">
-        <v>-1.961546132158154E-4</v>
+        <v>-1.9833485447380561E-4</v>
       </c>
       <c r="C28" s="5">
-        <v>3.0035271326107546E-4</v>
+        <v>3.0262824954268089E-4</v>
       </c>
       <c r="D28" s="5">
-        <v>3.4810044795479528E-5</v>
+        <v>3.6821601312249375E-5</v>
       </c>
       <c r="E28" s="5">
-        <v>2.5660132472412819E-4</v>
+        <v>2.6315366344572752E-4</v>
       </c>
       <c r="F28" s="5">
-        <v>-2.3476924109304409E-5</v>
+        <v>-2.2624370709774244E-5</v>
       </c>
       <c r="G28" s="5">
-        <v>2.9456117367853904E-4</v>
+        <v>3.015655609962184E-4</v>
       </c>
       <c r="H28" s="5">
-        <v>-5.9502197664561274E-5</v>
+        <v>-5.8891136123593452E-5</v>
       </c>
       <c r="I28" s="5">
-        <v>7.9954790292918049E-5</v>
+        <v>8.1111192052465975E-5</v>
       </c>
       <c r="J28" s="5">
-        <v>1.5476473456281503E-4</v>
+        <v>1.5859168030864582E-4</v>
       </c>
       <c r="BQ28" s="1"/>
       <c r="BR28" s="1"/>
@@ -7380,34 +7366,34 @@
     </row>
     <row r="29" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>1.2767343792529848E-4</v>
+        <v>1.301563131211568E-4</v>
       </c>
       <c r="B29" s="5">
-        <v>-1.9833485447380561E-4</v>
+        <v>-1.9845850659332837E-4</v>
       </c>
       <c r="C29" s="5">
-        <v>3.0262824954268089E-4</v>
+        <v>3.0356900872515261E-4</v>
       </c>
       <c r="D29" s="5">
-        <v>3.6821601312249375E-5</v>
+        <v>3.8417597008372217E-5</v>
       </c>
       <c r="E29" s="5">
-        <v>2.6315366344572752E-4</v>
+        <v>2.6879259952376777E-4</v>
       </c>
       <c r="F29" s="5">
-        <v>-2.2624370709774244E-5</v>
+        <v>-2.1241622030290092E-5</v>
       </c>
       <c r="G29" s="5">
-        <v>3.015655609962184E-4</v>
+        <v>3.0775211629801777E-4</v>
       </c>
       <c r="H29" s="5">
-        <v>-5.8891136123593452E-5</v>
+        <v>-5.8616120525208787E-5</v>
       </c>
       <c r="I29" s="5">
-        <v>8.1111192052465975E-5</v>
+        <v>8.2139124487599219E-5</v>
       </c>
       <c r="J29" s="5">
-        <v>1.5859168030864582E-4</v>
+        <v>1.6175737630869796E-4</v>
       </c>
       <c r="BQ29" s="1"/>
       <c r="BR29" s="1"/>
@@ -7415,34 +7401,34 @@
     </row>
     <row r="30" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>1.301563131211568E-4</v>
+        <v>1.3197850151945231E-4</v>
       </c>
       <c r="B30" s="5">
-        <v>-1.9845850659332837E-4</v>
+        <v>-2.0195928909999203E-4</v>
       </c>
       <c r="C30" s="5">
-        <v>3.0356900872515261E-4</v>
+        <v>3.0492243169078642E-4</v>
       </c>
       <c r="D30" s="5">
-        <v>3.8417597008372217E-5</v>
+        <v>3.9415161868946308E-5</v>
       </c>
       <c r="E30" s="5">
-        <v>2.6879259952376777E-4</v>
+        <v>2.7294711731024393E-4</v>
       </c>
       <c r="F30" s="5">
-        <v>-2.1241622030290092E-5</v>
+        <v>-2.0435841221255052E-5</v>
       </c>
       <c r="G30" s="5">
-        <v>3.0775211629801777E-4</v>
+        <v>3.1438267514325574E-4</v>
       </c>
       <c r="H30" s="5">
-        <v>-5.8616120525208787E-5</v>
+        <v>-5.9524871285833447E-5</v>
       </c>
       <c r="I30" s="5">
-        <v>8.2139124487599219E-5</v>
+        <v>8.2630803462199753E-5</v>
       </c>
       <c r="J30" s="5">
-        <v>1.6175737630869796E-4</v>
+        <v>1.6523051342879139E-4</v>
       </c>
       <c r="BQ30" s="1"/>
       <c r="BR30" s="1"/>
@@ -7450,34 +7436,34 @@
     </row>
     <row r="31" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>1.3197850151945231E-4</v>
+        <v>1.338224585541968E-4</v>
       </c>
       <c r="B31" s="5">
-        <v>-2.0195928909999203E-4</v>
+        <v>-2.0262469729015811E-4</v>
       </c>
       <c r="C31" s="5">
-        <v>3.0492243169078642E-4</v>
+        <v>3.0492945355143491E-4</v>
       </c>
       <c r="D31" s="5">
-        <v>3.9415161868946308E-5</v>
+        <v>3.9368963699555615E-5</v>
       </c>
       <c r="E31" s="5">
-        <v>2.7294711731024393E-4</v>
+        <v>2.7739135241084539E-4</v>
       </c>
       <c r="F31" s="5">
-        <v>-2.0435841221255052E-5</v>
+        <v>-2.014585548264225E-5</v>
       </c>
       <c r="G31" s="5">
-        <v>3.1438267514325574E-4</v>
+        <v>3.2035522060704438E-4</v>
       </c>
       <c r="H31" s="5">
-        <v>-5.9524871285833447E-5</v>
+        <v>-6.0961976740107199E-5</v>
       </c>
       <c r="I31" s="5">
-        <v>8.2630803462199753E-5</v>
+        <v>8.3230057619277514E-5</v>
       </c>
       <c r="J31" s="5">
-        <v>1.6523051342879139E-4</v>
+        <v>1.6630099498013071E-4</v>
       </c>
       <c r="BQ31" s="1"/>
       <c r="BR31" s="1"/>
@@ -7485,34 +7471,34 @@
     </row>
     <row r="32" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>1.338224585541968E-4</v>
+        <v>1.3508639666548819E-4</v>
       </c>
       <c r="B32" s="5">
-        <v>-2.0262469729015811E-4</v>
+        <v>-2.0449776698104258E-4</v>
       </c>
       <c r="C32" s="5">
-        <v>3.0492945355143491E-4</v>
+        <v>3.0375247567802563E-4</v>
       </c>
       <c r="D32" s="5">
-        <v>3.9368963699555615E-5</v>
+        <v>4.0780644034451446E-5</v>
       </c>
       <c r="E32" s="5">
-        <v>2.7739135241084539E-4</v>
+        <v>2.8175969767878575E-4</v>
       </c>
       <c r="F32" s="5">
-        <v>-2.014585548264225E-5</v>
+        <v>-1.9201806057300708E-5</v>
       </c>
       <c r="G32" s="5">
-        <v>3.2035522060704438E-4</v>
+        <v>3.2530036734228912E-4</v>
       </c>
       <c r="H32" s="5">
-        <v>-6.0961976740107199E-5</v>
+        <v>-6.2579781607115942E-5</v>
       </c>
       <c r="I32" s="5">
-        <v>8.3230057619277514E-5</v>
+        <v>8.379274071545692E-5</v>
       </c>
       <c r="J32" s="5">
-        <v>1.6630099498013071E-4</v>
+        <v>1.7016952959013343E-4</v>
       </c>
       <c r="BQ32" s="1"/>
       <c r="BR32" s="1"/>
@@ -7520,34 +7506,34 @@
     </row>
     <row r="33" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>1.3508639666548819E-4</v>
+        <v>1.3702980228296607E-4</v>
       </c>
       <c r="B33" s="5">
-        <v>-2.0449776698104258E-4</v>
+        <v>-2.0609079698604912E-4</v>
       </c>
       <c r="C33" s="5">
-        <v>3.0375247567802563E-4</v>
+        <v>3.0638311004373142E-4</v>
       </c>
       <c r="D33" s="5">
-        <v>4.0780644034451446E-5</v>
+        <v>4.3318299807040828E-5</v>
       </c>
       <c r="E33" s="5">
-        <v>2.8175969767878575E-4</v>
+        <v>2.8524049199829191E-4</v>
       </c>
       <c r="F33" s="5">
-        <v>-1.9201806057300708E-5</v>
+        <v>-1.8073119338490873E-5</v>
       </c>
       <c r="G33" s="5">
-        <v>3.2530036734228912E-4</v>
+        <v>3.3149461822740492E-4</v>
       </c>
       <c r="H33" s="5">
-        <v>-6.2579781607115942E-5</v>
+        <v>-6.2919265342582797E-5</v>
       </c>
       <c r="I33" s="5">
-        <v>8.379274071545692E-5</v>
+        <v>8.3779112951834489E-5</v>
       </c>
       <c r="J33" s="5">
-        <v>1.7016952959013343E-4</v>
+        <v>1.7241553825787792E-4</v>
       </c>
       <c r="BQ33" s="1"/>
       <c r="BR33" s="1"/>
@@ -7555,34 +7541,34 @@
     </row>
     <row r="34" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>1.3702980228296607E-4</v>
+        <v>1.391822085422996E-4</v>
       </c>
       <c r="B34" s="5">
-        <v>-2.0609079698604912E-4</v>
+        <v>-2.0583664733660537E-4</v>
       </c>
       <c r="C34" s="5">
-        <v>3.0638311004373142E-4</v>
+        <v>3.0584499506883592E-4</v>
       </c>
       <c r="D34" s="5">
-        <v>4.3318299807040828E-5</v>
+        <v>4.3841457478453749E-5</v>
       </c>
       <c r="E34" s="5">
-        <v>2.8524049199829191E-4</v>
+        <v>2.8844141814803395E-4</v>
       </c>
       <c r="F34" s="5">
-        <v>-1.8073119338490873E-5</v>
+        <v>-1.6608312413398524E-5</v>
       </c>
       <c r="G34" s="5">
-        <v>3.3149461822740492E-4</v>
+        <v>3.3613751498927716E-4</v>
       </c>
       <c r="H34" s="5">
-        <v>-6.2919265342582797E-5</v>
+        <v>-6.4654745749848086E-5</v>
       </c>
       <c r="I34" s="5">
-        <v>8.3779112951834489E-5</v>
+        <v>8.454644500965891E-5</v>
       </c>
       <c r="J34" s="5">
-        <v>1.7241553825787792E-4</v>
+        <v>1.7595735059085238E-4</v>
       </c>
       <c r="BQ34" s="1"/>
       <c r="BR34" s="1"/>
@@ -7590,34 +7576,34 @@
     </row>
     <row r="35" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>1.391822085422996E-4</v>
+        <v>1.4064929349060298E-4</v>
       </c>
       <c r="B35" s="5">
-        <v>-2.0583664733660537E-4</v>
+        <v>-2.0725619603705406E-4</v>
       </c>
       <c r="C35" s="5">
-        <v>3.0584499506883592E-4</v>
+        <v>3.066952140593146E-4</v>
       </c>
       <c r="D35" s="5">
-        <v>4.3841457478453749E-5</v>
+        <v>4.525854821658265E-5</v>
       </c>
       <c r="E35" s="5">
-        <v>2.8844141814803395E-4</v>
+        <v>2.9260221318306787E-4</v>
       </c>
       <c r="F35" s="5">
-        <v>-1.6608312413398524E-5</v>
+        <v>-1.6193927471125358E-5</v>
       </c>
       <c r="G35" s="5">
-        <v>3.3613751498927716E-4</v>
+        <v>3.4131331318076538E-4</v>
       </c>
       <c r="H35" s="5">
-        <v>-6.4654745749848086E-5</v>
+        <v>-6.7583039482441154E-5</v>
       </c>
       <c r="I35" s="5">
-        <v>8.454644500965891E-5</v>
+        <v>8.5761420431280239E-5</v>
       </c>
       <c r="J35" s="5">
-        <v>1.7595735059085238E-4</v>
+        <v>1.7889364600813876E-4</v>
       </c>
       <c r="BQ35" s="1"/>
       <c r="BR35" s="1"/>
@@ -7625,34 +7611,34 @@
     </row>
     <row r="36" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>1.4064929349060298E-4</v>
+        <v>1.4182363679981005E-4</v>
       </c>
       <c r="B36" s="5">
-        <v>-2.0725619603705406E-4</v>
+        <v>-2.0728972528355136E-4</v>
       </c>
       <c r="C36" s="5">
-        <v>3.066952140593146E-4</v>
+        <v>3.0613564931973591E-4</v>
       </c>
       <c r="D36" s="5">
-        <v>4.525854821658265E-5</v>
+        <v>4.6857638510693078E-5</v>
       </c>
       <c r="E36" s="5">
-        <v>2.9260221318306787E-4</v>
+        <v>2.9557812178993698E-4</v>
       </c>
       <c r="F36" s="5">
-        <v>-1.6193927471125358E-5</v>
+        <v>-1.4760632327696227E-5</v>
       </c>
       <c r="G36" s="5">
-        <v>3.4131331318076538E-4</v>
+        <v>3.4676538094311968E-4</v>
       </c>
       <c r="H36" s="5">
-        <v>-6.7583039482441154E-5</v>
+        <v>-7.0883382467516742E-5</v>
       </c>
       <c r="I36" s="5">
-        <v>8.5761420431280239E-5</v>
+        <v>8.5972875449528974E-5</v>
       </c>
       <c r="J36" s="5">
-        <v>1.7889364600813876E-4</v>
+        <v>1.8003474704142777E-4</v>
       </c>
       <c r="BQ36" s="1"/>
       <c r="BR36" s="1"/>
@@ -7660,34 +7646,34 @@
     </row>
     <row r="37" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>1.4182363679981005E-4</v>
+        <v>1.4301043134225602E-4</v>
       </c>
       <c r="B37" s="5">
-        <v>-2.0728972528355136E-4</v>
+        <v>-2.0897031193396753E-4</v>
       </c>
       <c r="C37" s="5">
-        <v>3.0613564931973591E-4</v>
+        <v>3.0646527895302617E-4</v>
       </c>
       <c r="D37" s="5">
-        <v>4.6857638510693078E-5</v>
+        <v>4.6893457525277321E-5</v>
       </c>
       <c r="E37" s="5">
-        <v>2.9557812178993698E-4</v>
+        <v>2.9875310101924735E-4</v>
       </c>
       <c r="F37" s="5">
-        <v>-1.4760632327696227E-5</v>
+        <v>-1.3941120980787841E-5</v>
       </c>
       <c r="G37" s="5">
-        <v>3.4676538094311968E-4</v>
+        <v>3.490472728171802E-4</v>
       </c>
       <c r="H37" s="5">
-        <v>-7.0883382467516742E-5</v>
+        <v>-7.4099789297968344E-5</v>
       </c>
       <c r="I37" s="5">
-        <v>8.5972875449528974E-5</v>
+        <v>8.7853679465746404E-5</v>
       </c>
       <c r="J37" s="5">
-        <v>1.8003474704142777E-4</v>
+        <v>1.8320618565193306E-4</v>
       </c>
       <c r="BQ37" s="1"/>
       <c r="BR37" s="1"/>
@@ -7695,34 +7681,34 @@
     </row>
     <row r="38" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>1.4301043134225602E-4</v>
+        <v>1.4312348905322347E-4</v>
       </c>
       <c r="B38" s="5">
-        <v>-2.0897031193396753E-4</v>
+        <v>-2.1091053972726106E-4</v>
       </c>
       <c r="C38" s="5">
-        <v>3.0646527895302617E-4</v>
+        <v>3.0559980343720927E-4</v>
       </c>
       <c r="D38" s="5">
-        <v>4.6893457525277321E-5</v>
+        <v>4.7472869514134097E-5</v>
       </c>
       <c r="E38" s="5">
-        <v>2.9875310101924735E-4</v>
+        <v>3.0021598274039552E-4</v>
       </c>
       <c r="F38" s="5">
-        <v>-1.3941120980787841E-5</v>
+        <v>-1.3860461517880424E-5</v>
       </c>
       <c r="G38" s="5">
-        <v>3.490472728171802E-4</v>
+        <v>3.5465717147994957E-4</v>
       </c>
       <c r="H38" s="5">
-        <v>-7.4099789297968344E-5</v>
+        <v>-7.9815790864096875E-5</v>
       </c>
       <c r="I38" s="5">
-        <v>8.7853679465746404E-5</v>
+        <v>8.7967529597329092E-5</v>
       </c>
       <c r="J38" s="5">
-        <v>1.8320618565193306E-4</v>
+        <v>1.8370256480656003E-4</v>
       </c>
       <c r="BQ38" s="1"/>
       <c r="BR38" s="1"/>
@@ -7730,34 +7716,34 @@
     </row>
     <row r="39" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>1.4312348905322347E-4</v>
+        <v>1.4440532327380379E-4</v>
       </c>
       <c r="B39" s="5">
-        <v>-2.1091053972726106E-4</v>
+        <v>-2.1223678601573967E-4</v>
       </c>
       <c r="C39" s="5">
-        <v>3.0559980343720927E-4</v>
+        <v>3.0514738282390666E-4</v>
       </c>
       <c r="D39" s="5">
-        <v>4.7472869514134097E-5</v>
+        <v>4.7836030391289197E-5</v>
       </c>
       <c r="E39" s="5">
-        <v>3.0021598274039552E-4</v>
+        <v>3.0202080599281075E-4</v>
       </c>
       <c r="F39" s="5">
-        <v>-1.3860461517880424E-5</v>
+        <v>-1.2400981090617685E-5</v>
       </c>
       <c r="G39" s="5">
-        <v>3.5465717147994957E-4</v>
+        <v>3.5704692554767298E-4</v>
       </c>
       <c r="H39" s="5">
-        <v>-7.9815790864096875E-5</v>
+        <v>-8.4307331153100212E-5</v>
       </c>
       <c r="I39" s="5">
-        <v>8.7967529597329092E-5</v>
+        <v>8.7713511533280691E-5</v>
       </c>
       <c r="J39" s="5">
-        <v>1.8370256480656003E-4</v>
+        <v>1.8616321243566242E-4</v>
       </c>
       <c r="BQ39" s="1"/>
       <c r="BR39" s="1"/>
@@ -7765,407 +7751,385 @@
     </row>
     <row r="40" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>1.4440532327380379E-4</v>
+        <v>1.4463722718523198E-4</v>
       </c>
       <c r="B40" s="5">
-        <v>-2.1223678601573967E-4</v>
+        <v>-2.1296746455059384E-4</v>
       </c>
       <c r="C40" s="5">
-        <v>3.0514738282390666E-4</v>
+        <v>3.0332499496486809E-4</v>
       </c>
       <c r="D40" s="5">
-        <v>4.7836030391289197E-5</v>
+        <v>4.7978298381941287E-5</v>
       </c>
       <c r="E40" s="5">
-        <v>3.0202080599281075E-4</v>
+        <v>3.0358872677662893E-4</v>
       </c>
       <c r="F40" s="5">
-        <v>-1.2400981090617685E-5</v>
+        <v>-1.2482987719920902E-5</v>
       </c>
       <c r="G40" s="5">
-        <v>3.5704692554767298E-4</v>
+        <v>3.5874289298258241E-4</v>
       </c>
       <c r="H40" s="5">
-        <v>-8.4307331153100212E-5</v>
+        <v>-8.9861560878520819E-5</v>
       </c>
       <c r="I40" s="5">
-        <v>8.7713511533280691E-5</v>
+        <v>8.742052133376213E-5</v>
       </c>
       <c r="J40" s="5">
-        <v>1.8616321243566242E-4</v>
+        <v>1.8587258263424306E-4</v>
       </c>
       <c r="BQ40" s="1"/>
-      <c r="BR40" s="1"/>
-      <c r="BS40" s="1"/>
+      <c r="BT40" s="2"/>
     </row>
     <row r="41" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>1.4463722718523198E-4</v>
+        <v>1.4312320023177755E-4</v>
       </c>
       <c r="B41" s="5">
-        <v>-2.1296746455059384E-4</v>
+        <v>-2.1414861955912703E-4</v>
       </c>
       <c r="C41" s="5">
-        <v>3.0332499496486809E-4</v>
+        <v>3.0070543214964079E-4</v>
       </c>
       <c r="D41" s="5">
-        <v>4.7978298381941287E-5</v>
+        <v>4.725658841747693E-5</v>
       </c>
       <c r="E41" s="5">
-        <v>3.0358872677662893E-4</v>
+        <v>3.031505012728343E-4</v>
       </c>
       <c r="F41" s="5">
-        <v>-1.2482987719920902E-5</v>
+        <v>-1.3009020314914271E-5</v>
       </c>
       <c r="G41" s="5">
-        <v>3.5874289298258241E-4</v>
+        <v>3.6105029413292453E-4</v>
       </c>
       <c r="H41" s="5">
-        <v>-8.9861560878520819E-5</v>
+        <v>-9.4144739749228018E-5</v>
       </c>
       <c r="I41" s="5">
-        <v>8.742052133376213E-5</v>
+        <v>8.6759508841169342E-5</v>
       </c>
       <c r="J41" s="5">
-        <v>1.8587258263424306E-4</v>
+        <v>1.861423835777809E-4</v>
       </c>
       <c r="BQ41" s="1"/>
       <c r="BT41" s="2"/>
     </row>
     <row r="42" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>1.4312320023177755E-4</v>
+        <v>1.4295549804120913E-4</v>
       </c>
       <c r="B42" s="5">
-        <v>-2.1414861955912703E-4</v>
+        <v>-2.157937014359429E-4</v>
       </c>
       <c r="C42" s="5">
-        <v>3.0070543214964079E-4</v>
+        <v>2.9951315522331809E-4</v>
       </c>
       <c r="D42" s="5">
-        <v>4.725658841747693E-5</v>
+        <v>4.7720824677108947E-5</v>
       </c>
       <c r="E42" s="5">
-        <v>3.031505012728343E-4</v>
+        <v>3.0164943858680682E-4</v>
       </c>
       <c r="F42" s="5">
-        <v>-1.3009020314914271E-5</v>
+        <v>-1.3188757537287155E-5</v>
       </c>
       <c r="G42" s="5">
-        <v>3.6105029413292453E-4</v>
+        <v>3.6266132359497744E-4</v>
       </c>
       <c r="H42" s="5">
-        <v>-9.4144739749228018E-5</v>
+        <v>-1.0253230529501389E-4</v>
       </c>
       <c r="I42" s="5">
-        <v>8.6759508841169342E-5</v>
+        <v>8.6587593471909585E-5</v>
       </c>
       <c r="J42" s="5">
-        <v>1.861423835777809E-4</v>
+        <v>1.8617938341942281E-4</v>
       </c>
       <c r="BQ42" s="1"/>
       <c r="BT42" s="2"/>
     </row>
     <row r="43" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>1.4295549804120913E-4</v>
+        <v>1.4250861645950103E-4</v>
       </c>
       <c r="B43" s="5">
-        <v>-2.157937014359429E-4</v>
+        <v>-2.1760716438283187E-4</v>
       </c>
       <c r="C43" s="5">
-        <v>2.9951315522331809E-4</v>
+        <v>2.972077897248418E-4</v>
       </c>
       <c r="D43" s="5">
-        <v>4.7720824677108947E-5</v>
+        <v>4.6306768997569914E-5</v>
       </c>
       <c r="E43" s="5">
-        <v>3.0164943858680682E-4</v>
+        <v>2.9855433803165077E-4</v>
       </c>
       <c r="F43" s="5">
-        <v>-1.3188757537287155E-5</v>
+        <v>-1.4105036523083536E-5</v>
       </c>
       <c r="G43" s="5">
-        <v>3.6266132359497744E-4</v>
+        <v>3.6252133415053817E-4</v>
       </c>
       <c r="H43" s="5">
-        <v>-1.0253230529501389E-4</v>
+        <v>-1.1238946956041579E-4</v>
       </c>
       <c r="I43" s="5">
-        <v>8.6587593471909585E-5</v>
+        <v>8.5848435219641056E-5</v>
       </c>
       <c r="J43" s="5">
-        <v>1.8617938341942281E-4</v>
+        <v>1.8501528203606829E-4</v>
       </c>
       <c r="BQ43" s="1"/>
       <c r="BT43" s="2"/>
     </row>
     <row r="44" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>1.4250861645950103E-4</v>
+        <v>1.4034696596893631E-4</v>
       </c>
       <c r="B44" s="5">
-        <v>-2.1760716438283187E-4</v>
+        <v>-2.197136681857878E-4</v>
       </c>
       <c r="C44" s="5">
-        <v>2.972077897248418E-4</v>
+        <v>2.9479678654655006E-4</v>
       </c>
       <c r="D44" s="5">
-        <v>4.6306768997569914E-5</v>
+        <v>4.5438124426203791E-5</v>
       </c>
       <c r="E44" s="5">
-        <v>2.9855433803165077E-4</v>
+        <v>2.9542449759302827E-4</v>
       </c>
       <c r="F44" s="5">
-        <v>-1.4105036523083536E-5</v>
+        <v>-1.6522175804088018E-5</v>
       </c>
       <c r="G44" s="5">
-        <v>3.6252133415053817E-4</v>
+        <v>3.633193878104235E-4</v>
       </c>
       <c r="H44" s="5">
-        <v>-1.1238946956041579E-4</v>
+        <v>-1.2220519091408685E-4</v>
       </c>
       <c r="I44" s="5">
-        <v>8.5848435219641056E-5</v>
+        <v>8.4328703351482792E-5</v>
       </c>
       <c r="J44" s="5">
-        <v>1.8501528203606829E-4</v>
+        <v>1.8347868310014323E-4</v>
       </c>
       <c r="BQ44" s="1"/>
       <c r="BT44" s="2"/>
     </row>
     <row r="45" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>1.4034696596893631E-4</v>
+        <v>1.3951348224098756E-4</v>
       </c>
       <c r="B45" s="5">
-        <v>-2.197136681857878E-4</v>
+        <v>-2.1951188169534383E-4</v>
       </c>
       <c r="C45" s="5">
-        <v>2.9479678654655006E-4</v>
+        <v>2.9206601155714121E-4</v>
       </c>
       <c r="D45" s="5">
-        <v>4.5438124426203791E-5</v>
+        <v>4.5274401735826558E-5</v>
       </c>
       <c r="E45" s="5">
-        <v>2.9542449759302827E-4</v>
+        <v>2.9400700315069042E-4</v>
       </c>
       <c r="F45" s="5">
-        <v>-1.6522175804088018E-5</v>
+        <v>-1.8446512582297875E-5</v>
       </c>
       <c r="G45" s="5">
-        <v>3.633193878104235E-4</v>
+        <v>3.6403101957470374E-4</v>
       </c>
       <c r="H45" s="5">
-        <v>-1.2220519091408685E-4</v>
+        <v>-1.2985638575382583E-4</v>
       </c>
       <c r="I45" s="5">
-        <v>8.4328703351482792E-5</v>
+        <v>8.2558109210092295E-5</v>
       </c>
       <c r="J45" s="5">
-        <v>1.8347868310014323E-4</v>
+        <v>1.816790459411681E-4</v>
       </c>
       <c r="BQ45" s="1"/>
       <c r="BT45" s="2"/>
     </row>
     <row r="46" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>1.3951348224098756E-4</v>
+        <v>1.3767954862774212E-4</v>
       </c>
       <c r="B46" s="5">
-        <v>-2.1951188169534383E-4</v>
+        <v>-2.2195182045063599E-4</v>
       </c>
       <c r="C46" s="5">
-        <v>2.9206601155714121E-4</v>
+        <v>2.9088006275354572E-4</v>
       </c>
       <c r="D46" s="5">
-        <v>4.5274401735826558E-5</v>
+        <v>4.3780205412655843E-5</v>
       </c>
       <c r="E46" s="5">
-        <v>2.9400700315069042E-4</v>
+        <v>2.9132335196503309E-4</v>
       </c>
       <c r="F46" s="5">
-        <v>-1.8446512582297875E-5</v>
+        <v>-1.8610896031431845E-5</v>
       </c>
       <c r="G46" s="5">
-        <v>3.6403101957470374E-4</v>
+        <v>3.6353717796446319E-4</v>
       </c>
       <c r="H46" s="5">
-        <v>-1.2985638575382583E-4</v>
+        <v>-1.4140434881173072E-4</v>
       </c>
       <c r="I46" s="5">
-        <v>8.2558109210092295E-5</v>
+        <v>8.1225876384143081E-5</v>
       </c>
       <c r="J46" s="5">
-        <v>1.816790459411681E-4</v>
+        <v>1.7894835773677592E-4</v>
       </c>
       <c r="BQ46" s="1"/>
       <c r="BT46" s="2"/>
     </row>
     <row r="47" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>1.3767954862774212E-4</v>
+        <v>1.3428908252667224E-4</v>
       </c>
       <c r="B47" s="5">
-        <v>-2.2195182045063599E-4</v>
+        <v>-2.2096845383850344E-4</v>
       </c>
       <c r="C47" s="5">
-        <v>2.9088006275354572E-4</v>
+        <v>2.8850588132912566E-4</v>
       </c>
       <c r="D47" s="5">
-        <v>4.3780205412655843E-5</v>
+        <v>4.2920984260067657E-5</v>
       </c>
       <c r="E47" s="5">
-        <v>2.9132335196503309E-4</v>
+        <v>2.8753638445588522E-4</v>
       </c>
       <c r="F47" s="5">
-        <v>-1.8610896031431845E-5</v>
+        <v>-1.849074654530769E-5</v>
       </c>
       <c r="G47" s="5">
-        <v>3.6353717796446319E-4</v>
+        <v>3.6230529865589195E-4</v>
       </c>
       <c r="H47" s="5">
-        <v>-1.4140434881173072E-4</v>
+        <v>-1.6343451314256019E-4</v>
       </c>
       <c r="I47" s="5">
-        <v>8.1225876384143081E-5</v>
+        <v>7.9940308855584036E-5</v>
       </c>
       <c r="J47" s="5">
-        <v>1.7894835773677592E-4</v>
+        <v>1.6937227879156372E-4</v>
       </c>
       <c r="BQ47" s="1"/>
-      <c r="BT47" s="2"/>
     </row>
     <row r="48" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>1.3428908252667224E-4</v>
+        <v>1.3120021893263736E-4</v>
       </c>
       <c r="B48" s="5">
-        <v>-2.2096845383850344E-4</v>
+        <v>-2.1972229167767365E-4</v>
       </c>
       <c r="C48" s="5">
-        <v>2.8850588132912566E-4</v>
+        <v>2.8622319905304353E-4</v>
       </c>
       <c r="D48" s="5">
-        <v>4.2920984260067657E-5</v>
+        <v>4.1243921735496791E-5</v>
       </c>
       <c r="E48" s="5">
-        <v>2.8753638445588522E-4</v>
+        <v>2.8444634555031476E-4</v>
       </c>
       <c r="F48" s="5">
-        <v>-1.849074654530769E-5</v>
+        <v>-1.7647154720450836E-5</v>
       </c>
       <c r="G48" s="5">
-        <v>3.6230529865589195E-4</v>
+        <v>3.5985709801957672E-4</v>
       </c>
       <c r="H48" s="5">
-        <v>-1.6343451314256019E-4</v>
+        <v>-1.7742167010007318E-4</v>
       </c>
       <c r="I48" s="5">
-        <v>7.9940308855584036E-5</v>
+        <v>7.8789552228727272E-5</v>
       </c>
       <c r="J48" s="5">
-        <v>1.6937227879156372E-4</v>
+        <v>1.6348264976720484E-4</v>
       </c>
       <c r="BQ48" s="1"/>
     </row>
     <row r="49" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>1.3120021893263736E-4</v>
+        <v>1.2821793427503572E-4</v>
       </c>
       <c r="B49" s="5">
-        <v>-2.1972229167767365E-4</v>
+        <v>-2.145923447992755E-4</v>
       </c>
       <c r="C49" s="5">
-        <v>2.8622319905304353E-4</v>
+        <v>2.827561043805063E-4</v>
       </c>
       <c r="D49" s="5">
-        <v>4.1243921735496791E-5</v>
+        <v>4.012811606177169E-5</v>
       </c>
       <c r="E49" s="5">
-        <v>2.8444634555031476E-4</v>
+        <v>2.8045887688294552E-4</v>
       </c>
       <c r="F49" s="5">
-        <v>-1.7647154720450836E-5</v>
+        <v>-1.6678195332697071E-5</v>
       </c>
       <c r="G49" s="5">
-        <v>3.5985709801957672E-4</v>
+        <v>3.5618479157668512E-4</v>
       </c>
       <c r="H49" s="5">
-        <v>-1.7742167010007318E-4</v>
+        <v>-1.8027848079188794E-4</v>
       </c>
       <c r="I49" s="5">
-        <v>7.8789552228727272E-5</v>
+        <v>7.6627257121791859E-5</v>
       </c>
       <c r="J49" s="5">
-        <v>1.6348264976720484E-4</v>
+        <v>1.6044878270630308E-4</v>
       </c>
       <c r="BQ49" s="1"/>
     </row>
     <row r="50" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>1.2821793427503572E-4</v>
+        <v>1.20907296439203E-4</v>
       </c>
       <c r="B50" s="5">
-        <v>-2.145923447992755E-4</v>
+        <v>-2.0856027431690946E-4</v>
       </c>
       <c r="C50" s="5">
-        <v>2.827561043805063E-4</v>
+        <v>2.7677298347735663E-4</v>
       </c>
       <c r="D50" s="5">
-        <v>4.012811606177169E-5</v>
+        <v>3.6212873424892184E-5</v>
       </c>
       <c r="E50" s="5">
-        <v>2.8045887688294552E-4</v>
+        <v>2.7054061676974953E-4</v>
       </c>
       <c r="F50" s="5">
-        <v>-1.6678195332697071E-5</v>
+        <v>-1.9122875523032434E-5</v>
       </c>
       <c r="G50" s="5">
-        <v>3.5618479157668512E-4</v>
+        <v>3.477519672840379E-4</v>
       </c>
       <c r="H50" s="5">
-        <v>-1.8027848079188794E-4</v>
+        <v>-1.7002714638935518E-4</v>
       </c>
       <c r="I50" s="5">
-        <v>7.6627257121791859E-5</v>
+        <v>7.0468018857537673E-5</v>
       </c>
       <c r="J50" s="5">
-        <v>1.6044878270630308E-4</v>
+        <v>1.6209313936778671E-4</v>
       </c>
       <c r="BQ50" s="1"/>
     </row>
     <row r="51" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>1.20907296439203E-4</v>
-      </c>
-      <c r="B51" s="5">
-        <v>-2.0856027431690946E-4</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2.7677298347735663E-4</v>
-      </c>
-      <c r="D51" s="5">
-        <v>3.6212873424892184E-5</v>
-      </c>
-      <c r="E51" s="5">
-        <v>2.7054061676974953E-4</v>
-      </c>
-      <c r="F51" s="5">
-        <v>-1.9122875523032434E-5</v>
-      </c>
-      <c r="G51" s="5">
-        <v>3.477519672840379E-4</v>
-      </c>
-      <c r="H51" s="5">
-        <v>-1.7002714638935518E-4</v>
-      </c>
-      <c r="I51" s="5">
-        <v>7.0468018857537673E-5</v>
-      </c>
-      <c r="J51" s="5">
-        <v>1.6209313936778671E-4</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
       <c r="BQ51" s="1"/>
     </row>
     <row r="52" spans="1:69" x14ac:dyDescent="0.2">
@@ -9186,13 +9150,10 @@
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
+      <c r="D130" s="8"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
       <c r="BQ130" s="1"/>
     </row>
     <row r="131" spans="1:69" x14ac:dyDescent="0.2">
@@ -15186,13 +15147,6 @@
       <c r="BQ729" s="1"/>
     </row>
     <row r="730" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A730" s="5"/>
-      <c r="B730" s="5"/>
-      <c r="C730" s="5"/>
-      <c r="D730" s="8"/>
-      <c r="E730" s="5"/>
-      <c r="F730" s="5"/>
-      <c r="G730" s="5"/>
       <c r="BQ730" s="1"/>
     </row>
     <row r="731" spans="1:69" x14ac:dyDescent="0.2">
@@ -16331,9 +16285,6 @@
     </row>
     <row r="1109" spans="69:69" x14ac:dyDescent="0.2">
       <c r="BQ1109" s="1"/>
-    </row>
-    <row r="1110" spans="69:69" x14ac:dyDescent="0.2">
-      <c r="BQ1110" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16342,10 +16293,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BU1110"/>
+  <dimension ref="A1:BU1109"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:L82"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16414,40 +16365,40 @@
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>0</v>
+        <v>2.8953628162482065E-5</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>3.2132135970801279E-5</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>3.2398816005800579E-5</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>2.888015178508993E-5</v>
       </c>
       <c r="E2" s="5">
-        <v>0</v>
+        <v>3.3464222324374598E-5</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>3.3507475297411132E-5</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
+        <v>3.4680770654965665E-5</v>
       </c>
       <c r="H2" s="5">
-        <v>0</v>
+        <v>3.2229470801493215E-5</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>3.5365248451102449E-5</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>4.3661155674213498E-5</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>5.3467267697026731E-6</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>7.4929195246781904E-7</v>
       </c>
       <c r="BR2" s="1"/>
       <c r="BS2" s="1"/>
@@ -16455,40 +16406,40 @@
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>2.8953628162482065E-5</v>
+        <v>2.9725133857277236E-5</v>
       </c>
       <c r="B3" s="5">
-        <v>3.2132135970801279E-5</v>
+        <v>3.3455279718125341E-5</v>
       </c>
       <c r="C3" s="5">
-        <v>3.2398816005800579E-5</v>
+        <v>3.3456743315792015E-5</v>
       </c>
       <c r="D3" s="5">
-        <v>2.888015178508993E-5</v>
+        <v>3.0609982673453912E-5</v>
       </c>
       <c r="E3" s="5">
-        <v>3.3464222324374598E-5</v>
+        <v>3.5482349526654022E-5</v>
       </c>
       <c r="F3" s="5">
-        <v>3.3507475297411132E-5</v>
+        <v>3.5658046416284922E-5</v>
       </c>
       <c r="G3" s="5">
-        <v>3.4680770654965665E-5</v>
+        <v>3.7017932255106745E-5</v>
       </c>
       <c r="H3" s="5">
-        <v>3.2229470801493215E-5</v>
+        <v>3.4717808641848008E-5</v>
       </c>
       <c r="I3" s="1">
-        <v>3.5365248451102449E-5</v>
+        <v>3.7443495342185523E-5</v>
       </c>
       <c r="J3" s="1">
-        <v>4.3661155674213498E-5</v>
+        <v>4.5242570568239382E-5</v>
       </c>
       <c r="K3" s="1">
-        <v>5.3467267697026731E-6</v>
+        <v>6.209677747732957E-6</v>
       </c>
       <c r="L3" s="1">
-        <v>7.4929195246781904E-7</v>
+        <v>1.0145438628260048E-6</v>
       </c>
       <c r="BR3" s="1"/>
       <c r="BS3" s="1"/>
@@ -16496,40 +16447,40 @@
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>2.9725133857277236E-5</v>
+        <v>3.3229170922792484E-5</v>
       </c>
       <c r="B4" s="5">
-        <v>3.3455279718125341E-5</v>
+        <v>3.1227355790169886E-5</v>
       </c>
       <c r="C4" s="5">
-        <v>3.3456743315792015E-5</v>
+        <v>3.3311960264379575E-5</v>
       </c>
       <c r="D4" s="5">
-        <v>3.0609982673453912E-5</v>
+        <v>2.7937530844936165E-5</v>
       </c>
       <c r="E4" s="5">
-        <v>3.5482349526654022E-5</v>
+        <v>3.5254103169745504E-5</v>
       </c>
       <c r="F4" s="5">
-        <v>3.5658046416284922E-5</v>
+        <v>3.3099911469731264E-5</v>
       </c>
       <c r="G4" s="5">
-        <v>3.7017932255106745E-5</v>
+        <v>3.6260486908235717E-5</v>
       </c>
       <c r="H4" s="5">
-        <v>3.4717808641848008E-5</v>
+        <v>3.3608546654302629E-5</v>
       </c>
       <c r="I4" s="1">
-        <v>3.7443495342185523E-5</v>
+        <v>3.6925627379346543E-5</v>
       </c>
       <c r="J4" s="1">
-        <v>4.5242570568239382E-5</v>
+        <v>4.1375232994633748E-5</v>
       </c>
       <c r="K4" s="1">
-        <v>6.209677747732957E-6</v>
+        <v>6.084380777628671E-6</v>
       </c>
       <c r="L4" s="1">
-        <v>1.0145438628260048E-6</v>
+        <v>5.1554182998320153E-7</v>
       </c>
       <c r="BR4" s="1"/>
       <c r="BS4" s="1"/>
@@ -16537,40 +16488,40 @@
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>3.3229170922792484E-5</v>
+        <v>3.7457717998647805E-5</v>
       </c>
       <c r="B5" s="5">
-        <v>3.1227355790169886E-5</v>
+        <v>2.8013430923373717E-5</v>
       </c>
       <c r="C5" s="5">
-        <v>3.3311960264379575E-5</v>
+        <v>3.653307516293669E-5</v>
       </c>
       <c r="D5" s="5">
-        <v>2.7937530844936165E-5</v>
+        <v>2.4758491840255747E-5</v>
       </c>
       <c r="E5" s="5">
-        <v>3.5254103169745504E-5</v>
+        <v>3.9462781611564191E-5</v>
       </c>
       <c r="F5" s="5">
-        <v>3.3099911469731264E-5</v>
+        <v>2.9043467756038194E-5</v>
       </c>
       <c r="G5" s="5">
-        <v>3.6260486908235717E-5</v>
+        <v>3.6582024311983263E-5</v>
       </c>
       <c r="H5" s="5">
-        <v>3.3608546654302629E-5</v>
+        <v>3.223382892558399E-5</v>
       </c>
       <c r="I5" s="1">
-        <v>3.6925627379346543E-5</v>
+        <v>3.5309476077768215E-5</v>
       </c>
       <c r="J5" s="1">
-        <v>4.1375232994633748E-5</v>
+        <v>3.7580295323153684E-5</v>
       </c>
       <c r="K5" s="1">
-        <v>6.084380777628671E-6</v>
+        <v>5.4167462492675164E-6</v>
       </c>
       <c r="L5" s="1">
-        <v>5.1554182998320153E-7</v>
+        <v>3.8984745368659743E-7</v>
       </c>
       <c r="BR5" s="1"/>
       <c r="BS5" s="1"/>
@@ -16578,40 +16529,40 @@
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>3.7457717998647805E-5</v>
+        <v>4.2775708536745005E-5</v>
       </c>
       <c r="B6" s="5">
-        <v>2.8013430923373717E-5</v>
+        <v>2.4046159010929213E-5</v>
       </c>
       <c r="C6" s="5">
-        <v>3.653307516293669E-5</v>
+        <v>4.5652620738322047E-5</v>
       </c>
       <c r="D6" s="5">
-        <v>2.4758491840255747E-5</v>
+        <v>1.8911135016876079E-5</v>
       </c>
       <c r="E6" s="5">
-        <v>3.9462781611564191E-5</v>
+        <v>4.9936784697997977E-5</v>
       </c>
       <c r="F6" s="5">
-        <v>2.9043467756038194E-5</v>
+        <v>1.9688485848743525E-5</v>
       </c>
       <c r="G6" s="5">
-        <v>3.6582024311983263E-5</v>
+        <v>3.7943271813015156E-5</v>
       </c>
       <c r="H6" s="5">
-        <v>3.223382892558399E-5</v>
+        <v>3.5303620240782763E-5</v>
       </c>
       <c r="I6" s="1">
-        <v>3.5309476077768215E-5</v>
+        <v>3.337940266583822E-5</v>
       </c>
       <c r="J6" s="1">
-        <v>3.7580295323153684E-5</v>
+        <v>3.2996441963382972E-5</v>
       </c>
       <c r="K6" s="1">
-        <v>5.4167462492675164E-6</v>
+        <v>6.1666474928324033E-6</v>
       </c>
       <c r="L6" s="1">
-        <v>3.8984745368659743E-7</v>
+        <v>4.6682361354820345E-7</v>
       </c>
       <c r="BR6" s="1"/>
       <c r="BS6" s="1"/>
@@ -16619,40 +16570,40 @@
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>4.2775708536745005E-5</v>
+        <v>4.7173968490271667E-5</v>
       </c>
       <c r="B7" s="5">
-        <v>2.4046159010929213E-5</v>
+        <v>2.1405212332556434E-5</v>
       </c>
       <c r="C7" s="5">
-        <v>4.5652620738322047E-5</v>
+        <v>5.5211708789151825E-5</v>
       </c>
       <c r="D7" s="5">
-        <v>1.8911135016876079E-5</v>
+        <v>1.5424892042030514E-5</v>
       </c>
       <c r="E7" s="5">
-        <v>4.9936784697997977E-5</v>
+        <v>6.2146660958287137E-5</v>
       </c>
       <c r="F7" s="5">
-        <v>1.9688485848743525E-5</v>
+        <v>1.525167062157301E-5</v>
       </c>
       <c r="G7" s="5">
-        <v>3.7943271813015156E-5</v>
+        <v>3.5455034317545542E-5</v>
       </c>
       <c r="H7" s="5">
-        <v>3.5303620240782763E-5</v>
+        <v>3.3694831277700232E-5</v>
       </c>
       <c r="I7" s="1">
-        <v>3.337940266583822E-5</v>
+        <v>3.1054384504649452E-5</v>
       </c>
       <c r="J7" s="1">
-        <v>3.2996441963382972E-5</v>
+        <v>2.769696541706293E-5</v>
       </c>
       <c r="K7" s="1">
-        <v>6.1666474928324033E-6</v>
+        <v>6.9463300190611486E-6</v>
       </c>
       <c r="L7" s="1">
-        <v>4.6682361354820345E-7</v>
+        <v>1.1481483102432875E-6</v>
       </c>
       <c r="BR7" s="1"/>
       <c r="BS7" s="1"/>
@@ -16660,40 +16611,40 @@
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>4.7173968490271667E-5</v>
+        <v>5.2551344166446717E-5</v>
       </c>
       <c r="B8" s="5">
-        <v>2.1405212332556434E-5</v>
+        <v>1.81221659458497E-5</v>
       </c>
       <c r="C8" s="5">
-        <v>5.5211708789151825E-5</v>
+        <v>6.085407110760846E-5</v>
       </c>
       <c r="D8" s="5">
-        <v>1.5424892042030514E-5</v>
+        <v>1.1867268456536989E-5</v>
       </c>
       <c r="E8" s="5">
-        <v>6.2146660958287137E-5</v>
+        <v>7.3742773413324608E-5</v>
       </c>
       <c r="F8" s="5">
-        <v>1.525167062157301E-5</v>
+        <v>1.2631049149502971E-5</v>
       </c>
       <c r="G8" s="5">
-        <v>3.5455034317545542E-5</v>
+        <v>3.4594942278500657E-5</v>
       </c>
       <c r="H8" s="5">
-        <v>3.3694831277700232E-5</v>
+        <v>3.1324969834829741E-5</v>
       </c>
       <c r="I8" s="1">
-        <v>3.1054384504649452E-5</v>
+        <v>2.7980364655733059E-5</v>
       </c>
       <c r="J8" s="1">
-        <v>2.769696541706293E-5</v>
+        <v>2.2323005907685239E-5</v>
       </c>
       <c r="K8" s="1">
-        <v>6.9463300190611486E-6</v>
+        <v>7.0960371027939287E-6</v>
       </c>
       <c r="L8" s="1">
-        <v>1.1481483102432875E-6</v>
+        <v>1.6186921212770627E-6</v>
       </c>
       <c r="BR8" s="1"/>
       <c r="BS8" s="1"/>
@@ -16701,40 +16652,40 @@
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>5.2551344166446717E-5</v>
+        <v>5.7480868042261712E-5</v>
       </c>
       <c r="B9" s="5">
-        <v>1.81221659458497E-5</v>
+        <v>1.7866252412328948E-5</v>
       </c>
       <c r="C9" s="5">
-        <v>6.085407110760846E-5</v>
+        <v>6.6810329169799537E-5</v>
       </c>
       <c r="D9" s="5">
-        <v>1.1867268456536989E-5</v>
+        <v>1.1012504111770904E-5</v>
       </c>
       <c r="E9" s="5">
-        <v>7.3742773413324608E-5</v>
+        <v>8.376534879325423E-5</v>
       </c>
       <c r="F9" s="5">
-        <v>1.2631049149502971E-5</v>
+        <v>1.3316520136003041E-5</v>
       </c>
       <c r="G9" s="5">
-        <v>3.4594942278500657E-5</v>
+        <v>3.4800111396896677E-5</v>
       </c>
       <c r="H9" s="5">
-        <v>3.1324969834829741E-5</v>
+        <v>3.1312377796178376E-5</v>
       </c>
       <c r="I9" s="1">
-        <v>2.7980364655733059E-5</v>
+        <v>2.467365891270501E-5</v>
       </c>
       <c r="J9" s="1">
-        <v>2.2323005907685239E-5</v>
+        <v>1.8095933616759513E-5</v>
       </c>
       <c r="K9" s="1">
-        <v>7.0960371027939287E-6</v>
+        <v>6.2295317752191393E-6</v>
       </c>
       <c r="L9" s="1">
-        <v>1.6186921212770627E-6</v>
+        <v>-3.9768677915098111E-7</v>
       </c>
       <c r="BR9" s="1"/>
       <c r="BS9" s="1"/>
@@ -16742,40 +16693,40 @@
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>5.7480868042261712E-5</v>
+        <v>6.2164497650143286E-5</v>
       </c>
       <c r="B10" s="5">
-        <v>1.7866252412328948E-5</v>
+        <v>1.4860578174184097E-5</v>
       </c>
       <c r="C10" s="5">
-        <v>6.6810329169799537E-5</v>
+        <v>7.0190476686389502E-5</v>
       </c>
       <c r="D10" s="5">
-        <v>1.1012504111770904E-5</v>
+        <v>7.6213903599763044E-6</v>
       </c>
       <c r="E10" s="5">
-        <v>8.376534879325423E-5</v>
+        <v>9.0055444015347402E-5</v>
       </c>
       <c r="F10" s="5">
-        <v>1.3316520136003041E-5</v>
+        <v>1.1284296317932291E-5</v>
       </c>
       <c r="G10" s="5">
-        <v>3.4800111396896677E-5</v>
+        <v>3.4830742081510407E-5</v>
       </c>
       <c r="H10" s="5">
-        <v>3.1312377796178376E-5</v>
+        <v>2.8786609224708271E-5</v>
       </c>
       <c r="I10" s="1">
-        <v>2.467365891270501E-5</v>
+        <v>2.2033818694481427E-5</v>
       </c>
       <c r="J10" s="1">
-        <v>1.8095933616759513E-5</v>
+        <v>1.5613101165937865E-5</v>
       </c>
       <c r="K10" s="1">
-        <v>6.2295317752191393E-6</v>
+        <v>8.223775408707694E-6</v>
       </c>
       <c r="L10" s="1">
-        <v>-3.9768677915098111E-7</v>
+        <v>1.2499788381503327E-6</v>
       </c>
       <c r="BR10" s="1"/>
       <c r="BS10" s="1"/>
@@ -16783,40 +16734,40 @@
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>6.2164497650143286E-5</v>
+        <v>6.6672638856398597E-5</v>
       </c>
       <c r="B11" s="5">
-        <v>1.4860578174184097E-5</v>
+        <v>1.3112237536389015E-5</v>
       </c>
       <c r="C11" s="5">
-        <v>7.0190476686389502E-5</v>
+        <v>7.3550495638608632E-5</v>
       </c>
       <c r="D11" s="5">
-        <v>7.6213903599763044E-6</v>
+        <v>5.4494267813023911E-6</v>
       </c>
       <c r="E11" s="5">
-        <v>9.0055444015347402E-5</v>
+        <v>9.4965218122203265E-5</v>
       </c>
       <c r="F11" s="5">
-        <v>1.1284296317932291E-5</v>
+        <v>1.022878349688644E-5</v>
       </c>
       <c r="G11" s="5">
-        <v>3.4830742081510407E-5</v>
+        <v>3.350167202557236E-5</v>
       </c>
       <c r="H11" s="5">
-        <v>2.8786609224708271E-5</v>
+        <v>2.8874972609536226E-5</v>
       </c>
       <c r="I11" s="1">
-        <v>2.2033818694481427E-5</v>
+        <v>1.8969093126777747E-5</v>
       </c>
       <c r="J11" s="1">
-        <v>1.5613101165937865E-5</v>
+        <v>1.1027760728744146E-5</v>
       </c>
       <c r="K11" s="1">
-        <v>8.223775408707694E-6</v>
+        <v>8.5114885038805222E-6</v>
       </c>
       <c r="L11" s="1">
-        <v>1.2499788381503327E-6</v>
+        <v>1.7464199179167972E-6</v>
       </c>
       <c r="BR11" s="1"/>
       <c r="BS11" s="1"/>
@@ -16824,40 +16775,40 @@
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>6.6672638856398597E-5</v>
+        <v>6.9369352275559099E-5</v>
       </c>
       <c r="B12" s="5">
-        <v>1.3112237536389015E-5</v>
+        <v>1.1258094913351585E-5</v>
       </c>
       <c r="C12" s="5">
-        <v>7.3550495638608632E-5</v>
+        <v>7.4947923430108976E-5</v>
       </c>
       <c r="D12" s="5">
-        <v>5.4494267813023911E-6</v>
+        <v>2.3043780108811251E-6</v>
       </c>
       <c r="E12" s="5">
-        <v>9.4965218122203265E-5</v>
+        <v>9.945056230155E-5</v>
       </c>
       <c r="F12" s="5">
-        <v>1.022878349688644E-5</v>
+        <v>9.7716002592403151E-6</v>
       </c>
       <c r="G12" s="5">
-        <v>3.350167202557236E-5</v>
+        <v>3.2463568370236229E-5</v>
       </c>
       <c r="H12" s="5">
-        <v>2.8874972609536226E-5</v>
+        <v>2.8094635696765402E-5</v>
       </c>
       <c r="I12" s="1">
-        <v>1.8969093126777747E-5</v>
+        <v>1.6627261869864296E-5</v>
       </c>
       <c r="J12" s="1">
-        <v>1.1027760728744146E-5</v>
+        <v>7.9737786380651432E-6</v>
       </c>
       <c r="K12" s="1">
-        <v>8.5114885038805222E-6</v>
+        <v>8.6121352655508946E-6</v>
       </c>
       <c r="L12" s="1">
-        <v>1.7464199179167972E-6</v>
+        <v>1.9680167597235787E-6</v>
       </c>
       <c r="BR12" s="1"/>
       <c r="BS12" s="1"/>
@@ -16865,40 +16816,40 @@
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>6.9369352275559099E-5</v>
+        <v>7.072734535824507E-5</v>
       </c>
       <c r="B13" s="5">
-        <v>1.1258094913351585E-5</v>
+        <v>9.5845413282287517E-6</v>
       </c>
       <c r="C13" s="5">
-        <v>7.4947923430108976E-5</v>
+        <v>7.594427924105876E-5</v>
       </c>
       <c r="D13" s="5">
-        <v>2.3043780108811251E-6</v>
+        <v>9.5427581721721499E-7</v>
       </c>
       <c r="E13" s="5">
-        <v>9.945056230155E-5</v>
+        <v>1.0275763014251649E-4</v>
       </c>
       <c r="F13" s="5">
-        <v>9.7716002592403151E-6</v>
+        <v>8.1411546424513259E-6</v>
       </c>
       <c r="G13" s="5">
-        <v>3.2463568370236229E-5</v>
+        <v>3.0673258386515467E-5</v>
       </c>
       <c r="H13" s="5">
-        <v>2.8094635696765402E-5</v>
+        <v>2.6959300116011914E-5</v>
       </c>
       <c r="I13" s="1">
-        <v>1.6627261869864296E-5</v>
+        <v>1.4900403143384977E-5</v>
       </c>
       <c r="J13" s="1">
-        <v>7.9737786380651432E-6</v>
+        <v>5.9448177471901897E-6</v>
       </c>
       <c r="K13" s="1">
-        <v>8.6121352655508946E-6</v>
+        <v>8.8242121385930915E-6</v>
       </c>
       <c r="L13" s="1">
-        <v>1.9680167597235787E-6</v>
+        <v>1.1485420496259655E-6</v>
       </c>
       <c r="BR13" s="1"/>
       <c r="BS13" s="1"/>
@@ -16906,40 +16857,40 @@
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>7.072734535824507E-5</v>
+        <v>7.2095086745455755E-5</v>
       </c>
       <c r="B14" s="5">
-        <v>9.5845413282287517E-6</v>
+        <v>8.5388889941792612E-6</v>
       </c>
       <c r="C14" s="5">
-        <v>7.594427924105876E-5</v>
+        <v>7.6025766494108166E-5</v>
       </c>
       <c r="D14" s="5">
-        <v>9.5427581721721499E-7</v>
+        <v>-5.8929458071621532E-7</v>
       </c>
       <c r="E14" s="5">
-        <v>1.0275763014251649E-4</v>
+        <v>1.0537650444948296E-4</v>
       </c>
       <c r="F14" s="5">
-        <v>8.1411546424513259E-6</v>
+        <v>7.8129097717712093E-6</v>
       </c>
       <c r="G14" s="5">
-        <v>3.0673258386515467E-5</v>
+        <v>2.9053954704552631E-5</v>
       </c>
       <c r="H14" s="5">
-        <v>2.6959300116011914E-5</v>
+        <v>2.5314287570368799E-5</v>
       </c>
       <c r="I14" s="1">
-        <v>1.4900403143384977E-5</v>
+        <v>1.2599137216295908E-5</v>
       </c>
       <c r="J14" s="1">
-        <v>5.9448177471901897E-6</v>
+        <v>3.0316729176665946E-6</v>
       </c>
       <c r="K14" s="1">
-        <v>8.8242121385930915E-6</v>
+        <v>9.0684462349643327E-6</v>
       </c>
       <c r="L14" s="1">
-        <v>1.1485420496259655E-6</v>
+        <v>3.6285498291764237E-7</v>
       </c>
       <c r="BR14" s="1"/>
       <c r="BS14" s="1"/>
@@ -16947,40 +16898,40 @@
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>7.2095086745455755E-5</v>
+        <v>7.4086994195698974E-5</v>
       </c>
       <c r="B15" s="5">
-        <v>8.5388889941792612E-6</v>
+        <v>6.7654822983494178E-6</v>
       </c>
       <c r="C15" s="5">
-        <v>7.6025766494108166E-5</v>
+        <v>7.7814689066313392E-5</v>
       </c>
       <c r="D15" s="5">
-        <v>-5.8929458071621532E-7</v>
+        <v>-1.8386931488617586E-6</v>
       </c>
       <c r="E15" s="5">
-        <v>1.0537650444948296E-4</v>
+        <v>1.0573077695060981E-4</v>
       </c>
       <c r="F15" s="5">
-        <v>7.8129097717712093E-6</v>
+        <v>7.7393019258173434E-6</v>
       </c>
       <c r="G15" s="5">
-        <v>2.9053954704552631E-5</v>
+        <v>2.8501669648583333E-5</v>
       </c>
       <c r="H15" s="5">
-        <v>2.5314287570368799E-5</v>
+        <v>2.4905006029429105E-5</v>
       </c>
       <c r="I15" s="1">
-        <v>1.2599137216295908E-5</v>
+        <v>1.017493478737766E-5</v>
       </c>
       <c r="J15" s="1">
-        <v>3.0316729176665946E-6</v>
+        <v>1.0699956646646747E-6</v>
       </c>
       <c r="K15" s="1">
-        <v>9.0684462349643327E-6</v>
+        <v>9.8032773714966078E-6</v>
       </c>
       <c r="L15" s="1">
-        <v>3.6285498291764237E-7</v>
+        <v>5.060078944966323E-7</v>
       </c>
       <c r="BR15" s="1"/>
       <c r="BS15" s="1"/>
@@ -16988,40 +16939,40 @@
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>7.4086994195698974E-5</v>
+        <v>7.604567250527397E-5</v>
       </c>
       <c r="B16" s="5">
-        <v>6.7654822983494178E-6</v>
+        <v>6.1220689804991624E-6</v>
       </c>
       <c r="C16" s="5">
-        <v>7.7814689066313392E-5</v>
+        <v>7.9050706731344234E-5</v>
       </c>
       <c r="D16" s="5">
-        <v>-1.8386931488617586E-6</v>
+        <v>-3.3123664779227679E-6</v>
       </c>
       <c r="E16" s="5">
-        <v>1.0573077695060981E-4</v>
+        <v>1.085866778285198E-4</v>
       </c>
       <c r="F16" s="5">
-        <v>7.7393019258173434E-6</v>
+        <v>7.9946089400935449E-6</v>
       </c>
       <c r="G16" s="5">
-        <v>2.8501669648583333E-5</v>
+        <v>2.9007971239794483E-5</v>
       </c>
       <c r="H16" s="5">
-        <v>2.4905006029429105E-5</v>
+        <v>2.5388824057760717E-5</v>
       </c>
       <c r="I16" s="1">
-        <v>1.017493478737766E-5</v>
+        <v>9.1842079014484157E-6</v>
       </c>
       <c r="J16" s="1">
-        <v>1.0699956646646747E-6</v>
+        <v>-2.6348955175017896E-7</v>
       </c>
       <c r="K16" s="1">
-        <v>9.8032773714966078E-6</v>
+        <v>9.5179993641831607E-6</v>
       </c>
       <c r="L16" s="1">
-        <v>5.060078944966323E-7</v>
+        <v>8.3144451238541597E-7</v>
       </c>
       <c r="BR16" s="1"/>
       <c r="BS16" s="1"/>
@@ -17029,40 +16980,40 @@
     </row>
     <row r="17" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>7.604567250527397E-5</v>
+        <v>7.7646204296188265E-5</v>
       </c>
       <c r="B17" s="5">
-        <v>6.1220689804991624E-6</v>
+        <v>7.0442719649552177E-6</v>
       </c>
       <c r="C17" s="5">
-        <v>7.9050706731344234E-5</v>
+        <v>7.9642944802001819E-5</v>
       </c>
       <c r="D17" s="5">
-        <v>-3.3123664779227679E-6</v>
+        <v>-2.1859142444631552E-6</v>
       </c>
       <c r="E17" s="5">
-        <v>1.085866778285198E-4</v>
+        <v>1.1102857389902465E-4</v>
       </c>
       <c r="F17" s="5">
-        <v>7.9946089400935449E-6</v>
+        <v>8.438425699780483E-6</v>
       </c>
       <c r="G17" s="5">
-        <v>2.9007971239794483E-5</v>
+        <v>3.0729091222155003E-5</v>
       </c>
       <c r="H17" s="5">
-        <v>2.5388824057760717E-5</v>
+        <v>2.6060821455214239E-5</v>
       </c>
       <c r="I17" s="1">
-        <v>9.1842079014484157E-6</v>
+        <v>9.4824137120870511E-6</v>
       </c>
       <c r="J17" s="1">
-        <v>-2.6348955175017896E-7</v>
+        <v>2.3290463403505268E-6</v>
       </c>
       <c r="K17" s="1">
-        <v>9.5179993641831607E-6</v>
+        <v>8.9621605973756215E-6</v>
       </c>
       <c r="L17" s="1">
-        <v>8.3144451238541597E-7</v>
+        <v>-6.6932803372563368E-7</v>
       </c>
       <c r="BR17" s="1"/>
       <c r="BS17" s="1"/>
@@ -17070,40 +17021,40 @@
     </row>
     <row r="18" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>7.7646204296188265E-5</v>
+        <v>7.8742931867725047E-5</v>
       </c>
       <c r="B18" s="5">
-        <v>7.0442719649552177E-6</v>
+        <v>7.959244467004023E-6</v>
       </c>
       <c r="C18" s="5">
-        <v>7.9642944802001819E-5</v>
+        <v>8.0553568301975492E-5</v>
       </c>
       <c r="D18" s="5">
-        <v>-2.1859142444631552E-6</v>
+        <v>-1.8372708527093773E-6</v>
       </c>
       <c r="E18" s="5">
-        <v>1.1102857389902465E-4</v>
+        <v>1.1330291315492236E-4</v>
       </c>
       <c r="F18" s="5">
-        <v>8.438425699780483E-6</v>
+        <v>9.6823818067498513E-6</v>
       </c>
       <c r="G18" s="5">
-        <v>3.0729091222155003E-5</v>
+        <v>3.2639790665658919E-5</v>
       </c>
       <c r="H18" s="5">
-        <v>2.6060821455214239E-5</v>
+        <v>2.6278334163208628E-5</v>
       </c>
       <c r="I18" s="1">
-        <v>9.4824137120870511E-6</v>
+        <v>9.335057702529459E-6</v>
       </c>
       <c r="J18" s="1">
-        <v>2.3290463403505268E-6</v>
+        <v>3.3259033731594667E-6</v>
       </c>
       <c r="K18" s="1">
-        <v>8.9621605973756215E-6</v>
+        <v>9.7738590071517356E-6</v>
       </c>
       <c r="L18" s="1">
-        <v>-6.6932803372563368E-7</v>
+        <v>-7.1994786283004555E-7</v>
       </c>
       <c r="BR18" s="1"/>
       <c r="BS18" s="1"/>
@@ -17111,40 +17062,40 @@
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>7.8742931867725047E-5</v>
+        <v>8.0935351345165496E-5</v>
       </c>
       <c r="B19" s="5">
-        <v>7.959244467004023E-6</v>
+        <v>8.5864053843212607E-6</v>
       </c>
       <c r="C19" s="5">
-        <v>8.0553568301975492E-5</v>
+        <v>8.2706546543284687E-5</v>
       </c>
       <c r="D19" s="5">
-        <v>-1.8372708527093773E-6</v>
+        <v>-1.5038802973835197E-6</v>
       </c>
       <c r="E19" s="5">
-        <v>1.1330291315492236E-4</v>
+        <v>1.1597431791975435E-4</v>
       </c>
       <c r="F19" s="5">
-        <v>9.6823818067498513E-6</v>
+        <v>1.0565891042344649E-5</v>
       </c>
       <c r="G19" s="5">
-        <v>3.2639790665658919E-5</v>
+        <v>3.3847378565592112E-5</v>
       </c>
       <c r="H19" s="5">
-        <v>2.6278334163208628E-5</v>
+        <v>2.7710028110337209E-5</v>
       </c>
       <c r="I19" s="1">
-        <v>9.335057702529459E-6</v>
+        <v>1.060751493300871E-5</v>
       </c>
       <c r="J19" s="1">
-        <v>3.3259033731594667E-6</v>
+        <v>4.0251342111399802E-6</v>
       </c>
       <c r="K19" s="1">
-        <v>9.7738590071517356E-6</v>
+        <v>1.0328749687516479E-5</v>
       </c>
       <c r="L19" s="1">
-        <v>-7.1994786283004555E-7</v>
+        <v>-6.2140655712403237E-7</v>
       </c>
       <c r="BR19" s="1"/>
       <c r="BS19" s="1"/>
@@ -17152,40 +17103,40 @@
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>8.0935351345165496E-5</v>
+        <v>8.2950969745865244E-5</v>
       </c>
       <c r="B20" s="5">
-        <v>8.5864053843212607E-6</v>
+        <v>9.2366585611493301E-6</v>
       </c>
       <c r="C20" s="5">
-        <v>8.2706546543284687E-5</v>
+        <v>8.3780724363397702E-5</v>
       </c>
       <c r="D20" s="5">
-        <v>-1.5038802973835197E-6</v>
+        <v>-9.3899746829093078E-7</v>
       </c>
       <c r="E20" s="5">
-        <v>1.1597431791975435E-4</v>
+        <v>1.1776550899773863E-4</v>
       </c>
       <c r="F20" s="5">
-        <v>1.0565891042344649E-5</v>
+        <v>1.164536692593518E-5</v>
       </c>
       <c r="G20" s="5">
-        <v>3.3847378565592112E-5</v>
+        <v>3.5326016909975611E-5</v>
       </c>
       <c r="H20" s="5">
-        <v>2.7710028110337209E-5</v>
+        <v>2.7610840628376765E-5</v>
       </c>
       <c r="I20" s="1">
-        <v>1.060751493300871E-5</v>
+        <v>1.1551869664290504E-5</v>
       </c>
       <c r="J20" s="1">
-        <v>4.0251342111399802E-6</v>
+        <v>4.5401424081867314E-6</v>
       </c>
       <c r="K20" s="1">
-        <v>1.0328749687516479E-5</v>
+        <v>9.9138726197147797E-6</v>
       </c>
       <c r="L20" s="1">
-        <v>-6.2140655712403237E-7</v>
+        <v>9.3907596286375156E-8</v>
       </c>
       <c r="BR20" s="1"/>
       <c r="BS20" s="1"/>
@@ -17193,40 +17144,40 @@
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>8.2950969745865244E-5</v>
+        <v>8.4295566051686283E-5</v>
       </c>
       <c r="B21" s="5">
-        <v>9.2366585611493301E-6</v>
+        <v>9.2750701206449626E-6</v>
       </c>
       <c r="C21" s="5">
-        <v>8.3780724363397702E-5</v>
+        <v>8.5722580924756098E-5</v>
       </c>
       <c r="D21" s="5">
-        <v>-9.3899746829093078E-7</v>
+        <v>-1.4403342921999462E-6</v>
       </c>
       <c r="E21" s="5">
-        <v>1.1776550899773863E-4</v>
+        <v>1.1906560336338509E-4</v>
       </c>
       <c r="F21" s="5">
-        <v>1.164536692593518E-5</v>
+        <v>1.2382017249193411E-5</v>
       </c>
       <c r="G21" s="5">
-        <v>3.5326016909975611E-5</v>
+        <v>3.5656824435421203E-5</v>
       </c>
       <c r="H21" s="5">
-        <v>2.7610840628376765E-5</v>
+        <v>2.8686130688276162E-5</v>
       </c>
       <c r="I21" s="1">
-        <v>1.1551869664290504E-5</v>
+        <v>1.0951567554155078E-5</v>
       </c>
       <c r="J21" s="1">
-        <v>4.5401424081867314E-6</v>
+        <v>4.3114492595010268E-6</v>
       </c>
       <c r="K21" s="1">
-        <v>9.9138726197147797E-6</v>
+        <v>1.0283330787173135E-5</v>
       </c>
       <c r="L21" s="1">
-        <v>9.3907596286375156E-8</v>
+        <v>-1.194847576536668E-6</v>
       </c>
       <c r="BR21" s="1"/>
       <c r="BS21" s="1"/>
@@ -17234,40 +17185,40 @@
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>8.4295566051686283E-5</v>
+        <v>8.5073149869070025E-5</v>
       </c>
       <c r="B22" s="5">
-        <v>9.2750701206449626E-6</v>
+        <v>9.248683865911711E-6</v>
       </c>
       <c r="C22" s="5">
-        <v>8.5722580924756098E-5</v>
+        <v>8.54066160445692E-5</v>
       </c>
       <c r="D22" s="5">
-        <v>-1.4403342921999462E-6</v>
+        <v>-1.6224967881346697E-6</v>
       </c>
       <c r="E22" s="5">
-        <v>1.1906560336338509E-4</v>
+        <v>1.1883563778010767E-4</v>
       </c>
       <c r="F22" s="5">
-        <v>1.2382017249193411E-5</v>
+        <v>1.2218148519937272E-5</v>
       </c>
       <c r="G22" s="5">
-        <v>3.5656824435421203E-5</v>
+        <v>3.4973537465354115E-5</v>
       </c>
       <c r="H22" s="5">
-        <v>2.8686130688276162E-5</v>
+        <v>2.803457813334298E-5</v>
       </c>
       <c r="I22" s="1">
-        <v>1.0951567554155078E-5</v>
+        <v>9.2399512475888068E-6</v>
       </c>
       <c r="J22" s="1">
-        <v>4.3114492595010268E-6</v>
+        <v>3.8037117724779024E-6</v>
       </c>
       <c r="K22" s="1">
-        <v>1.0283330787173135E-5</v>
+        <v>1.0307961873389946E-5</v>
       </c>
       <c r="L22" s="1">
-        <v>-1.194847576536668E-6</v>
+        <v>-1.9763280376824087E-6</v>
       </c>
       <c r="BR22" s="1"/>
       <c r="BS22" s="1"/>
@@ -17275,40 +17226,40 @@
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>8.5073149869070025E-5</v>
+        <v>8.5533088864855195E-5</v>
       </c>
       <c r="B23" s="5">
-        <v>9.248683865911711E-6</v>
+        <v>9.1044378300111917E-6</v>
       </c>
       <c r="C23" s="5">
-        <v>8.54066160445692E-5</v>
+        <v>8.7118539552160507E-5</v>
       </c>
       <c r="D23" s="5">
-        <v>-1.6224967881346697E-6</v>
+        <v>-1.4671252312262184E-6</v>
       </c>
       <c r="E23" s="5">
-        <v>1.1883563778010767E-4</v>
+        <v>1.1966663303502809E-4</v>
       </c>
       <c r="F23" s="5">
-        <v>1.2218148519937272E-5</v>
+        <v>1.2629510560514118E-5</v>
       </c>
       <c r="G23" s="5">
-        <v>3.4973537465354115E-5</v>
+        <v>3.5957892295917365E-5</v>
       </c>
       <c r="H23" s="5">
-        <v>2.803457813334298E-5</v>
+        <v>2.827769997629237E-5</v>
       </c>
       <c r="I23" s="1">
-        <v>9.2399512475888068E-6</v>
+        <v>9.5116015198619397E-6</v>
       </c>
       <c r="J23" s="1">
-        <v>3.8037117724779024E-6</v>
+        <v>3.1859294143399275E-6</v>
       </c>
       <c r="K23" s="1">
-        <v>1.0307961873389946E-5</v>
+        <v>1.0395233664526541E-5</v>
       </c>
       <c r="L23" s="1">
-        <v>-1.9763280376824087E-6</v>
+        <v>-2.0409048767798706E-6</v>
       </c>
       <c r="BR23" s="1"/>
       <c r="BS23" s="1"/>
@@ -17316,40 +17267,40 @@
     </row>
     <row r="24" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>8.5533088864855195E-5</v>
+        <v>8.7089178278709767E-5</v>
       </c>
       <c r="B24" s="5">
-        <v>9.1044378300111917E-6</v>
+        <v>8.4344439678050998E-6</v>
       </c>
       <c r="C24" s="5">
-        <v>8.7118539552160507E-5</v>
+        <v>8.6817952618747224E-5</v>
       </c>
       <c r="D24" s="5">
-        <v>-1.4671252312262184E-6</v>
+        <v>-2.4178722308823564E-6</v>
       </c>
       <c r="E24" s="5">
-        <v>1.1966663303502809E-4</v>
+        <v>1.2036472418629554E-4</v>
       </c>
       <c r="F24" s="5">
-        <v>1.2629510560514118E-5</v>
+        <v>1.2396660064348253E-5</v>
       </c>
       <c r="G24" s="5">
-        <v>3.5957892295917365E-5</v>
+        <v>3.5760377377926783E-5</v>
       </c>
       <c r="H24" s="5">
-        <v>2.827769997629237E-5</v>
+        <v>2.734431957982994E-5</v>
       </c>
       <c r="I24" s="1">
-        <v>9.5116015198619397E-6</v>
+        <v>9.7508340747495814E-6</v>
       </c>
       <c r="J24" s="1">
-        <v>3.1859294143399275E-6</v>
+        <v>2.8610647152642332E-6</v>
       </c>
       <c r="K24" s="1">
-        <v>1.0395233664526541E-5</v>
+        <v>1.042057024876837E-5</v>
       </c>
       <c r="L24" s="1">
-        <v>-2.0409048767798706E-6</v>
+        <v>-1.3503128564874671E-6</v>
       </c>
       <c r="BR24" s="1"/>
       <c r="BS24" s="1"/>
@@ -17357,40 +17308,40 @@
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>8.7089178278709767E-5</v>
+        <v>8.7349117165645696E-5</v>
       </c>
       <c r="B25" s="5">
-        <v>8.4344439678050998E-6</v>
+        <v>7.9024527470140937E-6</v>
       </c>
       <c r="C25" s="5">
-        <v>8.6817952618747224E-5</v>
+        <v>8.6469310906493735E-5</v>
       </c>
       <c r="D25" s="5">
-        <v>-2.4178722308823564E-6</v>
+        <v>-2.0590226490861674E-6</v>
       </c>
       <c r="E25" s="5">
-        <v>1.2036472418629554E-4</v>
+        <v>1.220999076672856E-4</v>
       </c>
       <c r="F25" s="5">
-        <v>1.2396660064348253E-5</v>
+        <v>1.2443465501294632E-5</v>
       </c>
       <c r="G25" s="5">
-        <v>3.5760377377926783E-5</v>
+        <v>3.5460441422219269E-5</v>
       </c>
       <c r="H25" s="5">
-        <v>2.734431957982994E-5</v>
+        <v>2.8346526479604978E-5</v>
       </c>
       <c r="I25" s="1">
-        <v>9.7508340747495814E-6</v>
+        <v>8.5879907011643386E-6</v>
       </c>
       <c r="J25" s="1">
-        <v>2.8610647152642332E-6</v>
+        <v>2.7169998141687857E-6</v>
       </c>
       <c r="K25" s="1">
-        <v>1.042057024876837E-5</v>
+        <v>1.0793832070837514E-5</v>
       </c>
       <c r="L25" s="1">
-        <v>-1.3503128564874671E-6</v>
+        <v>-2.2371055922658194E-6</v>
       </c>
       <c r="BR25" s="1"/>
       <c r="BS25" s="1"/>
@@ -17398,40 +17349,40 @@
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>8.7349117165645696E-5</v>
+        <v>8.8970469336837471E-5</v>
       </c>
       <c r="B26" s="5">
-        <v>7.9024527470140937E-6</v>
+        <v>7.7352662123109095E-6</v>
       </c>
       <c r="C26" s="5">
-        <v>8.6469310906493735E-5</v>
+        <v>8.6781461845431007E-5</v>
       </c>
       <c r="D26" s="5">
-        <v>-2.0590226490861674E-6</v>
+        <v>-3.7927527746436929E-6</v>
       </c>
       <c r="E26" s="5">
-        <v>1.220999076672856E-4</v>
+        <v>1.2298786902955119E-4</v>
       </c>
       <c r="F26" s="5">
-        <v>1.2443465501294632E-5</v>
+        <v>1.3407223004108237E-5</v>
       </c>
       <c r="G26" s="5">
-        <v>3.5460441422219269E-5</v>
+        <v>3.6209800806374925E-5</v>
       </c>
       <c r="H26" s="5">
-        <v>2.8346526479604978E-5</v>
+        <v>2.8410636930795846E-5</v>
       </c>
       <c r="I26" s="1">
-        <v>8.5879907011643386E-6</v>
+        <v>8.7916868568398143E-6</v>
       </c>
       <c r="J26" s="1">
-        <v>2.7169998141687857E-6</v>
+        <v>2.8682758611078829E-6</v>
       </c>
       <c r="K26" s="1">
-        <v>1.0793832070837514E-5</v>
+        <v>1.2572688722282792E-5</v>
       </c>
       <c r="L26" s="1">
-        <v>-2.2371055922658194E-6</v>
+        <v>-2.4853015331356872E-6</v>
       </c>
       <c r="BR26" s="1"/>
       <c r="BS26" s="1"/>
@@ -17439,40 +17390,40 @@
     </row>
     <row r="27" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>8.8970469336837471E-5</v>
+        <v>9.012236370111934E-5</v>
       </c>
       <c r="B27" s="5">
-        <v>7.7352662123109095E-6</v>
+        <v>7.614734725727712E-6</v>
       </c>
       <c r="C27" s="5">
-        <v>8.6781461845431007E-5</v>
+        <v>8.7218985805583016E-5</v>
       </c>
       <c r="D27" s="5">
-        <v>-3.7927527746436929E-6</v>
+        <v>-3.2966214333247923E-6</v>
       </c>
       <c r="E27" s="5">
-        <v>1.2298786902955119E-4</v>
+        <v>1.2292677516339071E-4</v>
       </c>
       <c r="F27" s="5">
-        <v>1.3407223004108237E-5</v>
+        <v>1.4034578115815211E-5</v>
       </c>
       <c r="G27" s="5">
-        <v>3.6209800806374925E-5</v>
+        <v>3.7191467394094568E-5</v>
       </c>
       <c r="H27" s="5">
-        <v>2.8410636930795846E-5</v>
+        <v>2.8934953796369567E-5</v>
       </c>
       <c r="I27" s="1">
-        <v>8.7916868568398143E-6</v>
+        <v>8.8880175337889555E-6</v>
       </c>
       <c r="J27" s="1">
-        <v>2.8682758611078829E-6</v>
+        <v>2.6763458753631397E-6</v>
       </c>
       <c r="K27" s="1">
-        <v>1.2572688722282792E-5</v>
+        <v>1.2661299841123684E-5</v>
       </c>
       <c r="L27" s="1">
-        <v>-2.4853015331356872E-6</v>
+        <v>-2.1824167286167706E-6</v>
       </c>
       <c r="BR27" s="1"/>
       <c r="BS27" s="1"/>
@@ -17480,40 +17431,40 @@
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>9.012236370111934E-5</v>
+        <v>9.0633971095453736E-5</v>
       </c>
       <c r="B28" s="5">
-        <v>7.614734725727712E-6</v>
+        <v>8.0940797766645978E-6</v>
       </c>
       <c r="C28" s="5">
-        <v>8.7218985805583016E-5</v>
+        <v>8.7421795489085047E-5</v>
       </c>
       <c r="D28" s="5">
-        <v>-3.2966214333247923E-6</v>
+        <v>-3.5559595146471279E-6</v>
       </c>
       <c r="E28" s="5">
-        <v>1.2292677516339071E-4</v>
+        <v>1.2444024261238154E-4</v>
       </c>
       <c r="F28" s="5">
-        <v>1.4034578115815211E-5</v>
+        <v>1.4900876760079451E-5</v>
       </c>
       <c r="G28" s="5">
-        <v>3.7191467394094568E-5</v>
+        <v>3.6506154710933686E-5</v>
       </c>
       <c r="H28" s="5">
-        <v>2.8934953796369567E-5</v>
+        <v>2.8613761105238111E-5</v>
       </c>
       <c r="I28" s="1">
-        <v>8.8880175337889555E-6</v>
+        <v>9.4361826017512473E-6</v>
       </c>
       <c r="J28" s="1">
-        <v>2.6763458753631397E-6</v>
+        <v>2.5592002835736483E-6</v>
       </c>
       <c r="K28" s="1">
-        <v>1.2661299841123684E-5</v>
+        <v>1.1997044742188118E-5</v>
       </c>
       <c r="L28" s="1">
-        <v>-2.1824167286167706E-6</v>
+        <v>-2.6958215631517519E-6</v>
       </c>
       <c r="BR28" s="1"/>
       <c r="BS28" s="1"/>
@@ -17521,40 +17472,40 @@
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>9.0633971095453736E-5</v>
+        <v>9.2503643336089986E-5</v>
       </c>
       <c r="B29" s="5">
-        <v>8.0940797766645978E-6</v>
+        <v>8.5960328601343561E-6</v>
       </c>
       <c r="C29" s="5">
-        <v>8.7421795489085047E-5</v>
+        <v>8.9141000217778099E-5</v>
       </c>
       <c r="D29" s="5">
-        <v>-3.5559595146471279E-6</v>
+        <v>-3.3476692359521443E-6</v>
       </c>
       <c r="E29" s="5">
-        <v>1.2444024261238154E-4</v>
+        <v>1.2578497102629788E-4</v>
       </c>
       <c r="F29" s="5">
-        <v>1.4900876760079451E-5</v>
+        <v>1.4623306939354208E-5</v>
       </c>
       <c r="G29" s="5">
-        <v>3.6506154710933686E-5</v>
+        <v>3.7654743750586972E-5</v>
       </c>
       <c r="H29" s="5">
-        <v>2.8613761105238111E-5</v>
+        <v>2.9389624965150268E-5</v>
       </c>
       <c r="I29" s="1">
-        <v>9.4361826017512473E-6</v>
+        <v>8.9793914987632006E-6</v>
       </c>
       <c r="J29" s="1">
-        <v>2.5592002835736483E-6</v>
+        <v>2.3201925223974296E-6</v>
       </c>
       <c r="K29" s="1">
-        <v>1.1997044742188118E-5</v>
+        <v>1.2008688443494687E-5</v>
       </c>
       <c r="L29" s="1">
-        <v>-2.6958215631517519E-6</v>
+        <v>-2.7972656528258213E-6</v>
       </c>
       <c r="BR29" s="1"/>
       <c r="BS29" s="1"/>
@@ -17562,40 +17513,40 @@
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>9.2503643336089986E-5</v>
+        <v>9.3431912491500485E-5</v>
       </c>
       <c r="B30" s="5">
-        <v>8.5960328601343561E-6</v>
+        <v>8.6802532001765964E-6</v>
       </c>
       <c r="C30" s="5">
-        <v>8.9141000217778099E-5</v>
+        <v>8.9909157497746611E-5</v>
       </c>
       <c r="D30" s="5">
-        <v>-3.3476692359521443E-6</v>
+        <v>-3.5547418861942015E-6</v>
       </c>
       <c r="E30" s="5">
-        <v>1.2578497102629788E-4</v>
+        <v>1.2614078501659021E-4</v>
       </c>
       <c r="F30" s="5">
-        <v>1.4623306939354208E-5</v>
+        <v>1.5371006186579161E-5</v>
       </c>
       <c r="G30" s="5">
-        <v>3.7654743750586972E-5</v>
+        <v>3.7906573875080146E-5</v>
       </c>
       <c r="H30" s="5">
-        <v>2.9389624965150268E-5</v>
+        <v>2.9771134769408791E-5</v>
       </c>
       <c r="I30" s="1">
-        <v>8.9793914987632006E-6</v>
+        <v>8.7468309653525311E-6</v>
       </c>
       <c r="J30" s="1">
-        <v>2.3201925223974296E-6</v>
+        <v>3.3800177592774316E-6</v>
       </c>
       <c r="K30" s="1">
-        <v>1.2008688443494687E-5</v>
+        <v>1.2696926515583142E-5</v>
       </c>
       <c r="L30" s="1">
-        <v>-2.7972656528258213E-6</v>
+        <v>-2.5917230819395148E-6</v>
       </c>
       <c r="BR30" s="1"/>
       <c r="BS30" s="1"/>
@@ -17603,40 +17554,40 @@
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>9.3431912491500485E-5</v>
+        <v>9.4737638401530544E-5</v>
       </c>
       <c r="B31" s="5">
-        <v>8.6802532001765964E-6</v>
+        <v>8.8452413570597188E-6</v>
       </c>
       <c r="C31" s="5">
-        <v>8.9909157497746611E-5</v>
+        <v>9.0035250477144696E-5</v>
       </c>
       <c r="D31" s="5">
-        <v>-3.5547418861942015E-6</v>
+        <v>-2.7462519736690116E-6</v>
       </c>
       <c r="E31" s="5">
-        <v>1.2614078501659021E-4</v>
+        <v>1.2734177064253893E-4</v>
       </c>
       <c r="F31" s="5">
-        <v>1.5371006186579161E-5</v>
+        <v>1.5619650910098093E-5</v>
       </c>
       <c r="G31" s="5">
-        <v>3.7906573875080146E-5</v>
+        <v>3.8194373222045358E-5</v>
       </c>
       <c r="H31" s="5">
-        <v>2.9771134769408791E-5</v>
+        <v>2.9505129986073103E-5</v>
       </c>
       <c r="I31" s="1">
-        <v>8.7468309653525311E-6</v>
+        <v>9.591878701802059E-6</v>
       </c>
       <c r="J31" s="1">
-        <v>3.3800177592774316E-6</v>
+        <v>3.9521796652043639E-6</v>
       </c>
       <c r="K31" s="1">
-        <v>1.2696926515583142E-5</v>
+        <v>1.2799601040315036E-5</v>
       </c>
       <c r="L31" s="1">
-        <v>-2.5917230819395148E-6</v>
+        <v>-2.9661435621765493E-6</v>
       </c>
       <c r="BR31" s="1"/>
       <c r="BS31" s="1"/>
@@ -17644,40 +17595,40 @@
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>9.4737638401530544E-5</v>
+        <v>9.5725016255196471E-5</v>
       </c>
       <c r="B32" s="5">
-        <v>8.8452413570597188E-6</v>
+        <v>9.7557914827753334E-6</v>
       </c>
       <c r="C32" s="5">
-        <v>9.0035250477144696E-5</v>
+        <v>9.1193707535505708E-5</v>
       </c>
       <c r="D32" s="5">
-        <v>-2.7462519736690116E-6</v>
+        <v>-2.1023070330868088E-6</v>
       </c>
       <c r="E32" s="5">
-        <v>1.2734177064253893E-4</v>
+        <v>1.3001380236889876E-4</v>
       </c>
       <c r="F32" s="5">
-        <v>1.5619650910098093E-5</v>
+        <v>1.5881027796153108E-5</v>
       </c>
       <c r="G32" s="5">
-        <v>3.8194373222045358E-5</v>
+        <v>3.9420689138491144E-5</v>
       </c>
       <c r="H32" s="5">
-        <v>2.9505129986073103E-5</v>
+        <v>3.0576046842437088E-5</v>
       </c>
       <c r="I32" s="1">
-        <v>9.591878701802059E-6</v>
+        <v>1.0060732505437486E-5</v>
       </c>
       <c r="J32" s="1">
-        <v>3.9521796652043639E-6</v>
+        <v>4.6072438197874988E-6</v>
       </c>
       <c r="K32" s="1">
-        <v>1.2799601040315036E-5</v>
+        <v>1.2312990978751044E-5</v>
       </c>
       <c r="L32" s="1">
-        <v>-2.9661435621765493E-6</v>
+        <v>-3.0557201159322339E-6</v>
       </c>
       <c r="BR32" s="1"/>
       <c r="BS32" s="1"/>
@@ -17685,40 +17636,40 @@
     </row>
     <row r="33" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>9.5725016255196471E-5</v>
+        <v>9.6433995456550459E-5</v>
       </c>
       <c r="B33" s="5">
-        <v>9.7557914827753334E-6</v>
+        <v>9.8820087724854622E-6</v>
       </c>
       <c r="C33" s="5">
-        <v>9.1193707535505708E-5</v>
+        <v>9.30959601359721E-5</v>
       </c>
       <c r="D33" s="5">
-        <v>-2.1023070330868088E-6</v>
+        <v>-1.7977830740444067E-6</v>
       </c>
       <c r="E33" s="5">
-        <v>1.3001380236889876E-4</v>
+        <v>1.3055615986753977E-4</v>
       </c>
       <c r="F33" s="5">
-        <v>1.5881027796153108E-5</v>
+        <v>1.7170470305773872E-5</v>
       </c>
       <c r="G33" s="5">
-        <v>3.9420689138491144E-5</v>
+        <v>4.0563488293857142E-5</v>
       </c>
       <c r="H33" s="5">
-        <v>3.0576046842437088E-5</v>
+        <v>3.1589199581610189E-5</v>
       </c>
       <c r="I33" s="1">
-        <v>1.0060732505437486E-5</v>
+        <v>1.0456788900124747E-5</v>
       </c>
       <c r="J33" s="1">
-        <v>4.6072438197874988E-6</v>
+        <v>5.6050085287633056E-6</v>
       </c>
       <c r="K33" s="1">
-        <v>1.2312990978751044E-5</v>
+        <v>1.1843104549108345E-5</v>
       </c>
       <c r="L33" s="1">
-        <v>-3.0557201159322339E-6</v>
+        <v>-3.7477888229415536E-6</v>
       </c>
       <c r="BR33" s="1"/>
       <c r="BS33" s="1"/>
@@ -17726,40 +17677,40 @@
     </row>
     <row r="34" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>9.6433995456550459E-5</v>
+        <v>9.7814975469741328E-5</v>
       </c>
       <c r="B34" s="5">
-        <v>9.8820087724854622E-6</v>
+        <v>1.1103693652612934E-5</v>
       </c>
       <c r="C34" s="5">
-        <v>9.30959601359721E-5</v>
+        <v>9.4465441258628768E-5</v>
       </c>
       <c r="D34" s="5">
-        <v>-1.7977830740444067E-6</v>
+        <v>-4.5227150418519768E-7</v>
       </c>
       <c r="E34" s="5">
-        <v>1.3055615986753977E-4</v>
+        <v>1.3212976018493056E-4</v>
       </c>
       <c r="F34" s="5">
-        <v>1.7170470305773872E-5</v>
+        <v>1.8215046880796365E-5</v>
       </c>
       <c r="G34" s="5">
-        <v>4.0563488293857142E-5</v>
+        <v>4.1314336917782496E-5</v>
       </c>
       <c r="H34" s="5">
-        <v>3.1589199581610189E-5</v>
+        <v>3.2476425496467953E-5</v>
       </c>
       <c r="I34" s="1">
-        <v>1.0456788900124747E-5</v>
+        <v>1.0546658652067081E-5</v>
       </c>
       <c r="J34" s="1">
-        <v>5.6050085287633056E-6</v>
+        <v>6.6605451920810632E-6</v>
       </c>
       <c r="K34" s="1">
-        <v>1.1843104549108345E-5</v>
+        <v>1.229981109130958E-5</v>
       </c>
       <c r="L34" s="1">
-        <v>-3.7477888229415536E-6</v>
+        <v>-4.3777870584603591E-6</v>
       </c>
       <c r="BR34" s="1"/>
       <c r="BS34" s="1"/>
@@ -17767,40 +17718,40 @@
     </row>
     <row r="35" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>9.7814975469741328E-5</v>
+        <v>9.883676459353577E-5</v>
       </c>
       <c r="B35" s="5">
-        <v>1.1103693652612934E-5</v>
+        <v>1.1644500104615596E-5</v>
       </c>
       <c r="C35" s="5">
-        <v>9.4465441258628768E-5</v>
+        <v>9.5441691655873129E-5</v>
       </c>
       <c r="D35" s="5">
-        <v>-4.5227150418519768E-7</v>
+        <v>2.2405999072425131E-7</v>
       </c>
       <c r="E35" s="5">
-        <v>1.3212976018493056E-4</v>
+        <v>1.3368347507081851E-4</v>
       </c>
       <c r="F35" s="5">
-        <v>1.8215046880796365E-5</v>
+        <v>1.9936155433306763E-5</v>
       </c>
       <c r="G35" s="5">
-        <v>4.1314336917782496E-5</v>
+        <v>4.168734943345298E-5</v>
       </c>
       <c r="H35" s="5">
-        <v>3.2476425496467953E-5</v>
+        <v>3.3748607837346539E-5</v>
       </c>
       <c r="I35" s="1">
-        <v>1.0546658652067081E-5</v>
+        <v>1.1335436963157836E-5</v>
       </c>
       <c r="J35" s="1">
-        <v>6.6605451920810632E-6</v>
+        <v>8.4359181502617619E-6</v>
       </c>
       <c r="K35" s="1">
-        <v>1.229981109130958E-5</v>
+        <v>1.2050304028683842E-5</v>
       </c>
       <c r="L35" s="1">
-        <v>-4.3777870584603591E-6</v>
+        <v>-3.6691080220713039E-6</v>
       </c>
       <c r="BR35" s="1"/>
       <c r="BS35" s="1"/>
@@ -17808,40 +17759,40 @@
     </row>
     <row r="36" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>9.883676459353577E-5</v>
+        <v>9.8878805963032584E-5</v>
       </c>
       <c r="B36" s="5">
-        <v>1.1644500104615596E-5</v>
+        <v>1.202493401573565E-5</v>
       </c>
       <c r="C36" s="5">
-        <v>9.5441691655873129E-5</v>
+        <v>9.5405210731314138E-5</v>
       </c>
       <c r="D36" s="5">
-        <v>2.2405999072425131E-7</v>
+        <v>3.3110750700601765E-7</v>
       </c>
       <c r="E36" s="5">
-        <v>1.3368347507081851E-4</v>
+        <v>1.3426755018584174E-4</v>
       </c>
       <c r="F36" s="5">
-        <v>1.9936155433306763E-5</v>
+        <v>1.9629806851786946E-5</v>
       </c>
       <c r="G36" s="5">
-        <v>4.168734943345298E-5</v>
+        <v>4.2838019748116241E-5</v>
       </c>
       <c r="H36" s="5">
-        <v>3.3748607837346539E-5</v>
+        <v>3.3624330155936771E-5</v>
       </c>
       <c r="I36" s="1">
-        <v>1.1335436963157836E-5</v>
+        <v>1.1616552366998378E-5</v>
       </c>
       <c r="J36" s="1">
-        <v>8.4359181502617619E-6</v>
+        <v>8.3695385934799693E-6</v>
       </c>
       <c r="K36" s="1">
-        <v>1.2050304028683842E-5</v>
+        <v>1.2159962300028538E-5</v>
       </c>
       <c r="L36" s="1">
-        <v>-3.6691080220713039E-6</v>
+        <v>-3.9809294497313713E-6</v>
       </c>
       <c r="BR36" s="1"/>
       <c r="BS36" s="1"/>
@@ -17849,40 +17800,40 @@
     </row>
     <row r="37" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>9.8878805963032584E-5</v>
+        <v>9.9509721605033769E-5</v>
       </c>
       <c r="B37" s="5">
-        <v>1.202493401573565E-5</v>
+        <v>1.2820853438167551E-5</v>
       </c>
       <c r="C37" s="5">
-        <v>9.5405210731314138E-5</v>
+        <v>9.5674085567550027E-5</v>
       </c>
       <c r="D37" s="5">
-        <v>3.3110750700601765E-7</v>
+        <v>1.4417362259738775E-6</v>
       </c>
       <c r="E37" s="5">
-        <v>1.3426755018584174E-4</v>
+        <v>1.3498660588328118E-4</v>
       </c>
       <c r="F37" s="5">
-        <v>1.9629806851786946E-5</v>
+        <v>2.0330431852236958E-5</v>
       </c>
       <c r="G37" s="5">
-        <v>4.2838019748116241E-5</v>
+        <v>4.3473461531266799E-5</v>
       </c>
       <c r="H37" s="5">
-        <v>3.3624330155936771E-5</v>
+        <v>3.5136947460261136E-5</v>
       </c>
       <c r="I37" s="1">
-        <v>1.1616552366998378E-5</v>
+        <v>1.1855927966021584E-5</v>
       </c>
       <c r="J37" s="1">
-        <v>8.3695385934799693E-6</v>
+        <v>9.0848355411565773E-6</v>
       </c>
       <c r="K37" s="1">
-        <v>1.2159962300028538E-5</v>
+        <v>1.2941036921878407E-5</v>
       </c>
       <c r="L37" s="1">
-        <v>-3.9809294497313713E-6</v>
+        <v>-4.1128061012891438E-6</v>
       </c>
       <c r="BR37" s="1"/>
       <c r="BS37" s="1"/>
@@ -17890,40 +17841,40 @@
     </row>
     <row r="38" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>9.9509721605033769E-5</v>
+        <v>9.8987670021893903E-5</v>
       </c>
       <c r="B38" s="5">
-        <v>1.2820853438167551E-5</v>
+        <v>1.1834987567932442E-5</v>
       </c>
       <c r="C38" s="5">
-        <v>9.5674085567550027E-5</v>
+        <v>9.5767493241787766E-5</v>
       </c>
       <c r="D38" s="5">
-        <v>1.4417362259738775E-6</v>
+        <v>7.5020229078556766E-7</v>
       </c>
       <c r="E38" s="5">
-        <v>1.3498660588328118E-4</v>
+        <v>1.3393407257892426E-4</v>
       </c>
       <c r="F38" s="5">
-        <v>2.0330431852236958E-5</v>
+        <v>2.1090232579092788E-5</v>
       </c>
       <c r="G38" s="5">
-        <v>4.3473461531266799E-5</v>
+        <v>4.2380487376644099E-5</v>
       </c>
       <c r="H38" s="5">
-        <v>3.5136947460261136E-5</v>
+        <v>3.453441075830857E-5</v>
       </c>
       <c r="I38" s="1">
-        <v>1.1855927966021584E-5</v>
+        <v>1.2412500358157524E-5</v>
       </c>
       <c r="J38" s="1">
-        <v>9.0848355411565773E-6</v>
+        <v>8.7369046312887888E-6</v>
       </c>
       <c r="K38" s="1">
-        <v>1.2941036921878407E-5</v>
+        <v>1.2407394173179534E-5</v>
       </c>
       <c r="L38" s="1">
-        <v>-4.1128061012891438E-6</v>
+        <v>-4.6235256306336771E-6</v>
       </c>
       <c r="BR38" s="1"/>
       <c r="BS38" s="1"/>
@@ -17931,40 +17882,40 @@
     </row>
     <row r="39" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>9.8987670021893903E-5</v>
+        <v>9.8738006340939183E-5</v>
       </c>
       <c r="B39" s="5">
-        <v>1.1834987567932442E-5</v>
+        <v>1.1413173153427408E-5</v>
       </c>
       <c r="C39" s="5">
-        <v>9.5767493241787766E-5</v>
+        <v>9.5301608526072307E-5</v>
       </c>
       <c r="D39" s="5">
-        <v>7.5020229078556766E-7</v>
+        <v>1.0093570457919698E-7</v>
       </c>
       <c r="E39" s="5">
-        <v>1.3393407257892426E-4</v>
+        <v>1.3225159629969008E-4</v>
       </c>
       <c r="F39" s="5">
-        <v>2.1090232579092788E-5</v>
+        <v>2.0073646238075865E-5</v>
       </c>
       <c r="G39" s="5">
-        <v>4.2380487376644099E-5</v>
+        <v>4.1633340392189383E-5</v>
       </c>
       <c r="H39" s="5">
-        <v>3.453441075830857E-5</v>
+        <v>3.3993118772220748E-5</v>
       </c>
       <c r="I39" s="1">
-        <v>1.2412500358157524E-5</v>
+        <v>1.1716592278353255E-5</v>
       </c>
       <c r="J39" s="1">
-        <v>8.7369046312887888E-6</v>
+        <v>8.0792266752283126E-6</v>
       </c>
       <c r="K39" s="1">
-        <v>1.2407394173179534E-5</v>
+        <v>1.2296654708101229E-5</v>
       </c>
       <c r="L39" s="1">
-        <v>-4.6235256306336771E-6</v>
+        <v>-4.7818924466557812E-6</v>
       </c>
       <c r="BR39" s="1"/>
       <c r="BS39" s="1"/>
@@ -17972,479 +17923,449 @@
     </row>
     <row r="40" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>9.8738006340939183E-5</v>
+        <v>9.7953144034251122E-5</v>
       </c>
       <c r="B40" s="5">
-        <v>1.1413173153427408E-5</v>
+        <v>9.6678057355525926E-6</v>
       </c>
       <c r="C40" s="5">
-        <v>9.5301608526072307E-5</v>
+        <v>9.429501425764486E-5</v>
       </c>
       <c r="D40" s="5">
-        <v>1.0093570457919698E-7</v>
+        <v>-1.2861737619038194E-7</v>
       </c>
       <c r="E40" s="5">
-        <v>1.3225159629969008E-4</v>
+        <v>1.3082444739115351E-4</v>
       </c>
       <c r="F40" s="5">
-        <v>2.0073646238075865E-5</v>
+        <v>1.9379932806262712E-5</v>
       </c>
       <c r="G40" s="5">
-        <v>4.1633340392189383E-5</v>
+        <v>3.9614201840548063E-5</v>
       </c>
       <c r="H40" s="5">
-        <v>3.3993118772220748E-5</v>
+        <v>3.2538615480408317E-5</v>
       </c>
       <c r="I40" s="1">
-        <v>1.1716592278353255E-5</v>
+        <v>1.1209513285617007E-5</v>
       </c>
       <c r="J40" s="1">
-        <v>8.0792266752283126E-6</v>
+        <v>4.875265122140926E-6</v>
       </c>
       <c r="K40" s="1">
-        <v>1.2296654708101229E-5</v>
+        <v>1.2668089814360669E-5</v>
       </c>
       <c r="L40" s="1">
-        <v>-4.7818924466557812E-6</v>
+        <v>-3.5707158292353457E-6</v>
       </c>
       <c r="BR40" s="1"/>
-      <c r="BS40" s="1"/>
-      <c r="BT40" s="1"/>
+      <c r="BU40" s="2"/>
     </row>
     <row r="41" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>9.7953144034251122E-5</v>
+        <v>9.672751848953387E-5</v>
       </c>
       <c r="B41" s="5">
-        <v>9.6678057355525926E-6</v>
+        <v>8.2021098154888561E-6</v>
       </c>
       <c r="C41" s="5">
-        <v>9.429501425764486E-5</v>
+        <v>9.3147610408843284E-5</v>
       </c>
       <c r="D41" s="5">
-        <v>-1.2861737619038194E-7</v>
+        <v>-1.8244316756579892E-6</v>
       </c>
       <c r="E41" s="5">
-        <v>1.3082444739115351E-4</v>
+        <v>1.2817099382957803E-4</v>
       </c>
       <c r="F41" s="5">
-        <v>1.9379932806262712E-5</v>
+        <v>1.8094009742453121E-5</v>
       </c>
       <c r="G41" s="5">
-        <v>3.9614201840548063E-5</v>
+        <v>3.7906553919671293E-5</v>
       </c>
       <c r="H41" s="5">
-        <v>3.2538615480408317E-5</v>
+        <v>3.0723605277879762E-5</v>
       </c>
       <c r="I41" s="1">
-        <v>1.1209513285617007E-5</v>
+        <v>1.0609234134120044E-5</v>
       </c>
       <c r="J41" s="1">
-        <v>4.875265122140926E-6</v>
+        <v>3.3597397898314785E-6</v>
       </c>
       <c r="K41" s="1">
-        <v>1.2668089814360669E-5</v>
+        <v>1.1758746394713456E-5</v>
       </c>
       <c r="L41" s="1">
-        <v>-3.5707158292353457E-6</v>
+        <v>-4.667165411385843E-6</v>
       </c>
       <c r="BR41" s="1"/>
       <c r="BU41" s="2"/>
     </row>
     <row r="42" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>9.672751848953387E-5</v>
+        <v>9.5521214439023283E-5</v>
       </c>
       <c r="B42" s="5">
-        <v>8.2021098154888561E-6</v>
+        <v>5.627048146800151E-6</v>
       </c>
       <c r="C42" s="5">
-        <v>9.3147610408843284E-5</v>
+        <v>9.1737894551833371E-5</v>
       </c>
       <c r="D42" s="5">
-        <v>-1.8244316756579892E-6</v>
+        <v>-2.6499618225421517E-6</v>
       </c>
       <c r="E42" s="5">
-        <v>1.2817099382957803E-4</v>
+        <v>1.2702274192531379E-4</v>
       </c>
       <c r="F42" s="5">
-        <v>1.8094009742453121E-5</v>
+        <v>1.7022723313116217E-5</v>
       </c>
       <c r="G42" s="5">
-        <v>3.7906553919671293E-5</v>
+        <v>3.5952755480111315E-5</v>
       </c>
       <c r="H42" s="5">
-        <v>3.0723605277879762E-5</v>
+        <v>2.9916958896331752E-5</v>
       </c>
       <c r="I42" s="1">
-        <v>1.0609234134120044E-5</v>
+        <v>9.7620445682553014E-6</v>
       </c>
       <c r="J42" s="1">
-        <v>3.3597397898314785E-6</v>
+        <v>1.4520546055725447E-6</v>
       </c>
       <c r="K42" s="1">
-        <v>1.1758746394713456E-5</v>
+        <v>1.2279018012798686E-5</v>
       </c>
       <c r="L42" s="1">
-        <v>-4.667165411385843E-6</v>
+        <v>-4.4232849816471485E-6</v>
       </c>
       <c r="BR42" s="1"/>
       <c r="BU42" s="2"/>
     </row>
     <row r="43" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>9.5521214439023283E-5</v>
+        <v>9.3805336290914143E-5</v>
       </c>
       <c r="B43" s="5">
-        <v>5.627048146800151E-6</v>
+        <v>4.2611909550870075E-6</v>
       </c>
       <c r="C43" s="5">
-        <v>9.1737894551833371E-5</v>
+        <v>8.9209416176495859E-5</v>
       </c>
       <c r="D43" s="5">
-        <v>-2.6499618225421517E-6</v>
+        <v>-4.810868488126091E-6</v>
       </c>
       <c r="E43" s="5">
-        <v>1.2702274192531379E-4</v>
+        <v>1.2462191729322933E-4</v>
       </c>
       <c r="F43" s="5">
-        <v>1.7022723313116217E-5</v>
+        <v>1.6120807684236876E-5</v>
       </c>
       <c r="G43" s="5">
-        <v>3.5952755480111315E-5</v>
+        <v>3.3838594053807458E-5</v>
       </c>
       <c r="H43" s="5">
-        <v>2.9916958896331752E-5</v>
+        <v>2.818831321187501E-5</v>
       </c>
       <c r="I43" s="1">
-        <v>9.7620445682553014E-6</v>
+        <v>8.4282739090044134E-6</v>
       </c>
       <c r="J43" s="1">
-        <v>1.4520546055725447E-6</v>
+        <v>-6.9439343089450212E-7</v>
       </c>
       <c r="K43" s="1">
-        <v>1.2279018012798686E-5</v>
+        <v>1.1997327297428445E-5</v>
       </c>
       <c r="L43" s="1">
-        <v>-4.4232849816471485E-6</v>
+        <v>-4.3612266659946025E-6</v>
       </c>
       <c r="BR43" s="1"/>
       <c r="BU43" s="2"/>
     </row>
     <row r="44" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>9.3805336290914143E-5</v>
+        <v>9.0972259597133648E-5</v>
       </c>
       <c r="B44" s="5">
-        <v>4.2611909550870075E-6</v>
+        <v>2.2548979159049687E-6</v>
       </c>
       <c r="C44" s="5">
-        <v>8.9209416176495859E-5</v>
+        <v>8.7472798288176778E-5</v>
       </c>
       <c r="D44" s="5">
-        <v>-4.810868488126091E-6</v>
+        <v>-6.2966771404299182E-6</v>
       </c>
       <c r="E44" s="5">
-        <v>1.2462191729322933E-4</v>
+        <v>1.2186416782225887E-4</v>
       </c>
       <c r="F44" s="5">
-        <v>1.6120807684236876E-5</v>
+        <v>1.4327758158648451E-5</v>
       </c>
       <c r="G44" s="5">
-        <v>3.3838594053807458E-5</v>
+        <v>3.0517096212531736E-5</v>
       </c>
       <c r="H44" s="5">
-        <v>2.818831321187501E-5</v>
+        <v>2.6400344968747352E-5</v>
       </c>
       <c r="I44" s="1">
-        <v>8.4282739090044134E-6</v>
+        <v>6.0726984231311565E-6</v>
       </c>
       <c r="J44" s="1">
-        <v>-6.9439343089450212E-7</v>
+        <v>-4.0168628286339769E-6</v>
       </c>
       <c r="K44" s="1">
-        <v>1.1997327297428445E-5</v>
+        <v>1.1857673138070666E-5</v>
       </c>
       <c r="L44" s="1">
-        <v>-4.3612266659946025E-6</v>
+        <v>-5.2048854521824679E-6</v>
       </c>
       <c r="BR44" s="1"/>
       <c r="BU44" s="2"/>
     </row>
     <row r="45" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>9.0972259597133648E-5</v>
+        <v>8.9772626003500888E-5</v>
       </c>
       <c r="B45" s="5">
-        <v>2.2548979159049687E-6</v>
+        <v>1.1819038101407164E-6</v>
       </c>
       <c r="C45" s="5">
-        <v>8.7472798288176778E-5</v>
+        <v>8.7169852937035025E-5</v>
       </c>
       <c r="D45" s="5">
-        <v>-6.2966771404299182E-6</v>
+        <v>-7.8946987803196755E-6</v>
       </c>
       <c r="E45" s="5">
-        <v>1.2186416782225887E-4</v>
+        <v>1.1984798045149708E-4</v>
       </c>
       <c r="F45" s="5">
-        <v>1.4327758158648451E-5</v>
+        <v>1.2828511876721016E-5</v>
       </c>
       <c r="G45" s="5">
-        <v>3.0517096212531736E-5</v>
+        <v>3.012510945362909E-5</v>
       </c>
       <c r="H45" s="5">
-        <v>2.6400344968747352E-5</v>
+        <v>2.4976786751260832E-5</v>
       </c>
       <c r="I45" s="1">
-        <v>6.0726984231311565E-6</v>
+        <v>4.7527159365082228E-6</v>
       </c>
       <c r="J45" s="1">
-        <v>-4.0168628286339769E-6</v>
+        <v>-4.7115277869332062E-6</v>
       </c>
       <c r="K45" s="1">
-        <v>1.1857673138070666E-5</v>
+        <v>1.194100086965305E-5</v>
       </c>
       <c r="L45" s="1">
-        <v>-5.2048854521824679E-6</v>
+        <v>-4.9512572176811827E-6</v>
       </c>
       <c r="BR45" s="1"/>
       <c r="BU45" s="2"/>
     </row>
     <row r="46" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>8.9772626003500888E-5</v>
+        <v>8.9136395312671562E-5</v>
       </c>
       <c r="B46" s="5">
-        <v>1.1819038101407164E-6</v>
+        <v>8.4353282420526754E-7</v>
       </c>
       <c r="C46" s="5">
-        <v>8.7169852937035025E-5</v>
+        <v>8.5314214695174362E-5</v>
       </c>
       <c r="D46" s="5">
-        <v>-7.8946987803196755E-6</v>
+        <v>-7.9114528506139814E-6</v>
       </c>
       <c r="E46" s="5">
-        <v>1.1984798045149708E-4</v>
+        <v>1.1828481522120279E-4</v>
       </c>
       <c r="F46" s="5">
-        <v>1.2828511876721016E-5</v>
+        <v>1.1816318398891884E-5</v>
       </c>
       <c r="G46" s="5">
-        <v>3.012510945362909E-5</v>
+        <v>2.8446050334553913E-5</v>
       </c>
       <c r="H46" s="5">
-        <v>2.4976786751260832E-5</v>
+        <v>2.4389214483121896E-5</v>
       </c>
       <c r="I46" s="1">
-        <v>4.7527159365082228E-6</v>
+        <v>4.7026934171454093E-6</v>
       </c>
       <c r="J46" s="1">
-        <v>-4.7115277869332062E-6</v>
+        <v>-6.1373730132728566E-6</v>
       </c>
       <c r="K46" s="1">
-        <v>1.194100086965305E-5</v>
+        <v>1.2447633689220304E-5</v>
       </c>
       <c r="L46" s="1">
-        <v>-4.9512572176811827E-6</v>
+        <v>-4.6613463836409422E-6</v>
       </c>
       <c r="BR46" s="1"/>
       <c r="BU46" s="2"/>
     </row>
     <row r="47" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>8.9136395312671562E-5</v>
+        <v>8.8721700452300267E-5</v>
       </c>
       <c r="B47" s="5">
-        <v>8.4353282420526754E-7</v>
+        <v>6.1676874717545016E-7</v>
       </c>
       <c r="C47" s="5">
-        <v>8.5314214695174362E-5</v>
+        <v>8.478350402988874E-5</v>
       </c>
       <c r="D47" s="5">
-        <v>-7.9114528506139814E-6</v>
+        <v>-8.6193272877607696E-6</v>
       </c>
       <c r="E47" s="5">
-        <v>1.1828481522120279E-4</v>
+        <v>1.1820801162923042E-4</v>
       </c>
       <c r="F47" s="5">
-        <v>1.1816318398891884E-5</v>
+        <v>1.1479442374725396E-5</v>
       </c>
       <c r="G47" s="5">
-        <v>2.8446050334553913E-5</v>
+        <v>2.8865508139575002E-5</v>
       </c>
       <c r="H47" s="5">
-        <v>2.4389214483121896E-5</v>
+        <v>2.4836473855156804E-5</v>
       </c>
       <c r="I47" s="1">
-        <v>4.7026934171454093E-6</v>
+        <v>4.5133282084233728E-6</v>
       </c>
       <c r="J47" s="1">
-        <v>-6.1373730132728566E-6</v>
+        <v>-5.2906604779828781E-6</v>
       </c>
       <c r="K47" s="1">
-        <v>1.2447633689220304E-5</v>
+        <v>1.1739192132213382E-5</v>
       </c>
       <c r="L47" s="1">
-        <v>-4.6613463836409422E-6</v>
+        <v>-4.7005528073691683E-6</v>
       </c>
       <c r="BR47" s="1"/>
-      <c r="BU47" s="2"/>
     </row>
     <row r="48" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>8.8721700452300267E-5</v>
+        <v>8.7877355249888628E-5</v>
       </c>
       <c r="B48" s="5">
-        <v>6.1676874717545016E-7</v>
+        <v>1.8649877589621555E-6</v>
       </c>
       <c r="C48" s="5">
-        <v>8.478350402988874E-5</v>
+        <v>8.4644448803239403E-5</v>
       </c>
       <c r="D48" s="5">
-        <v>-8.6193272877607696E-6</v>
+        <v>-7.2876663245388662E-6</v>
       </c>
       <c r="E48" s="5">
-        <v>1.1820801162923042E-4</v>
+        <v>1.1801954056672032E-4</v>
       </c>
       <c r="F48" s="5">
-        <v>1.1479442374725396E-5</v>
+        <v>1.1985316315545752E-5</v>
       </c>
       <c r="G48" s="5">
-        <v>2.8865508139575002E-5</v>
+        <v>2.8878555185653937E-5</v>
       </c>
       <c r="H48" s="5">
-        <v>2.4836473855156804E-5</v>
+        <v>2.4932032402825294E-5</v>
       </c>
       <c r="I48" s="1">
-        <v>4.5133282084233728E-6</v>
+        <v>5.2319944486602099E-6</v>
       </c>
       <c r="J48" s="1">
-        <v>-5.2906604779828781E-6</v>
+        <v>-5.5417562825205158E-6</v>
       </c>
       <c r="K48" s="1">
-        <v>1.1739192132213382E-5</v>
+        <v>1.2146649956738321E-5</v>
       </c>
       <c r="L48" s="1">
-        <v>-4.7005528073691683E-6</v>
+        <v>-4.4740603462709201E-6</v>
       </c>
       <c r="BR48" s="1"/>
     </row>
     <row r="49" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>8.7877355249888628E-5</v>
+        <v>8.7439718589325116E-5</v>
       </c>
       <c r="B49" s="5">
-        <v>1.8649877589621555E-6</v>
+        <v>3.1040620127424645E-6</v>
       </c>
       <c r="C49" s="5">
-        <v>8.4644448803239403E-5</v>
+        <v>8.4172472550800986E-5</v>
       </c>
       <c r="D49" s="5">
-        <v>-7.2876663245388662E-6</v>
+        <v>-6.9139360712941467E-6</v>
       </c>
       <c r="E49" s="5">
-        <v>1.1801954056672032E-4</v>
+        <v>1.175005769502406E-4</v>
       </c>
       <c r="F49" s="5">
-        <v>1.1985316315545752E-5</v>
+        <v>1.2858994326681028E-5</v>
       </c>
       <c r="G49" s="5">
-        <v>2.8878555185653937E-5</v>
+        <v>3.0255469006024854E-5</v>
       </c>
       <c r="H49" s="5">
-        <v>2.4932032402825294E-5</v>
+        <v>2.6269839560531111E-5</v>
       </c>
       <c r="I49" s="1">
-        <v>5.2319944486602099E-6</v>
+        <v>7.4240627403604487E-6</v>
       </c>
       <c r="J49" s="1">
-        <v>-5.5417562825205158E-6</v>
+        <v>-2.0605314026110599E-6</v>
       </c>
       <c r="K49" s="1">
-        <v>1.2146649956738321E-5</v>
+        <v>1.1758413387862629E-5</v>
       </c>
       <c r="L49" s="1">
-        <v>-4.4740603462709201E-6</v>
+        <v>-4.7175241221692789E-6</v>
       </c>
       <c r="BR49" s="1"/>
     </row>
     <row r="50" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>8.7439718589325116E-5</v>
+        <v>8.4792508560721513E-5</v>
       </c>
       <c r="B50" s="5">
-        <v>3.1040620127424645E-6</v>
+        <v>5.0441972253185974E-6</v>
       </c>
       <c r="C50" s="5">
-        <v>8.4172472550800986E-5</v>
+        <v>8.3813318150372657E-5</v>
       </c>
       <c r="D50" s="5">
-        <v>-6.9139360712941467E-6</v>
+        <v>-5.1312679070283918E-6</v>
       </c>
       <c r="E50" s="5">
-        <v>1.175005769502406E-4</v>
+        <v>1.1635694871879598E-4</v>
       </c>
       <c r="F50" s="5">
-        <v>1.2858994326681028E-5</v>
+        <v>1.3214248391953815E-5</v>
       </c>
       <c r="G50" s="5">
-        <v>3.0255469006024854E-5</v>
+        <v>3.1385418916497071E-5</v>
       </c>
       <c r="H50" s="5">
-        <v>2.6269839560531111E-5</v>
+        <v>2.6415271711561356E-5</v>
       </c>
       <c r="I50" s="1">
-        <v>7.4240627403604487E-6</v>
+        <v>9.5139704100050126E-6</v>
       </c>
       <c r="J50" s="1">
-        <v>-2.0605314026110599E-6</v>
+        <v>7.583131936619858E-7</v>
       </c>
       <c r="K50" s="1">
-        <v>1.1758413387862629E-5</v>
+        <v>1.1826502634252462E-5</v>
       </c>
       <c r="L50" s="1">
-        <v>-4.7175241221692789E-6</v>
+        <v>-3.5624177570341836E-6</v>
       </c>
       <c r="BR50" s="1"/>
     </row>
     <row r="51" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>8.4792508560721513E-5</v>
-      </c>
-      <c r="B51" s="5">
-        <v>5.0441972253185974E-6</v>
-      </c>
-      <c r="C51" s="5">
-        <v>8.3813318150372657E-5</v>
-      </c>
-      <c r="D51" s="5">
-        <v>-5.1312679070283918E-6</v>
-      </c>
-      <c r="E51" s="5">
-        <v>1.1635694871879598E-4</v>
-      </c>
-      <c r="F51" s="5">
-        <v>1.3214248391953815E-5</v>
-      </c>
-      <c r="G51" s="5">
-        <v>3.1385418916497071E-5</v>
-      </c>
-      <c r="H51" s="5">
-        <v>2.6415271711561356E-5</v>
-      </c>
-      <c r="I51" s="1">
-        <v>9.5139704100050126E-6</v>
-      </c>
-      <c r="J51" s="1">
-        <v>7.583131936619858E-7</v>
-      </c>
-      <c r="K51" s="1">
-        <v>1.1826502634252462E-5</v>
-      </c>
-      <c r="L51" s="1">
-        <v>-3.5624177570341836E-6</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
       <c r="BR51" s="1"/>
     </row>
     <row r="52" spans="1:70" x14ac:dyDescent="0.2">
@@ -25906,14 +25827,6 @@
       <c r="BR729" s="1"/>
     </row>
     <row r="730" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A730" s="5"/>
-      <c r="B730" s="5"/>
-      <c r="C730" s="5"/>
-      <c r="D730" s="5"/>
-      <c r="E730" s="5"/>
-      <c r="F730" s="5"/>
-      <c r="G730" s="5"/>
-      <c r="H730" s="5"/>
       <c r="BR730" s="1"/>
     </row>
     <row r="731" spans="1:70" x14ac:dyDescent="0.2">
@@ -27052,9 +26965,6 @@
     </row>
     <row r="1109" spans="70:70" x14ac:dyDescent="0.2">
       <c r="BR1109" s="1"/>
-    </row>
-    <row r="1110" spans="70:70" x14ac:dyDescent="0.2">
-      <c r="BR1110" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Alfa wing graphs/dataset.xlsx
+++ b/Alfa wing graphs/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\Documents\GitHub\E02H_2021\Alfa wing graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B903E24-047A-4A02-A71B-2D701247A58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAA214D-FEB7-4EEC-9FB5-6F54CEA7E776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOAD &amp; DISPLACEMENT" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -146,6 +146,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +432,7 @@
   <dimension ref="A1:BQ1110"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A2" sqref="A2:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -466,7 +469,7 @@
       </c>
     </row>
     <row r="2" spans="1:68" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -477,7 +480,7 @@
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <v>-2.2757722003960055</v>
       </c>
       <c r="B3" s="5">
@@ -491,7 +494,7 @@
       <c r="BP3" s="1"/>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="10">
         <v>-4.4027576088354579</v>
       </c>
       <c r="B4" s="5">
@@ -505,7 +508,7 @@
       <c r="BP4" s="1"/>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="10">
         <v>-147.31477670677685</v>
       </c>
       <c r="B5" s="5">
@@ -519,7 +522,7 @@
       <c r="BP5" s="1"/>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="10">
         <v>-371.26553544280466</v>
       </c>
       <c r="B6" s="5">
@@ -533,7 +536,7 @@
       <c r="BP6" s="1"/>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="10">
         <v>-573.7545300785207</v>
       </c>
       <c r="B7" s="5">
@@ -547,7 +550,7 @@
       <c r="BP7" s="1"/>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="10">
         <v>-759.36429106061564</v>
       </c>
       <c r="B8" s="5">
@@ -561,7 +564,7 @@
       <c r="BP8" s="1"/>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="10">
         <v>-937.44175383493075</v>
       </c>
       <c r="B9" s="5">
@@ -575,7 +578,7 @@
       <c r="BP9" s="1"/>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="10">
         <v>-1118.3651778917872</v>
       </c>
       <c r="B10" s="5">
@@ -589,7 +592,7 @@
       <c r="BP10" s="1"/>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="10">
         <v>-1295.3620851493508</v>
       </c>
       <c r="B11" s="5">
@@ -603,7 +606,7 @@
       <c r="BP11" s="1"/>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="10">
         <v>-1475.3862168947614</v>
       </c>
       <c r="B12" s="5">
@@ -617,7 +620,7 @@
       <c r="BP12" s="1"/>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="10">
         <v>-1654.5367898611757</v>
       </c>
       <c r="B13" s="5">
@@ -631,7 +634,7 @@
       <c r="BP13" s="1"/>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="10">
         <v>-1768.5235594527921</v>
       </c>
       <c r="B14" s="5">
@@ -645,7 +648,7 @@
       <c r="BP14" s="1"/>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="10">
         <v>-1890.4197682502395</v>
       </c>
       <c r="B15" s="5">
@@ -659,7 +662,7 @@
       <c r="BP15" s="1"/>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="10">
         <v>-2003.5790055117391</v>
       </c>
       <c r="B16" s="5">
@@ -673,7 +676,7 @@
       <c r="BP16" s="1"/>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="10">
         <v>-2135.4263601713387</v>
       </c>
       <c r="B17" s="5">
@@ -687,7 +690,7 @@
       <c r="BP17" s="1"/>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="10">
         <v>-2181.8926077152987</v>
       </c>
       <c r="B18" s="5">
@@ -701,7 +704,7 @@
       <c r="BP18" s="1"/>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="10">
         <v>-2252.3348480796813</v>
       </c>
       <c r="B19" s="5">
@@ -715,7 +718,7 @@
       <c r="BP19" s="1"/>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="10">
         <v>-2311.5171220390239</v>
       </c>
       <c r="B20" s="5">
@@ -729,7 +732,7 @@
       <c r="BP20" s="1"/>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="10">
         <v>-2367.7188973275088</v>
       </c>
       <c r="B21" s="5">
@@ -743,7 +746,7 @@
       <c r="BP21" s="1"/>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="10">
         <v>-2435.8985393321605</v>
       </c>
       <c r="B22" s="5">
@@ -757,7 +760,7 @@
       <c r="BP22" s="1"/>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="10">
         <v>-2486.8619105017001</v>
       </c>
       <c r="B23" s="5">
@@ -771,7 +774,7 @@
       <c r="BP23" s="1"/>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="10">
         <v>-2551.4187272584877</v>
       </c>
       <c r="B24" s="5">
@@ -785,7 +788,7 @@
       <c r="BP24" s="1"/>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="10">
         <v>-2636.1895293315238</v>
       </c>
       <c r="B25" s="5">
@@ -799,7 +802,7 @@
       <c r="BP25" s="1"/>
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="10">
         <v>-2698.7030483808239</v>
       </c>
       <c r="B26" s="5">
@@ -813,7 +816,7 @@
       <c r="BP26" s="1"/>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="10">
         <v>-2754.0719024725499</v>
       </c>
       <c r="B27" s="5">
@@ -827,7 +830,7 @@
       <c r="BP27" s="1"/>
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="10">
         <v>-2812.0000461653717</v>
       </c>
       <c r="B28" s="5">
@@ -841,7 +844,7 @@
       <c r="BP28" s="1"/>
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="10">
         <v>-2858.5017030406329</v>
       </c>
       <c r="B29" s="5">
@@ -855,7 +858,7 @@
       <c r="BP29" s="1"/>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="10">
         <v>-2904.4753980007845</v>
       </c>
       <c r="B30" s="5">
@@ -869,7 +872,7 @@
       <c r="BP30" s="1"/>
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="10">
         <v>-2946.0630247318741</v>
       </c>
       <c r="B31" s="5">
@@ -883,7 +886,7 @@
       <c r="BP31" s="1"/>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="10">
         <v>-2985.0623403888435</v>
       </c>
       <c r="B32" s="5">
@@ -897,7 +900,7 @@
       <c r="BP32" s="1"/>
     </row>
     <row r="33" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="10">
         <v>-3025.8001537365385</v>
       </c>
       <c r="B33" s="5">
@@ -911,7 +914,7 @@
       <c r="BP33" s="1"/>
     </row>
     <row r="34" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="10">
         <v>-3054.051258065886</v>
       </c>
       <c r="B34" s="5">
@@ -925,7 +928,7 @@
       <c r="BP34" s="1"/>
     </row>
     <row r="35" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="10">
         <v>-3087.9552721707769</v>
       </c>
       <c r="B35" s="5">
@@ -939,7 +942,7 @@
       <c r="BP35" s="1"/>
     </row>
     <row r="36" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="10">
         <v>-3123.2408575396407</v>
       </c>
       <c r="B36" s="5">
@@ -953,7 +956,7 @@
       <c r="BP36" s="1"/>
     </row>
     <row r="37" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="10">
         <v>-3138.2546865502918</v>
       </c>
       <c r="B37" s="5">
@@ -967,7 +970,7 @@
       <c r="BP37" s="1"/>
     </row>
     <row r="38" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="10">
         <v>-3178.0475301057668</v>
       </c>
       <c r="B38" s="5">
@@ -981,7 +984,7 @@
       <c r="BP38" s="1"/>
     </row>
     <row r="39" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="10">
         <v>-3198.5563628218865</v>
       </c>
       <c r="B39" s="5">
@@ -995,7 +998,7 @@
       <c r="BP39" s="1"/>
     </row>
     <row r="40" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="10">
         <v>-3222.1854972521742</v>
       </c>
       <c r="B40" s="5">
@@ -1009,7 +1012,7 @@
       <c r="BP40" s="1"/>
     </row>
     <row r="41" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="10">
         <v>-3238.9424881243804</v>
       </c>
       <c r="B41" s="5">
@@ -1022,7 +1025,7 @@
       <c r="BQ41" s="2"/>
     </row>
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="10">
         <v>-3249.9587920312401</v>
       </c>
       <c r="B42" s="5">
@@ -1035,7 +1038,7 @@
       <c r="BQ42" s="2"/>
     </row>
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="10">
         <v>-3268.7647392977115</v>
       </c>
       <c r="B43" s="5">
@@ -1048,7 +1051,7 @@
       <c r="BQ43" s="2"/>
     </row>
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="10">
         <v>-3275.1703456472414</v>
       </c>
       <c r="B44" s="5">
@@ -1061,7 +1064,7 @@
       <c r="BQ44" s="2"/>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="10">
         <v>-3286.1047033878767</v>
       </c>
       <c r="B45" s="5">
@@ -1074,7 +1077,7 @@
       <c r="BQ45" s="2"/>
     </row>
     <row r="46" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="10">
         <v>-3295.6843189428423</v>
       </c>
       <c r="B46" s="5">
@@ -1087,7 +1090,7 @@
       <c r="BQ46" s="2"/>
     </row>
     <row r="47" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="10">
         <v>-3286.5048427208599</v>
       </c>
       <c r="B47" s="5">
@@ -1100,7 +1103,7 @@
       <c r="BQ47" s="2"/>
     </row>
     <row r="48" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="10">
         <v>-3250.9674164802573</v>
       </c>
       <c r="B48" s="5">
@@ -1112,7 +1115,7 @@
       <c r="BN48" s="1"/>
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="10">
         <v>-3202.1647308889633</v>
       </c>
       <c r="B49" s="5">
@@ -1124,7 +1127,7 @@
       <c r="BN49" s="1"/>
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="10">
         <v>-3135.7617998169526</v>
       </c>
       <c r="B50" s="5">
@@ -1136,7 +1139,7 @@
       <c r="BN50" s="1"/>
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="10">
         <v>-3006.3843569291917</v>
       </c>
       <c r="B51" s="5">
@@ -1148,187 +1151,249 @@
       <c r="BN51" s="1"/>
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="10">
+        <v>-2980.2852155489345</v>
+      </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="BN52" s="1"/>
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="10">
+        <v>-2959.676194595113</v>
+      </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="BN53" s="1"/>
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A54" s="10">
+        <v>-2921.7777654858819</v>
+      </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="BN54" s="1"/>
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
+      <c r="A55" s="10">
+        <v>-2887.0129209040983</v>
+      </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="BN55" s="1"/>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="A56" s="10">
+        <v>-2871.0310054210668</v>
+      </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="BN56" s="1"/>
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="A57" s="10">
+        <v>-2852.5149775241493</v>
+      </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="BN57" s="1"/>
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="10">
+        <v>-2852.1563940803826</v>
+      </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="BN58" s="1"/>
     </row>
     <row r="59" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="10">
+        <v>-2841.1848940955874</v>
+      </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="BN59" s="1"/>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="10">
+        <v>-2845.7369037713397</v>
+      </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="BN60" s="1"/>
     </row>
     <row r="61" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="10">
+        <v>-2847.1552357878522</v>
+      </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="BN61" s="1"/>
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="10">
+        <v>-2862.9828514578535</v>
+      </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="BN62" s="1"/>
     </row>
     <row r="63" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="10">
+        <v>-2896.0159097119231</v>
+      </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="BN63" s="1"/>
     </row>
     <row r="64" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="10">
+        <v>-2563.7928052971711</v>
+      </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="BN64" s="1"/>
     </row>
     <row r="65" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="10">
+        <v>-2300.6953212123071</v>
+      </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="BN65" s="1"/>
     </row>
     <row r="66" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="A66" s="10">
+        <v>-1998.611421309457</v>
+      </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="BN66" s="1"/>
     </row>
     <row r="67" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
+      <c r="A67" s="10">
+        <v>-1808.6447674672293</v>
+      </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="BN67" s="1"/>
     </row>
     <row r="68" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
+      <c r="A68" s="10">
+        <v>-1526.9708302766239</v>
+      </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="BN68" s="1"/>
     </row>
     <row r="69" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
+      <c r="A69" s="10">
+        <v>-1310.997068667878</v>
+      </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="BN69" s="1"/>
     </row>
     <row r="70" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
+      <c r="A70" s="10">
+        <v>-1140.4272477866632</v>
+      </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="BN70" s="1"/>
     </row>
     <row r="71" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
+      <c r="A71" s="10">
+        <v>-947.92745370974262</v>
+      </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="BN71" s="1"/>
     </row>
     <row r="72" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="10">
+        <v>-779.71649779411302</v>
+      </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="BN72" s="1"/>
     </row>
     <row r="73" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="10">
+        <v>-567.05814666733465</v>
+      </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="BN73" s="1"/>
     </row>
     <row r="74" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
+      <c r="A74" s="10">
+        <v>-419.33468036702732</v>
+      </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="BN74" s="1"/>
     </row>
     <row r="75" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
+      <c r="A75" s="10">
+        <v>-273.02820855074009</v>
+      </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="BN75" s="1"/>
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
+      <c r="A76" s="10">
+        <v>-167.73514444828015</v>
+      </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="BN76" s="1"/>
     </row>
     <row r="77" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="10">
+        <v>-72.994504478655585</v>
+      </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="BN77" s="1"/>
     </row>
     <row r="78" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
+      <c r="A78" s="10">
+        <v>-1.4581287037174206E-2</v>
+      </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="BN78" s="1"/>
     </row>
     <row r="79" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
+      <c r="A79" s="10">
+        <v>21.298187082997117</v>
+      </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="BN79" s="1"/>
     </row>
     <row r="80" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
+      <c r="A80" s="10">
+        <v>-7.7147461752359732</v>
+      </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="BN80" s="1"/>
     </row>
     <row r="81" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
+      <c r="A81" s="10">
+        <v>40.566862873233987</v>
+      </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="BN81" s="1"/>
     </row>
     <row r="82" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
+      <c r="A82" s="10">
+        <v>7.7088763761752546</v>
+      </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="BN82" s="1"/>
@@ -6371,7 +6436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BT1110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3:J51"/>
     </sheetView>
   </sheetViews>
@@ -16368,8 +16433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BU1110"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16467,10 +16532,10 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -16511,42 +16576,18 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="5">
-        <v>2.8953628162482065E-5</v>
-      </c>
-      <c r="N3" s="5">
-        <v>3.2132135970801279E-5</v>
-      </c>
-      <c r="O3" s="5">
-        <v>3.2398816005800579E-5</v>
-      </c>
-      <c r="P3" s="5">
-        <v>2.888015178508993E-5</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>3.3464222324374598E-5</v>
-      </c>
-      <c r="R3" s="5">
-        <v>3.3507475297411132E-5</v>
-      </c>
-      <c r="S3" s="5">
-        <v>3.4680770654965665E-5</v>
-      </c>
-      <c r="T3" s="5">
-        <v>3.2229470801493215E-5</v>
-      </c>
-      <c r="U3" s="1">
-        <v>3.5365248451102449E-5</v>
-      </c>
-      <c r="V3" s="1">
-        <v>4.3661155674213498E-5</v>
-      </c>
-      <c r="W3" s="1">
+      <c r="M3" s="1">
         <v>5.3467267697026731E-6</v>
       </c>
-      <c r="X3" s="1">
+      <c r="N3" s="1">
         <v>7.4929195246781904E-7</v>
       </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
       <c r="BR3" s="1"/>
       <c r="BS3" s="1"/>
       <c r="BT3" s="1"/>
@@ -18513,6 +18554,12 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
+      <c r="K52" s="1">
+        <v>7.4794240817839183E-6</v>
+      </c>
+      <c r="L52" s="1">
+        <v>-4.4918516460277016E-6</v>
+      </c>
       <c r="BR52" s="1"/>
     </row>
     <row r="53" spans="1:70" x14ac:dyDescent="0.25">
@@ -18524,6 +18571,12 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
+      <c r="K53" s="1">
+        <v>6.677458970373606E-6</v>
+      </c>
+      <c r="L53" s="1">
+        <v>-4.3202416565493035E-6</v>
+      </c>
       <c r="BR53" s="1"/>
     </row>
     <row r="54" spans="1:70" x14ac:dyDescent="0.25">
@@ -18535,6 +18588,12 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
+      <c r="K54" s="1">
+        <v>6.8549458484188871E-6</v>
+      </c>
+      <c r="L54" s="1">
+        <v>-3.9744699937712367E-6</v>
+      </c>
       <c r="BR54" s="1"/>
     </row>
     <row r="55" spans="1:70" x14ac:dyDescent="0.25">
@@ -18546,6 +18605,12 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
+      <c r="K55" s="1">
+        <v>7.5625666474726165E-6</v>
+      </c>
+      <c r="L55" s="1">
+        <v>-3.794293936985535E-6</v>
+      </c>
       <c r="BR55" s="1"/>
     </row>
     <row r="56" spans="1:70" x14ac:dyDescent="0.25">
@@ -18557,6 +18622,12 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
+      <c r="K56" s="1">
+        <v>6.8789020789922716E-6</v>
+      </c>
+      <c r="L56" s="1">
+        <v>-3.7625230196879252E-6</v>
+      </c>
       <c r="BR56" s="1"/>
     </row>
     <row r="57" spans="1:70" x14ac:dyDescent="0.25">
@@ -18568,6 +18639,12 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
+      <c r="K57" s="1">
+        <v>7.7436217978136472E-6</v>
+      </c>
+      <c r="L57" s="1">
+        <v>-3.6104250641989279E-6</v>
+      </c>
       <c r="BR57" s="1"/>
     </row>
     <row r="58" spans="1:70" x14ac:dyDescent="0.25">
@@ -18579,6 +18656,12 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
+      <c r="K58" s="1">
+        <v>7.4288057609961985E-6</v>
+      </c>
+      <c r="L58" s="1">
+        <v>-3.7047956463242063E-6</v>
+      </c>
       <c r="BR58" s="1"/>
     </row>
     <row r="59" spans="1:70" x14ac:dyDescent="0.25">
@@ -18590,6 +18673,12 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
+      <c r="K59" s="1">
+        <v>7.5538908167717346E-6</v>
+      </c>
+      <c r="L59" s="1">
+        <v>-4.4506077331498556E-6</v>
+      </c>
       <c r="BR59" s="1"/>
     </row>
     <row r="60" spans="1:70" x14ac:dyDescent="0.25">
@@ -18601,6 +18690,12 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
+      <c r="K60" s="1">
+        <v>6.5315417738284862E-6</v>
+      </c>
+      <c r="L60" s="1">
+        <v>-3.641006202265238E-6</v>
+      </c>
       <c r="BR60" s="1"/>
     </row>
     <row r="61" spans="1:70" x14ac:dyDescent="0.25">
@@ -18612,6 +18707,12 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
+      <c r="K61" s="1">
+        <v>7.6073956912492673E-6</v>
+      </c>
+      <c r="L61" s="1">
+        <v>-3.6222631566076163E-6</v>
+      </c>
       <c r="BR61" s="1"/>
     </row>
     <row r="62" spans="1:70" x14ac:dyDescent="0.25">
@@ -18623,6 +18724,12 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
+      <c r="K62" s="1">
+        <v>7.0875949048111991E-6</v>
+      </c>
+      <c r="L62" s="1">
+        <v>-3.3678482055546181E-6</v>
+      </c>
       <c r="BR62" s="1"/>
     </row>
     <row r="63" spans="1:70" x14ac:dyDescent="0.25">
@@ -18634,6 +18741,12 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
+      <c r="K63" s="1">
+        <v>7.1275469026483868E-6</v>
+      </c>
+      <c r="L63" s="1">
+        <v>-3.9831539924081727E-6</v>
+      </c>
       <c r="BR63" s="1"/>
     </row>
     <row r="64" spans="1:70" x14ac:dyDescent="0.25">
@@ -18645,6 +18758,12 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
+      <c r="K64" s="1">
+        <v>5.9044526889577066E-6</v>
+      </c>
+      <c r="L64" s="1">
+        <v>-2.0945287211152942E-6</v>
+      </c>
       <c r="BR64" s="1"/>
     </row>
     <row r="65" spans="1:70" x14ac:dyDescent="0.25">
@@ -18656,6 +18775,12 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
+      <c r="K65" s="1">
+        <v>5.9724419891616092E-6</v>
+      </c>
+      <c r="L65" s="1">
+        <v>-7.315670605325536E-7</v>
+      </c>
       <c r="BR65" s="1"/>
     </row>
     <row r="66" spans="1:70" x14ac:dyDescent="0.25">
@@ -18667,6 +18792,12 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
+      <c r="K66" s="1">
+        <v>5.5424259934002589E-6</v>
+      </c>
+      <c r="L66" s="1">
+        <v>-1.4675403090360153E-7</v>
+      </c>
       <c r="BR66" s="1"/>
     </row>
     <row r="67" spans="1:70" x14ac:dyDescent="0.25">
@@ -18678,6 +18809,12 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
+      <c r="K67" s="1">
+        <v>4.8378753160563935E-6</v>
+      </c>
+      <c r="L67" s="1">
+        <v>5.2152627139871038E-7</v>
+      </c>
       <c r="BR67" s="1"/>
     </row>
     <row r="68" spans="1:70" x14ac:dyDescent="0.25">
@@ -18689,6 +18826,12 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
+      <c r="K68" s="1">
+        <v>4.8870472633568253E-6</v>
+      </c>
+      <c r="L68" s="1">
+        <v>1.3279371540498609E-6</v>
+      </c>
       <c r="BR68" s="1"/>
     </row>
     <row r="69" spans="1:70" x14ac:dyDescent="0.25">
@@ -18700,6 +18843,12 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
+      <c r="K69" s="1">
+        <v>4.3992650881342064E-6</v>
+      </c>
+      <c r="L69" s="1">
+        <v>2.7429051455735327E-6</v>
+      </c>
       <c r="BR69" s="1"/>
     </row>
     <row r="70" spans="1:70" x14ac:dyDescent="0.25">
@@ -18711,6 +18860,12 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
+      <c r="K70" s="1">
+        <v>4.1467402947897814E-6</v>
+      </c>
+      <c r="L70" s="1">
+        <v>2.0716404407813277E-6</v>
+      </c>
       <c r="BR70" s="1"/>
     </row>
     <row r="71" spans="1:70" x14ac:dyDescent="0.25">
@@ -18722,6 +18877,12 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
+      <c r="K71" s="1">
+        <v>3.8347200475608327E-6</v>
+      </c>
+      <c r="L71" s="1">
+        <v>3.6517904639142909E-6</v>
+      </c>
       <c r="BR71" s="1"/>
     </row>
     <row r="72" spans="1:70" x14ac:dyDescent="0.25">
@@ -18733,6 +18894,12 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
+      <c r="K72" s="1">
+        <v>3.430822838285314E-6</v>
+      </c>
+      <c r="L72" s="1">
+        <v>3.5704742695806882E-6</v>
+      </c>
       <c r="BR72" s="1"/>
     </row>
     <row r="73" spans="1:70" x14ac:dyDescent="0.25">
@@ -18744,6 +18911,12 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
+      <c r="K73" s="1">
+        <v>2.5086822055115613E-6</v>
+      </c>
+      <c r="L73" s="1">
+        <v>3.9837496780287945E-6</v>
+      </c>
       <c r="BR73" s="1"/>
     </row>
     <row r="74" spans="1:70" x14ac:dyDescent="0.25">
@@ -18755,6 +18928,12 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
+      <c r="K74" s="1">
+        <v>2.6866310911842018E-6</v>
+      </c>
+      <c r="L74" s="1">
+        <v>4.4232415543684483E-6</v>
+      </c>
       <c r="BR74" s="1"/>
     </row>
     <row r="75" spans="1:70" x14ac:dyDescent="0.25">
@@ -18766,6 +18945,12 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
+      <c r="K75" s="1">
+        <v>2.1463291907680856E-6</v>
+      </c>
+      <c r="L75" s="1">
+        <v>4.7524624527217445E-6</v>
+      </c>
       <c r="BR75" s="1"/>
     </row>
     <row r="76" spans="1:70" x14ac:dyDescent="0.25">
@@ -18777,6 +18962,12 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
+      <c r="K76" s="1">
+        <v>2.3394576205271037E-6</v>
+      </c>
+      <c r="L76" s="1">
+        <v>5.6363497780162822E-6</v>
+      </c>
       <c r="BR76" s="1"/>
     </row>
     <row r="77" spans="1:70" x14ac:dyDescent="0.25">
@@ -18788,6 +18979,12 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
+      <c r="K77" s="1">
+        <v>2.2313514940843805E-6</v>
+      </c>
+      <c r="L77" s="1">
+        <v>6.0420908867806801E-6</v>
+      </c>
       <c r="BR77" s="1"/>
     </row>
     <row r="78" spans="1:70" x14ac:dyDescent="0.25">
@@ -18799,6 +18996,12 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
+      <c r="K78" s="1">
+        <v>2.3355461108391239E-6</v>
+      </c>
+      <c r="L78" s="1">
+        <v>5.3978612967850621E-6</v>
+      </c>
       <c r="BR78" s="1"/>
     </row>
     <row r="79" spans="1:70" x14ac:dyDescent="0.25">
@@ -18810,6 +19013,12 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
+      <c r="K79" s="1">
+        <v>2.2131434491780332E-6</v>
+      </c>
+      <c r="L79" s="1">
+        <v>5.7051300985425622E-6</v>
+      </c>
       <c r="BR79" s="1"/>
     </row>
     <row r="80" spans="1:70" x14ac:dyDescent="0.25">
@@ -18821,6 +19030,12 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
+      <c r="K80" s="1">
+        <v>1.7077568887173262E-6</v>
+      </c>
+      <c r="L80" s="1">
+        <v>6.2224928651603145E-6</v>
+      </c>
       <c r="BR80" s="1"/>
     </row>
     <row r="81" spans="1:70" x14ac:dyDescent="0.25">
@@ -18832,6 +19047,12 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
+      <c r="K81" s="1">
+        <v>1.6992160615778885E-6</v>
+      </c>
+      <c r="L81" s="1">
+        <v>6.4255733157056807E-6</v>
+      </c>
       <c r="BR81" s="1"/>
     </row>
     <row r="82" spans="1:70" x14ac:dyDescent="0.25">
@@ -18843,6 +19064,12 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
+      <c r="K82" s="1">
+        <v>2.1397853588918663E-6</v>
+      </c>
+      <c r="L82" s="1">
+        <v>6.4446013401425924E-6</v>
+      </c>
       <c r="BR82" s="1"/>
     </row>
     <row r="83" spans="1:70" x14ac:dyDescent="0.25">
